--- a/spots.xlsx
+++ b/spots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73907977-2A6D-4056-9C39-B8D43BB2D03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E588A012-2207-4B44-B68F-A6AD75430087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="観光" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>【アンケート人気No.1：69件】江戸時代の町並みが残る歴史的地区。「街並みが良い」「雰囲気がいい」と高評価。天領時代の商家や土蔵が立ち並び、国の重要伝統的建造物群保存地区に指定。散策、ショッピング、カフェ巡りが楽しめる。住所：日田市豆田町</t>
   </si>
   <si>
-    <t>咸宜園跡（世界遺産）</t>
-  </si>
-  <si>
     <t>30分</t>
   </si>
   <si>
@@ -876,6 +873,13 @@
   </si>
   <si>
     <t>【種別：倒壊危険箇所】市内各所の古いブロック塀や石垣。特に豆田町など古い町並みに多い。【地震リスク】大地震時には倒壊の危険性が高い。下敷きになる可能性。【対策】地震発生時はブロック塀や石垣から離れる。通学路など日常的に通行する場所の危険箇所を事前に把握。住所：日田市内各所</t>
+  </si>
+  <si>
+    <t>咸宜園跡（日本遺産）</t>
+    <rPh sb="5" eb="7">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1249,9 +1253,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1304,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1316,10 +1325,10 @@
         <v>130.94720000000001</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1327,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1339,10 +1348,10 @@
         <v>130.9469</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1350,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1362,10 +1371,10 @@
         <v>130.94280000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1373,10 +1382,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6">
         <v>33.322800000000001</v>
@@ -1385,10 +1394,10 @@
         <v>130.94059999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1396,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1408,10 +1417,10 @@
         <v>130.9419</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1419,10 +1428,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>33.319400000000002</v>
@@ -1431,10 +1440,10 @@
         <v>130.93690000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1442,10 +1451,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9">
         <v>33.3217</v>
@@ -1457,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1465,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>33.3215</v>
@@ -1477,10 +1486,10 @@
         <v>130.93950000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1488,10 +1497,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>33.3264</v>
@@ -1500,10 +1509,10 @@
         <v>130.93969999999999</v>
       </c>
       <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1511,10 +1520,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>33.242800000000003</v>
@@ -1523,10 +1532,10 @@
         <v>131.07419999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1534,10 +1543,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>33.273299999999999</v>
@@ -1546,10 +1555,10 @@
         <v>130.9744</v>
       </c>
       <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1557,10 +1566,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>33.355800000000002</v>
@@ -1569,10 +1578,10 @@
         <v>130.83109999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1580,10 +1589,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>33.366700000000002</v>
@@ -1595,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1603,10 +1612,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>33.3489</v>
@@ -1615,10 +1624,10 @@
         <v>130.84030000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1626,10 +1635,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>33.314999999999998</v>
@@ -1638,10 +1647,10 @@
         <v>130.89500000000001</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1649,10 +1658,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>33.305300000000003</v>
@@ -1661,10 +1670,10 @@
         <v>130.92439999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1672,10 +1681,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>33.309699999999999</v>
@@ -1684,10 +1693,10 @@
         <v>130.93440000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1695,10 +1704,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>33.305</v>
@@ -1707,10 +1716,10 @@
         <v>130.91999999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1718,10 +1727,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
       </c>
       <c r="D21">
         <v>33.286700000000003</v>
@@ -1733,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1741,10 +1750,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>33.286099999999998</v>
@@ -1753,10 +1762,10 @@
         <v>130.96080000000001</v>
       </c>
       <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
         <v>57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1764,10 +1773,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>33.287199999999999</v>
@@ -1776,10 +1785,10 @@
         <v>130.9614</v>
       </c>
       <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
         <v>60</v>
-      </c>
-      <c r="G23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1787,7 +1796,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1799,10 +1808,10 @@
         <v>130.9325</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1810,10 +1819,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>33.2789</v>
@@ -1822,10 +1831,10 @@
         <v>130.98560000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1833,7 +1842,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1845,10 +1854,10 @@
         <v>130.94280000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1856,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1868,10 +1877,10 @@
         <v>130.94470000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1879,7 +1888,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1891,10 +1900,10 @@
         <v>130.9425</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1902,10 +1911,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>33.31</v>
@@ -1914,10 +1923,10 @@
         <v>130.91</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1925,7 +1934,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1937,10 +1946,10 @@
         <v>130.98500000000001</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1948,7 +1957,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1960,10 +1969,10 @@
         <v>130.88999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1971,10 +1980,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>33.389699999999998</v>
@@ -1983,10 +1992,10 @@
         <v>130.89330000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1994,10 +2003,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33">
         <v>33.343899999999998</v>
@@ -2006,10 +2015,10 @@
         <v>130.91669999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -2017,7 +2026,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -2029,10 +2038,10 @@
         <v>131.15639999999999</v>
       </c>
       <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
         <v>83</v>
-      </c>
-      <c r="G34" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -2040,10 +2049,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>33.320799999999998</v>
@@ -2052,10 +2061,10 @@
         <v>130.93719999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2063,10 +2072,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>33.3536</v>
@@ -2075,10 +2084,10 @@
         <v>130.8314</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -2086,10 +2095,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37">
         <v>33.284399999999998</v>
@@ -2098,10 +2107,10 @@
         <v>131.15639999999999</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -2109,10 +2118,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>33.279200000000003</v>
@@ -2121,10 +2130,10 @@
         <v>130.8647</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -2132,10 +2141,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>33.365000000000002</v>
@@ -2144,10 +2153,10 @@
         <v>131.13499999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -2155,10 +2164,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>33.396700000000003</v>
@@ -2167,10 +2176,10 @@
         <v>131.0489</v>
       </c>
       <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
         <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2178,10 +2187,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>33.307200000000002</v>
@@ -2190,10 +2199,10 @@
         <v>130.85419999999999</v>
       </c>
       <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
         <v>99</v>
-      </c>
-      <c r="G41" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2201,10 +2210,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>33.317500000000003</v>
@@ -2216,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2224,10 +2233,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>33.316899999999997</v>
@@ -2236,10 +2245,10 @@
         <v>130.9367</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -2247,10 +2256,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>33.321100000000001</v>
@@ -2259,10 +2268,10 @@
         <v>130.93809999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2270,7 +2279,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -2282,10 +2291,10 @@
         <v>130.94110000000001</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2293,7 +2302,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -2305,10 +2314,10 @@
         <v>130.9408</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2316,10 +2325,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>33.32</v>
@@ -2328,10 +2337,10 @@
         <v>130.91499999999999</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2339,7 +2348,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -2351,10 +2360,10 @@
         <v>130.93889999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -2362,7 +2371,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -2374,10 +2383,10 @@
         <v>130.94280000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2385,7 +2394,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -2397,10 +2406,10 @@
         <v>130.94059999999999</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2408,7 +2417,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -2420,10 +2429,10 @@
         <v>130.93559999999999</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +2446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2469,10 +2480,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>33.322800000000001</v>
@@ -2481,10 +2492,10 @@
         <v>130.93610000000001</v>
       </c>
       <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
         <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2492,10 +2503,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>33.328099999999999</v>
@@ -2504,10 +2515,10 @@
         <v>130.94890000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2515,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>33.323599999999999</v>
@@ -2527,10 +2538,10 @@
         <v>130.94280000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2538,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>33.320799999999998</v>
@@ -2550,10 +2561,10 @@
         <v>130.9503</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2561,10 +2572,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>33.319699999999997</v>
@@ -2573,10 +2584,10 @@
         <v>130.93440000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2584,10 +2595,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>33.309199999999997</v>
@@ -2596,10 +2607,10 @@
         <v>130.9444</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2607,10 +2618,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>33.314399999999999</v>
@@ -2619,10 +2630,10 @@
         <v>130.9194</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2630,10 +2641,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>33.338900000000002</v>
@@ -2642,10 +2653,10 @@
         <v>130.95419999999999</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2653,10 +2664,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>33.328899999999997</v>
@@ -2665,10 +2676,10 @@
         <v>130.95830000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2676,10 +2687,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11">
         <v>33.318600000000004</v>
@@ -2688,10 +2699,10 @@
         <v>130.96969999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -2699,10 +2710,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12">
         <v>33.338299999999997</v>
@@ -2711,10 +2722,10 @@
         <v>130.93610000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2722,10 +2733,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13">
         <v>33.279699999999998</v>
@@ -2734,10 +2745,10 @@
         <v>130.86529999999999</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2745,10 +2756,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14">
         <v>33.2881</v>
@@ -2757,10 +2768,10 @@
         <v>130.89250000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -2768,10 +2779,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15">
         <v>33.305799999999998</v>
@@ -2780,10 +2791,10 @@
         <v>130.9556</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -2791,10 +2802,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16">
         <v>33.396700000000003</v>
@@ -2803,10 +2814,10 @@
         <v>131.0489</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -2814,10 +2825,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17">
         <v>33.284700000000001</v>
@@ -2826,10 +2837,10 @@
         <v>131.1558</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -2837,10 +2848,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>33.348100000000002</v>
@@ -2849,10 +2860,10 @@
         <v>130.84469999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -2860,10 +2871,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19">
         <v>33.287799999999997</v>
@@ -2872,10 +2883,10 @@
         <v>130.96109999999999</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -2883,10 +2894,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20">
         <v>33.315300000000001</v>
@@ -2895,10 +2906,10 @@
         <v>130.89439999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -2906,10 +2917,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21">
         <v>33.327500000000001</v>
@@ -2918,10 +2929,10 @@
         <v>130.94499999999999</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -2929,10 +2940,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22">
         <v>33.308599999999998</v>
@@ -2941,10 +2952,10 @@
         <v>130.93170000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2952,10 +2963,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23">
         <v>33.325600000000001</v>
@@ -2964,10 +2975,10 @@
         <v>130.96889999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -2975,10 +2986,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24">
         <v>33.342799999999997</v>
@@ -2987,10 +2998,10 @@
         <v>130.93780000000001</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -2998,10 +3009,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25">
         <v>33.304699999999997</v>
@@ -3010,10 +3021,10 @@
         <v>130.88579999999999</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -3021,10 +3032,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26">
         <v>33.384700000000002</v>
@@ -3033,10 +3044,10 @@
         <v>130.89830000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -3044,10 +3055,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27">
         <v>33.324399999999997</v>
@@ -3056,10 +3067,10 @@
         <v>130.95060000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -3067,10 +3078,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28">
         <v>33.317799999999998</v>
@@ -3079,10 +3090,10 @@
         <v>130.9239</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -3090,10 +3101,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29">
         <v>33.308599999999998</v>
@@ -3102,10 +3113,10 @@
         <v>130.93170000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -3113,10 +3124,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30">
         <v>33.329700000000003</v>
@@ -3125,10 +3136,10 @@
         <v>130.94890000000001</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -3136,10 +3147,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31">
         <v>33.345799999999997</v>
@@ -3148,10 +3159,10 @@
         <v>130.97110000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -3159,10 +3170,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32">
         <v>33.320799999999998</v>
@@ -3171,10 +3182,10 @@
         <v>130.9503</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -3182,10 +3193,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>33.319699999999997</v>
@@ -3194,10 +3205,10 @@
         <v>130.93440000000001</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -3205,10 +3216,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34">
         <v>33.309199999999997</v>
@@ -3217,10 +3228,10 @@
         <v>130.9444</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -3228,10 +3239,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35">
         <v>33.314399999999999</v>
@@ -3240,10 +3251,10 @@
         <v>130.9194</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -3251,10 +3262,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36">
         <v>33.338900000000002</v>
@@ -3263,10 +3274,10 @@
         <v>130.95419999999999</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -3274,10 +3285,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37">
         <v>33.328899999999997</v>
@@ -3286,10 +3297,10 @@
         <v>130.95830000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -3297,10 +3308,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38">
         <v>33.314999999999998</v>
@@ -3309,10 +3320,10 @@
         <v>130.9658</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -3320,10 +3331,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39">
         <v>33.338299999999997</v>
@@ -3332,10 +3343,10 @@
         <v>130.92779999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -3343,10 +3354,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40">
         <v>33.336399999999998</v>
@@ -3355,10 +3366,10 @@
         <v>130.93610000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -3366,10 +3377,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41">
         <v>33.279699999999998</v>
@@ -3378,10 +3389,10 @@
         <v>130.86529999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -3389,10 +3400,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <v>33.2714</v>
@@ -3401,10 +3412,10 @@
         <v>130.84809999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -3412,10 +3423,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43">
         <v>33.3078</v>
@@ -3424,10 +3435,10 @@
         <v>130.89250000000001</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -3435,10 +3446,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44">
         <v>33.305799999999998</v>
@@ -3447,10 +3458,10 @@
         <v>130.9556</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -3458,10 +3469,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45">
         <v>33.396700000000003</v>
@@ -3470,10 +3481,10 @@
         <v>131.04859999999999</v>
       </c>
       <c r="F45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -3481,10 +3492,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46">
         <v>33.284399999999998</v>
@@ -3493,10 +3504,10 @@
         <v>131.15610000000001</v>
       </c>
       <c r="F46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -3504,10 +3515,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47">
         <v>33.364699999999999</v>
@@ -3516,10 +3527,10 @@
         <v>131.13579999999999</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -3527,10 +3538,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48">
         <v>33.348300000000002</v>
@@ -3539,10 +3550,10 @@
         <v>130.84440000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -3550,10 +3561,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49">
         <v>33.285600000000002</v>
@@ -3562,10 +3573,10 @@
         <v>130.9589</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -3573,10 +3584,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50">
         <v>33.396700000000003</v>
@@ -3585,10 +3596,10 @@
         <v>131.04859999999999</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -3596,10 +3607,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51">
         <v>33.284399999999998</v>
@@ -3608,10 +3619,10 @@
         <v>131.15610000000001</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -3619,10 +3630,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52">
         <v>33.364699999999999</v>
@@ -3631,10 +3642,10 @@
         <v>131.13579999999999</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -3642,10 +3653,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53">
         <v>33.348300000000002</v>
@@ -3654,10 +3665,10 @@
         <v>130.84440000000001</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -3665,10 +3676,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54">
         <v>33.326700000000002</v>
@@ -3677,10 +3688,10 @@
         <v>130.93440000000001</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -3688,10 +3699,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55">
         <v>33.333100000000002</v>
@@ -3700,10 +3711,10 @@
         <v>130.9247</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -3711,10 +3722,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56">
         <v>33.327199999999998</v>
@@ -3723,10 +3734,10 @@
         <v>130.9308</v>
       </c>
       <c r="F56" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" t="s">
         <v>232</v>
-      </c>
-      <c r="G56" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -3734,10 +3745,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57">
         <v>33.319400000000002</v>
@@ -3746,10 +3757,10 @@
         <v>130.93690000000001</v>
       </c>
       <c r="F57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -3757,10 +3768,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58">
         <v>33.3264</v>
@@ -3769,10 +3780,10 @@
         <v>130.93969999999999</v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -3780,10 +3791,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59">
         <v>33.305300000000003</v>
@@ -3792,10 +3803,10 @@
         <v>130.92439999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -3803,10 +3814,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60">
         <v>33.32</v>
@@ -3815,10 +3826,10 @@
         <v>130.935</v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -3826,10 +3837,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s">
         <v>242</v>
-      </c>
-      <c r="C61" t="s">
-        <v>243</v>
       </c>
       <c r="D61">
         <v>33.31</v>
@@ -3838,10 +3849,10 @@
         <v>130.93299999999999</v>
       </c>
       <c r="F61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -3849,10 +3860,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D62">
         <v>33.284999999999997</v>
@@ -3861,10 +3872,10 @@
         <v>130.96</v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -3872,10 +3883,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63">
         <v>33.32</v>
@@ -3884,10 +3895,10 @@
         <v>130.94999999999999</v>
       </c>
       <c r="F63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -3895,10 +3906,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64">
         <v>33.299999999999997</v>
@@ -3907,10 +3918,10 @@
         <v>130.88999999999999</v>
       </c>
       <c r="F64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -3918,10 +3929,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65">
         <v>33.3217</v>
@@ -3930,10 +3941,10 @@
         <v>130.93559999999999</v>
       </c>
       <c r="F65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -3941,10 +3952,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66">
         <v>33.322800000000001</v>
@@ -3953,10 +3964,10 @@
         <v>130.93610000000001</v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -3964,10 +3975,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67">
         <v>33.323900000000002</v>
@@ -3976,10 +3987,10 @@
         <v>130.93219999999999</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -3987,10 +3998,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D68">
         <v>33.320599999999999</v>
@@ -3999,10 +4010,10 @@
         <v>130.93469999999999</v>
       </c>
       <c r="F68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -4010,10 +4021,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69">
         <v>33.316400000000002</v>
@@ -4022,10 +4033,10 @@
         <v>130.92859999999999</v>
       </c>
       <c r="F69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -4033,10 +4044,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D70">
         <v>33.3536</v>
@@ -4045,10 +4056,10 @@
         <v>130.8314</v>
       </c>
       <c r="F70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -4056,10 +4067,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71">
         <v>33.284399999999998</v>
@@ -4068,10 +4079,10 @@
         <v>131.15639999999999</v>
       </c>
       <c r="F71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -4079,10 +4090,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D72">
         <v>33.3217</v>
@@ -4091,10 +4102,10 @@
         <v>130.93690000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -4102,10 +4113,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D73">
         <v>33.32</v>
@@ -4114,10 +4125,10 @@
         <v>130.935</v>
       </c>
       <c r="F73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -4125,10 +4136,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D74">
         <v>33.327199999999998</v>
@@ -4137,10 +4148,10 @@
         <v>130.94470000000001</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -4148,10 +4159,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D75">
         <v>33.3078</v>
@@ -4160,10 +4171,10 @@
         <v>130.89250000000001</v>
       </c>
       <c r="F75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -4171,10 +4182,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D76">
         <v>33.299999999999997</v>
@@ -4183,10 +4194,10 @@
         <v>130.9</v>
       </c>
       <c r="F76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -4194,10 +4205,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77">
         <v>33.35</v>
@@ -4206,10 +4217,10 @@
         <v>131.05000000000001</v>
       </c>
       <c r="F77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -4217,10 +4228,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D78">
         <v>33.323399999999999</v>
@@ -4229,10 +4240,10 @@
         <v>130.94139999999999</v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -4240,10 +4251,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79">
         <v>33.32</v>
@@ -4252,10 +4263,10 @@
         <v>130.94999999999999</v>
       </c>
       <c r="F79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -4263,10 +4274,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80">
         <v>33.322000000000003</v>
@@ -4275,10 +4286,10 @@
         <v>130.94</v>
       </c>
       <c r="F80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -4286,10 +4297,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81">
         <v>33.323</v>
@@ -4298,10 +4309,10 @@
         <v>130.941</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/spots.xlsx
+++ b/spots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E588A012-2207-4B44-B68F-A6AD75430087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE4F6F-1229-44BC-8049-7D2A5065C921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,12 +1254,12 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">

--- a/spots.xlsx
+++ b/spots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitast.sharepoint.com/sites/HITH_2025_SS_662/Shared Documents/04　実験Ⅱ　開発/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE4F6F-1229-44BC-8049-7D2A5065C921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{45BE4F6F-1229-44BC-8049-7D2A5065C921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6A253C17-A63E-47CC-9B2A-C4A0EC9EDF14}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="観光" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="296">
   <si>
     <t>No</t>
   </si>
@@ -62,9 +62,6 @@
     <t>江戸時代後期に廣瀬淡窓が開いた日本最大規模の私塾跡。世界遺産構成資産。咸宜園教育研究センターで歴史を学べる。身分や出身地を問わない画期的な教育施設。住所：日田市淡窓2-2-13</t>
   </si>
   <si>
-    <t>日田市立淡窓図書館・咸宜園教育研究センター</t>
-  </si>
-  <si>
     <t>【アンケート人気：14件】「静かで勉強しやすい」「涼しい」と学生に人気。Wi-Fi完備で学習スペースも充実。咸宜園の歴史展示も併設。住所：日田市淡窓2-2-18</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>三隈川（屋形船・鵜飼い）</t>
   </si>
   <si>
-    <t>店</t>
-  </si>
-  <si>
     <t>【アンケート人気：7件】「水が綺麗」「夜の景色が綺麗」と評価。日田市中心部を流れる筑後川の呼称。5月中旬〜10月に鵜飼い。夏には鮎料理を楽しむ屋形船も運航。住所：日田市中心部</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>大山町の梅園。日田市内を一望できる絶景スポット。360度パノラマビュー。夕日や夜景が特に美しい。春には梅が咲き誇る。住所：日田市大山町西大山</t>
   </si>
   <si>
-    <t>五馬高原</t>
-  </si>
-  <si>
     <t>標高700mの高原。360度パノラマビューで展望抜群。夏はひまわり、秋はコスモスが咲く。ドライブスポットとして人気。住所：日田市天瀬町</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>古墳群が保存されている公園。歴史を感じながら散策できる。遊具もあり、子供の遊び場としても人気。広い芝生広場でピクニック可能。住所：日田市田島1丁目</t>
   </si>
   <si>
-    <t>星隈公園（星隈古墳群）</t>
-  </si>
-  <si>
     <t>三隈川と花月川の合流点にある星隈の丘の公園。古墳群が点在し、歴史的価値が高い。眺望良好で静かな散策が楽しめる穴場スポット。住所：日田市大字石井</t>
   </si>
   <si>
@@ -206,9 +194,6 @@
     <t>【アンケート人気：4件】「3時間1000円パックで温泉・サウナ・足湯、漫画やネトフリも楽しめる」と人気。天ヶ瀬温泉街のリラックススペース。コスパ抜群の施設。住所：日田市天瀬町桜竹601</t>
   </si>
   <si>
-    <t>大原八幡宮（大原神社）</t>
-  </si>
-  <si>
     <t>【アンケート人気：5件】日田市最大の八幡宮。「景色が綺麗」「落ち着く」「雰囲気が好き」と評価。立派な本殿と境内。日田祇園祭で重要な役割。市街地から徒歩圏内。住所：日田市田島2-184</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>天瀬町の地蔵尊。あらゆる願い事を叶えるパワースポットとして全国から参拝者が訪れる。境内に数多くの地蔵が並ぶ。神仏習合の珍しい形態。住所：日田市天瀬町馬原3740</t>
   </si>
   <si>
-    <t>琴平神社（日田市）</t>
-  </si>
-  <si>
     <t>市内中心部の高台にあり、石段を登った先に社殿。眺望良く、日田市街地を見渡せる。金刀比羅宮を勧請。海上安全や商売繁盛の神として信仰。住所：日田市丸山1丁目</t>
   </si>
   <si>
@@ -230,21 +212,12 @@
     <t>1014年に日田領主・大蔵永弘が創建した浄土宗の寺院。自現山公園入口に位置。日田駅から北へ約1.5km、花月川に架かる城町橋近く。歴史ある寺院。住所：日田市城町</t>
   </si>
   <si>
-    <t>伝来寺（でんらいじ）</t>
-  </si>
-  <si>
     <t>1338年創建の古刹。九州最古の庭園（約500㎡）を持つ。参道沿いの庭園が見どころ。静かで落ち着いた雰囲気。住所：日田市豆田町</t>
   </si>
   <si>
-    <t>薮の不動さま（やぶのふどうさま）</t>
-  </si>
-  <si>
     <t>1702年創建。毎年10月28日に大祭が行われる。自然の山間に静かに佇む霊場。地元の信仰を集める。住所：日田市</t>
   </si>
   <si>
-    <t>鞍形尾八幡宮（くらがたおはちまんぐう）</t>
-  </si>
-  <si>
     <t>起源は680年（天武天皇9年）にさかのぼる古社。天瀬町鞍形尾の岩松ヶ峰に八幡宮を祀ったのが始まり。歴史的価値の高い神社。住所：日田市天瀬町鞍形尾</t>
   </si>
   <si>
@@ -275,9 +248,6 @@
     <t>江戸時代から昭和まで稼働していた金山跡。坑道内部を見学でき、採掘の歴史を学べる。砂金採り体験も可能。中津江村の観光スポット。住所：日田市中津江村合瀬3750</t>
   </si>
   <si>
-    <t>日田天領水の里 元氣の駅</t>
-  </si>
-  <si>
     <t>日田の名水「天領水」の湧水を利用。直販市、レストラン、土産物店、足湯を備える。無料で水を汲める。地元の新鮮な農産物や特産品が並ぶ。住所：日田市中ノ島町635-1</t>
   </si>
   <si>
@@ -293,9 +263,6 @@
     <t>中津江地区の道の駅。鯛生金山と併設。地元特産品の販売、レストラン。山間部の休憩スポット。住所：日田市中津江村合瀬3750</t>
   </si>
   <si>
-    <t>小野川自然プール（ことといの里）</t>
-  </si>
-  <si>
     <t>川の水を利用した屋外プール（夏季限定）。透明度が高く冷たい水。家族向けの遊具もあり、子供連れに人気。更衣室、休憩所完備。住所：日田市小野4830-3</t>
   </si>
   <si>
@@ -305,9 +272,6 @@
     <t>奥日田の美しい自然の渓谷を利用した本格的な渓流釣り。ニジマスなど。ログハウスでのキャンプも可能。夏は90mウォータースライダーも。営業：9:00-17:00、水曜休。住所：日田市上津江町</t>
   </si>
   <si>
-    <t>スノーピーク奥日田キャンプフィールド</t>
-  </si>
-  <si>
     <t>180分</t>
   </si>
   <si>
@@ -323,9 +287,6 @@
     <t>【アンケート人気：1件】「車やバイクが好きな人におすすめ」と評価される国際レーシングコース。スーパーGT等のビッグレース開催。サーキット走行体験も可能。住所：日田市上津江町上野田1112-8</t>
   </si>
   <si>
-    <t>イオンタウン日田</t>
-  </si>
-  <si>
     <t>【アンケート人気：2件】「日田市内で唯一学生が楽しめる場所」と評価。ショッピング、飲食、娯楽が揃う複合商業施設。駐車場も広く、家族連れに人気。住所：日田市十二町字藤山</t>
   </si>
   <si>
@@ -341,9 +302,6 @@
     <t>【アンケート人気：5件】「夏には花火が見れる」「勉強できる」と人気。三隈川沿いに位置。Wi-Fi完備で学習スペースとしても利用される。住所：日田市三本松2-8-1</t>
   </si>
   <si>
-    <t>想夫恋（そうふれん）本店</t>
-  </si>
-  <si>
     <t>【アンケート人気：3件】日田やきそばの元祖。鉄板で豪快に焼かれる焼きそばはもやしたっぷりでボリューム満点。創業以来変わらぬ味。豆田町散策の際の食事スポット。住所：日田市隈1-6-17</t>
   </si>
   <si>
@@ -359,9 +317,6 @@
     <t>日田インター近くのイタリアンレストラン。ふわふわのオムライスが人気。トマト、デミグラス、ハーフ&amp;ハーフから選べ、デザートとコーヒー付き。進撃の巨人コラボメニューも。住所：日田市</t>
   </si>
   <si>
-    <t>パトリア日田（中央公民館）</t>
-  </si>
-  <si>
     <t>【アンケート人気：4件】市街地中心部の複合文化施設。「静かで周りにコンビニもあり、ミュージカルや演劇も多い」と評価。大ホール、会議室など多様なスペース。住所：日田市上城内町2-6</t>
   </si>
   <si>
@@ -386,9 +341,6 @@
     <t>日田市役所（避難所）</t>
   </si>
   <si>
-    <t>避難所</t>
-  </si>
-  <si>
     <t>5分</t>
   </si>
   <si>
@@ -551,9 +503,6 @@
     <t>【種別：指定避難所】広い敷地を持つ大規模避難所。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】耐震化済み。【利点】高台立地で安全性高い。住所：日田市高瀬</t>
   </si>
   <si>
-    <t>三隈高等学校（避難所）</t>
-  </si>
-  <si>
     <t>【種別：指定避難所】市南部の指定避難所。【水害リスク】三隈川に近く、大規模水害時は注意が必要。【地震対応】耐震化済みで安全性高い。【利点】広い敷地で緊急車両の対応も可能。住所：日田市田島</t>
   </si>
   <si>
@@ -713,63 +662,33 @@
     <t>【種別：指定避難所】大規模な体育施設で主要な避難所。メインアリーナやサブアリーナなど広大なスペース。【水害リスク】高台に位置し、水害リスクは低め。【地震対応】耐震構造で安全性高い。【利点】多数の避難者を長期間受け入れ可能。冷暖房完備。住所：日田市上城内町</t>
   </si>
   <si>
-    <t>日田市防災公園（緊急避難場所）</t>
-  </si>
-  <si>
     <t>0分</t>
   </si>
   <si>
     <t>【種別：指定緊急避難場所】防災機能を備えた都市公園。広い芝生広場。【水害リスク】比較的高台で水害リスクは低め。【地震対応】倒壊物なく安全。【利点】ヘリポート機能、災害時の救援活動拠点。防災倉庫、非常用トイレ、かまどベンチなど防災設備設置。住所：日田市田島</t>
   </si>
   <si>
-    <t>亀山公園（緊急避難場所）</t>
-  </si>
-  <si>
     <t>【種別：指定緊急避難場所】市街地中心部の大規模公園。広い敷地で多くの避難者を受け入れ可能。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】倒壊物少なく安全。【利点】避難後の一時滞在に適している。住所：日田市中ノ島町</t>
   </si>
   <si>
-    <t>月隈公園（緊急避難場所）</t>
-  </si>
-  <si>
     <t>【種別：指定緊急避難場所】市街地中心部の高台にある公園。【水害リスク】高台で水害リスクは低い。【地震対応】安全。【利点】周辺住民が素早く避難できる立地。見晴らしが良く、災害状況の確認もしやすい。住所：日田市丸山1丁目</t>
   </si>
   <si>
-    <t>ガランドヤ古墳公園（緊急避難場所）</t>
-  </si>
-  <si>
     <t>【種別：緊急避難場所】広い芝生広場を持つ公園。緊急時の一時避難に利用可能。【水害リスク】やや高台で水害リスクは中程度。【地震対応】安全。【利点】遊具もあり、避難時の子供のケアにも配慮。住所：日田市田島1丁目</t>
   </si>
   <si>
-    <t>三隈川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
     <t>【種別：水害危険区域】三隈川（筑後川）沿いの低地帯。大雨時には河川氾濫により浸水リスクが非常に高い。2017年九州北部豪雨では甚大な被害。【危険性】洪水時は急激に水位が上昇し、避難が困難になる可能性。【対策】早期避難が重要。避難勧告・指示が出たら直ちに高台の避難所へ。住所：日田市中心部三隈川沿岸</t>
   </si>
   <si>
-    <t>花月川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
-    <t>危険個所</t>
-  </si>
-  <si>
     <t>【種別：水害危険区域】花月川沿いの低地帯。大雨時には河川氾濫により浸水リスクが高い。三隈川との合流点付近は特に危険。【危険性】内水氾濫も発生しやすい。【対策】早期避難。浸水想定区域を事前に確認し、避難経路を把握。住所：日田市石井町周辺</t>
   </si>
   <si>
-    <t>玖珠川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
     <t>【種別：水害危険区域】玖珠川沿いの低地帯（天瀬町）。大雨時には河川氾濫により浸水リスクが高い。【危険性】山間部で急激な増水が起こりやすい。【対策】早期避難。天ヶ瀬温泉街も含まれるため、宿泊客も注意が必要。住所：日田市天瀬町</t>
   </si>
   <si>
-    <t>土砂災害警戒区域（山間部全域）</t>
-  </si>
-  <si>
     <t>【種別：土砂災害危険区域】日田市の山間部全域に土砂災害警戒区域が多数指定。特に前津江、中津江、上津江、大山、天瀬の各地区は要注意。【危険性】大雨時には土石流、がけ崩れ、地滑りが発生する可能性。【対策】大雨警報発表時は早期避難。避難所への経路も土砂災害の危険がないか確認。住所：日田市山間部全域</t>
   </si>
   <si>
-    <t>筑後川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
     <t>【種別：水害危険区域】筑後川沿いの低地帯（夜明、大鶴地区など）。大雨時には河川氾濫により浸水リスクが非常に高い。【危険性】本流のため水量が多く、氾濫時の被害は甚大。【対策】早期避難が最優先。避難所は高台を選ぶ。住所：日田市西部筑後川沿岸</t>
   </si>
   <si>
@@ -785,21 +704,12 @@
     <t>【種別：物資拠点】市役所敷地内の防災倉庫。非常食、毛布、簡易トイレなどの備蓄物資を保管。【利点】災害時には避難所へ物資が配送される。市民への物資配給拠点ともなる。住所：日田市役所敷地内</t>
   </si>
   <si>
-    <t>日田市医師会立日田准看護学院（医療拠点）</t>
-  </si>
-  <si>
     <t>【種別：医療関連施設】災害時の医療支援拠点として機能する可能性。看護人材の確保に重要。【利点】医療知識を持つ人材が集まる施設。住所：日田市三本松2丁目</t>
   </si>
   <si>
-    <t>日田中央病院周辺（医療拠点）</t>
-  </si>
-  <si>
     <t>【種別：医療拠点】災害時の医療拠点。重症者の受け入れや医療支援の中心となる。【水害リスク】市街地で水害リスクは中程度。【利点】災害時医療の中核施設。住所：日田市田島2丁目</t>
   </si>
   <si>
-    <t>日田玖珠地域産業振興センター（物資集積拠点）</t>
-  </si>
-  <si>
     <t>【種別：物資集積拠点】災害時の物資集積・配送拠点として利用可能な広い施設。【利点】広いスペースで大量の支援物資を受け入れ、仕分け、配送できる。駐車場も広い。住所：日田市三和</t>
   </si>
   <si>
@@ -815,71 +725,190 @@
     <t>【種別：支援拠点】中津江地区の道の駅。災害時には物資配給拠点や情報拠点として機能する可能性。【孤立リスク】山間部で道路寸断による孤立リスクあり。【利点】中津江地区の重要な情報・支援拠点。住所：日田市中津江村合瀬3750</t>
   </si>
   <si>
-    <t>三隈大橋（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】三隈川に架かる主要な橋。市街地中心部と南部を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋桁が流される危険性。【対策】地震・洪水時は橋の通行を避け、迂回路を利用。住所：日田市中心部</t>
   </si>
   <si>
-    <t>日田大橋（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】三隈川に架かる橋で国道を通る主要橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋が冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。避難時の経路として使用しない。住所：日田市</t>
   </si>
   <si>
-    <t>城町橋（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】花月川に架かる橋。永興寺近く。【地震リスク】大地震時には損傷の可能性。【洪水リスク】花月川氾濫時には冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。住所：日田市城町</t>
   </si>
   <si>
-    <t>夜明大橋（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】筑後川に架かる大型橋。日田市と福岡県を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】筑後川の大規模氾濫時には橋が冠水・流失する危険性が高い。【対策】災害時は橋の通行を避け、迂回路を利用。住所：日田市夜明</t>
   </si>
   <si>
-    <t>古い木造橋・吊り橋（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】市内各所にある古い木造橋や吊り橋。特に山間部に点在。【地震リスク】大地震時には倒壊の危険性が高い。【洪水リスク】河川増水時には流失する危険性が非常に高い。【老朽化リスク】経年劣化により通常時でも倒壊リスク。【対策】災害時は絶対に通行しない。日常的にも注意が必要。住所：日田市内各所</t>
   </si>
   <si>
-    <t>山間部の橋梁（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】前津江、中津江、上津江、大山、天瀬の各山間部にある橋梁。【地震リスク】大地震時には損傷・倒壊の可能性。【洪水リスク】山間部の急流河川の増水時には流失する危険性が高い。【土砂災害】土砂崩れにより橋へのアクセス道路が寸断される可能性。【孤立リスク】橋が使用不能になると集落が孤立する危険性。【対策】災害時は通行を避け、避難経路の複数確保が重要。住所：日田市山間部各所</t>
   </si>
   <si>
-    <t>老朽化した建物・空き家（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】豆田町など古い町並みに点在する老朽化した建物や空き家。【地震リスク】大地震時には倒壊の危険性が高い。特に古い土蔵や木造建築は要注意。【火災リスク】倒壊後の火災発生リスクも高い。【対策】地震発生時は建物から離れ、広い場所へ避難。豆田町など古い町並みでは特に注意。住所：日田市豆田町など</t>
   </si>
   <si>
-    <t>がけ・急傾斜地（倒壊・崩落危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：崩落危険箇所】市内各所、特に山間部に点在するがけ・急傾斜地。【土砂災害】大雨時にはがけ崩れ、地滑りの危険性が非常に高い。【地震リスク】大地震時にも崩落の可能性。【対策】大雨警報発表時は近づかない。がけ下の住宅は早期避難が必須。住所：日田市内各所（特に山間部）</t>
   </si>
   <si>
-    <t>電柱・電線（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】市内全域の電柱。【地震リスク】大地震時には電柱が倒壊し、電線が垂れ下がる危険性。【台風リスク】強風時にも倒壊の可能性。【感電リスク】倒壊後は電線に触れると感電する危険性。【対策】倒壊した電柱や垂れ下がった電線には絶対に近づかない。直ちに電力会社に通報。住所：日田市内全域</t>
   </si>
   <si>
-    <t>ブロック塀・石垣（倒壊危険箇所）</t>
-  </si>
-  <si>
     <t>【種別：倒壊危険箇所】市内各所の古いブロック塀や石垣。特に豆田町など古い町並みに多い。【地震リスク】大地震時には倒壊の危険性が高い。下敷きになる可能性。【対策】地震発生時はブロック塀や石垣から離れる。通学路など日常的に通行する場所の危険箇所を事前に把握。住所：日田市内各所</t>
   </si>
   <si>
     <t>咸宜園跡（日本遺産）</t>
-    <rPh sb="5" eb="7">
-      <t>ニホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日田市立淡窓図書館（AOSE内）</t>
+  </si>
+  <si>
+    <t>体験</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>五馬高原（ごめこうげん）</t>
+  </si>
+  <si>
+    <t>星隈公園</t>
+  </si>
+  <si>
+    <t>大原八幡宮</t>
+  </si>
+  <si>
+    <t>琴平神社</t>
+  </si>
+  <si>
+    <t>伝来寺</t>
+  </si>
+  <si>
+    <t>薮の不動さま</t>
+  </si>
+  <si>
+    <t>鞍形尾八幡宮</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>イオンタウン日田（旧元氣の駅跡地）</t>
+  </si>
+  <si>
+    <t>ショッピング</t>
+  </si>
+  <si>
+    <t>グルメ</t>
+  </si>
+  <si>
+    <t>小野川自然プール</t>
+  </si>
+  <si>
+    <t>スノーピーク奥日田</t>
+  </si>
+  <si>
+    <t>キャンプ</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>イオンタウン日田ショッピングセンター</t>
+  </si>
+  <si>
+    <t>想夫恋（そうふれん）総本店</t>
+  </si>
+  <si>
+    <t>パトリア日田</t>
+  </si>
+  <si>
+    <t>指定避難所</t>
+  </si>
+  <si>
+    <t>日田三隈高等学校（避難所）</t>
+  </si>
+  <si>
+    <t>日田市防災公園（緊急避難所）</t>
+  </si>
+  <si>
+    <t>緊急避難場所</t>
+  </si>
+  <si>
+    <t>亀山公園（緊急避難所）</t>
+  </si>
+  <si>
+    <t>月隈公園（緊急避難所）</t>
+  </si>
+  <si>
+    <t>ガランドヤ古墳公園（緊急避難所）</t>
+  </si>
+  <si>
+    <t>三隈川沿い低地帯（水害リスク）</t>
+  </si>
+  <si>
+    <t>危険箇所</t>
+  </si>
+  <si>
+    <t>花月川沿い低地帯（水害リスク）</t>
+  </si>
+  <si>
+    <t>玖珠川沿い低地帯（水害リスク）</t>
+  </si>
+  <si>
+    <t>土砂災害警戒区域（山間部）</t>
+  </si>
+  <si>
+    <t>筑後川沿い低地帯（水害リスク）</t>
+  </si>
+  <si>
+    <t>給水拠点</t>
+  </si>
+  <si>
+    <t>物資拠点</t>
+  </si>
+  <si>
+    <t>日田准看護学院（医療拠点）</t>
+  </si>
+  <si>
+    <t>医療拠点</t>
+  </si>
+  <si>
+    <t>日田中央病院（医療拠点）</t>
+  </si>
+  <si>
+    <t>産業振興センター（物資拠点）</t>
+  </si>
+  <si>
+    <t>支援拠点</t>
+  </si>
+  <si>
+    <t>三隈大橋（橋梁リスク）</t>
+  </si>
+  <si>
+    <t>日田大橋（橋梁リスク）</t>
+  </si>
+  <si>
+    <t>城町橋（橋梁リスク）</t>
+  </si>
+  <si>
+    <t>夜明大橋（橋梁リスク）</t>
+  </si>
+  <si>
+    <t>古い木造橋・吊り橋（崩落リスク）</t>
+  </si>
+  <si>
+    <t>山間部橋梁（孤立リスク）</t>
+  </si>
+  <si>
+    <t>老朽建物（倒壊リスク）</t>
+  </si>
+  <si>
+    <t>急傾斜地（崩落リスク）</t>
+  </si>
+  <si>
+    <t>電柱・電線（切断リスク）</t>
+  </si>
+  <si>
+    <t>ブロック塀・石垣（倒壊リスク）</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,10 +1325,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>33.323399999999999</v>
+        <v>33.324100000000001</v>
       </c>
       <c r="E2">
-        <v>130.94139999999999</v>
+        <v>130.94110000000001</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1313,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1336,22 +1365,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>33.328899999999997</v>
+        <v>33.325600000000001</v>
       </c>
       <c r="E4">
-        <v>130.9469</v>
+        <v>130.94280000000001</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1359,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1374,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1382,22 +1411,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6">
-        <v>33.322800000000001</v>
+        <v>33.3155</v>
       </c>
       <c r="E6">
-        <v>130.94059999999999</v>
+        <v>130.9314</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1405,22 +1434,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>33.324199999999998</v>
+        <v>33.3157</v>
       </c>
       <c r="E7">
-        <v>130.9419</v>
+        <v>130.93119999999999</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1428,22 +1457,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>33.319400000000002</v>
+        <v>33.318800000000003</v>
       </c>
       <c r="E8">
-        <v>130.93690000000001</v>
+        <v>130.93719999999999</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1451,22 +1480,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="D9">
-        <v>33.3217</v>
+        <v>33.3185</v>
       </c>
       <c r="E9">
-        <v>130.93889999999999</v>
+        <v>130.93879999999999</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1474,22 +1503,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>33.3215</v>
+        <v>33.317999999999998</v>
       </c>
       <c r="E10">
-        <v>130.93950000000001</v>
+        <v>130.93899999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1497,22 +1526,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>33.326799999999999</v>
+      </c>
+      <c r="E11">
+        <v>130.93889999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>33.3264</v>
-      </c>
-      <c r="E11">
-        <v>130.93969999999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1520,22 +1549,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>33.242800000000003</v>
+        <v>33.242899999999999</v>
       </c>
       <c r="E12">
-        <v>131.07419999999999</v>
+        <v>131.07429999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1543,22 +1572,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>33.272500000000001</v>
+      </c>
+      <c r="E13">
+        <v>130.9742</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>33.273299999999999</v>
-      </c>
-      <c r="E13">
-        <v>130.9744</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1566,22 +1595,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>33.355800000000002</v>
+        <v>33.265500000000003</v>
       </c>
       <c r="E14">
-        <v>130.83109999999999</v>
+        <v>130.91679999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1589,22 +1618,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="D15">
-        <v>33.366700000000002</v>
+        <v>33.25</v>
       </c>
       <c r="E15">
-        <v>130.875</v>
+        <v>130.93</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1612,22 +1641,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="D16">
-        <v>33.3489</v>
+        <v>33.267800000000001</v>
       </c>
       <c r="E16">
-        <v>130.84030000000001</v>
+        <v>130.90819999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1635,22 +1664,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="D17">
-        <v>33.314999999999998</v>
+        <v>33.2239</v>
       </c>
       <c r="E17">
-        <v>130.89500000000001</v>
+        <v>131.0284</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1658,10 +1687,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>33.305300000000003</v>
@@ -1670,10 +1699,10 @@
         <v>130.92439999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1681,10 +1710,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>33.309699999999999</v>
@@ -1693,10 +1722,10 @@
         <v>130.93440000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1704,22 +1733,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>33.305</v>
+        <v>33.304499999999997</v>
       </c>
       <c r="E20">
-        <v>130.91999999999999</v>
+        <v>130.91849999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1727,22 +1756,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>33.286700000000003</v>
+        <v>33.284700000000001</v>
       </c>
       <c r="E21">
-        <v>130.96029999999999</v>
+        <v>130.9631</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1750,10 +1779,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>33.286099999999998</v>
@@ -1762,10 +1791,10 @@
         <v>130.96080000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1773,22 +1802,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>33.287199999999999</v>
+        <v>33.2866</v>
       </c>
       <c r="E23">
-        <v>130.9614</v>
+        <v>130.96340000000001</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1796,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1808,10 +1837,10 @@
         <v>130.9325</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1819,22 +1848,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>33.2789</v>
+        <v>33.285499999999999</v>
       </c>
       <c r="E25">
-        <v>130.98560000000001</v>
+        <v>131.0189</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1842,7 +1871,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1854,10 +1883,10 @@
         <v>130.94280000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1865,7 +1894,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1877,10 +1906,10 @@
         <v>130.94470000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1888,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1900,10 +1929,10 @@
         <v>130.9425</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1911,22 +1940,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>33.31</v>
+        <v>33.284199999999998</v>
       </c>
       <c r="E29">
-        <v>130.91</v>
+        <v>131.00210000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1934,22 +1963,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30">
-        <v>33.284999999999997</v>
+        <v>33.272100000000002</v>
       </c>
       <c r="E30">
-        <v>130.98500000000001</v>
+        <v>131.00149999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1957,22 +1986,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>33.32</v>
+        <v>33.244999999999997</v>
       </c>
       <c r="E31">
-        <v>130.88999999999999</v>
+        <v>131.02500000000001</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1980,10 +2009,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="D32">
         <v>33.389699999999998</v>
@@ -1992,10 +2021,10 @@
         <v>130.89330000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2003,22 +2032,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>33.343899999999998</v>
+        <v>33.313200000000002</v>
       </c>
       <c r="E33">
-        <v>130.91669999999999</v>
+        <v>130.94149999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -2026,22 +2055,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34">
-        <v>33.284399999999998</v>
+        <v>33.151200000000003</v>
       </c>
       <c r="E34">
-        <v>131.15639999999999</v>
+        <v>130.8954</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -2049,22 +2078,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="D35">
-        <v>33.320799999999998</v>
+        <v>33.312899999999999</v>
       </c>
       <c r="E35">
-        <v>130.93719999999999</v>
+        <v>130.93129999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2072,22 +2101,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D36">
-        <v>33.3536</v>
+        <v>33.265000000000001</v>
       </c>
       <c r="E36">
-        <v>130.8314</v>
+        <v>130.916</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -2095,22 +2124,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D37">
-        <v>33.284399999999998</v>
+        <v>33.151200000000003</v>
       </c>
       <c r="E37">
-        <v>131.15639999999999</v>
+        <v>130.8954</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -2118,22 +2147,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="D38">
-        <v>33.279200000000003</v>
+        <v>33.360100000000003</v>
       </c>
       <c r="E38">
-        <v>130.8647</v>
+        <v>130.9152</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -2141,22 +2170,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="D39">
-        <v>33.365000000000002</v>
+        <v>33.102499999999999</v>
       </c>
       <c r="E39">
-        <v>131.13499999999999</v>
+        <v>130.92840000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -2164,22 +2193,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="D40">
-        <v>33.396700000000003</v>
+        <v>33.210500000000003</v>
       </c>
       <c r="E40">
-        <v>131.0489</v>
+        <v>130.88509999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2187,22 +2216,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="D41">
-        <v>33.307200000000002</v>
+        <v>33.0366</v>
       </c>
       <c r="E41">
-        <v>130.85419999999999</v>
+        <v>130.97790000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2210,22 +2239,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="D42">
-        <v>33.317500000000003</v>
+        <v>33.312899999999999</v>
       </c>
       <c r="E42">
-        <v>130.92830000000001</v>
+        <v>130.93129999999999</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2233,22 +2262,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D43">
-        <v>33.316899999999997</v>
+        <v>33.320099999999996</v>
       </c>
       <c r="E43">
-        <v>130.9367</v>
+        <v>130.9348</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -2256,22 +2285,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="D44">
-        <v>33.321100000000001</v>
+        <v>33.313800000000001</v>
       </c>
       <c r="E44">
-        <v>130.93809999999999</v>
+        <v>130.9332</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2279,22 +2308,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="D45">
-        <v>33.322800000000001</v>
+        <v>33.314999999999998</v>
       </c>
       <c r="E45">
-        <v>130.94110000000001</v>
+        <v>130.93549999999999</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2302,22 +2331,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="D46">
-        <v>33.322600000000001</v>
+        <v>33.3245</v>
       </c>
       <c r="E46">
-        <v>130.9408</v>
+        <v>130.94120000000001</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2325,22 +2354,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D47">
-        <v>33.32</v>
+        <v>33.326799999999999</v>
       </c>
       <c r="E47">
-        <v>130.91499999999999</v>
+        <v>130.93819999999999</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2348,10 +2377,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="D48">
         <v>33.323300000000003</v>
@@ -2363,7 +2392,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -2371,10 +2400,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="D49">
         <v>33.325600000000001</v>
@@ -2386,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2394,22 +2423,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>33.322200000000002</v>
+        <v>33.321399999999997</v>
       </c>
       <c r="E50">
-        <v>130.94059999999999</v>
+        <v>130.941</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2417,7 +2446,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -2429,10 +2458,10 @@
         <v>130.93559999999999</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2446,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2480,22 +2509,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D2">
-        <v>33.322800000000001</v>
+        <v>33.321599999999997</v>
       </c>
       <c r="E2">
-        <v>130.93610000000001</v>
+        <v>130.93510000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2503,22 +2532,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D3">
-        <v>33.328099999999999</v>
+        <v>33.327800000000003</v>
       </c>
       <c r="E3">
-        <v>130.94890000000001</v>
+        <v>130.9485</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2526,22 +2555,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D4">
         <v>33.323599999999999</v>
       </c>
       <c r="E4">
-        <v>130.94280000000001</v>
+        <v>130.94309999999999</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2549,22 +2578,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D5">
-        <v>33.320799999999998</v>
+        <v>33.311399999999999</v>
       </c>
       <c r="E5">
-        <v>130.9503</v>
+        <v>130.93549999999999</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2572,22 +2601,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D6">
         <v>33.319699999999997</v>
       </c>
       <c r="E6">
-        <v>130.93440000000001</v>
+        <v>130.9298</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2595,22 +2624,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D7">
-        <v>33.309199999999997</v>
+        <v>33.308900000000001</v>
       </c>
       <c r="E7">
-        <v>130.9444</v>
+        <v>130.9442</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2618,22 +2647,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D8">
-        <v>33.314399999999999</v>
+        <v>33.313400000000001</v>
       </c>
       <c r="E8">
-        <v>130.9194</v>
+        <v>130.91679999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2641,22 +2670,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9">
+        <v>33.3401</v>
+      </c>
+      <c r="E9">
+        <v>130.91890000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
         <v>121</v>
-      </c>
-      <c r="D9">
-        <v>33.338900000000002</v>
-      </c>
-      <c r="E9">
-        <v>130.95419999999999</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2664,10 +2693,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D10">
         <v>33.328899999999997</v>
@@ -2676,10 +2705,10 @@
         <v>130.95830000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2687,22 +2716,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D11">
-        <v>33.318600000000004</v>
+        <v>33.318199999999997</v>
       </c>
       <c r="E11">
-        <v>130.96969999999999</v>
+        <v>130.9691</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -2710,22 +2739,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D12">
-        <v>33.338299999999997</v>
+        <v>33.342100000000002</v>
       </c>
       <c r="E12">
-        <v>130.93610000000001</v>
+        <v>130.9385</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2733,22 +2762,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D13">
-        <v>33.279699999999998</v>
+        <v>33.360100000000003</v>
       </c>
       <c r="E13">
-        <v>130.86529999999999</v>
+        <v>130.9152</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2756,22 +2785,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D14">
-        <v>33.2881</v>
+        <v>33.303899999999999</v>
       </c>
       <c r="E14">
-        <v>130.89250000000001</v>
+        <v>130.88419999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -2779,22 +2808,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D15">
-        <v>33.305799999999998</v>
+        <v>33.310299999999998</v>
       </c>
       <c r="E15">
-        <v>130.9556</v>
+        <v>130.91560000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -2802,22 +2831,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D16">
-        <v>33.396700000000003</v>
+        <v>33.243499999999997</v>
       </c>
       <c r="E16">
-        <v>131.0489</v>
+        <v>130.9348</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -2825,22 +2854,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D17">
-        <v>33.284700000000001</v>
+        <v>33.111800000000002</v>
       </c>
       <c r="E17">
-        <v>131.1558</v>
+        <v>130.9282</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -2848,22 +2877,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D18">
-        <v>33.348100000000002</v>
+        <v>33.2682</v>
       </c>
       <c r="E18">
-        <v>130.84469999999999</v>
+        <v>130.90819999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -2871,22 +2900,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D19">
-        <v>33.287799999999997</v>
+        <v>33.272100000000002</v>
       </c>
       <c r="E19">
-        <v>130.96109999999999</v>
+        <v>130.98560000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -2894,22 +2923,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D20">
-        <v>33.315300000000001</v>
+        <v>33.223799999999997</v>
       </c>
       <c r="E20">
-        <v>130.89439999999999</v>
+        <v>131.0284</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -2917,22 +2946,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D21">
         <v>33.327500000000001</v>
       </c>
       <c r="E21">
-        <v>130.94499999999999</v>
+        <v>130.94550000000001</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -2940,22 +2969,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D22">
-        <v>33.308599999999998</v>
+        <v>33.316400000000002</v>
       </c>
       <c r="E22">
-        <v>130.93170000000001</v>
+        <v>130.94820000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2963,10 +2992,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D23">
         <v>33.325600000000001</v>
@@ -2975,10 +3004,10 @@
         <v>130.96889999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -2986,22 +3015,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D24">
-        <v>33.342799999999997</v>
+        <v>33.342100000000002</v>
       </c>
       <c r="E24">
-        <v>130.93780000000001</v>
+        <v>130.9385</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -3009,22 +3038,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D25">
-        <v>33.304699999999997</v>
+        <v>33.303899999999999</v>
       </c>
       <c r="E25">
-        <v>130.88579999999999</v>
+        <v>130.88419999999999</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -3032,22 +3061,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D26">
-        <v>33.384700000000002</v>
+        <v>33.223799999999997</v>
       </c>
       <c r="E26">
-        <v>130.89830000000001</v>
+        <v>131.0284</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -3055,22 +3084,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D27">
-        <v>33.324399999999997</v>
+        <v>33.325600000000001</v>
       </c>
       <c r="E27">
         <v>130.95060000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -3078,22 +3107,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D28">
-        <v>33.317799999999998</v>
+        <v>33.318300000000001</v>
       </c>
       <c r="E28">
-        <v>130.9239</v>
+        <v>130.92310000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -3101,22 +3130,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D29">
-        <v>33.308599999999998</v>
+        <v>33.310499999999998</v>
       </c>
       <c r="E29">
-        <v>130.93170000000001</v>
+        <v>130.9348</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -3124,22 +3153,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D30">
-        <v>33.329700000000003</v>
+        <v>33.328200000000002</v>
       </c>
       <c r="E30">
-        <v>130.94890000000001</v>
+        <v>130.94880000000001</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -3147,22 +3176,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D31">
-        <v>33.345799999999997</v>
+        <v>33.323599999999999</v>
       </c>
       <c r="E31">
-        <v>130.97110000000001</v>
+        <v>130.94309999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -3170,22 +3199,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D32">
-        <v>33.320799999999998</v>
+        <v>33.311399999999999</v>
       </c>
       <c r="E32">
-        <v>130.9503</v>
+        <v>130.93549999999999</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -3193,22 +3222,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D33">
         <v>33.319699999999997</v>
       </c>
       <c r="E33">
-        <v>130.93440000000001</v>
+        <v>130.9298</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -3216,22 +3245,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D34">
-        <v>33.309199999999997</v>
+        <v>33.308900000000001</v>
       </c>
       <c r="E34">
-        <v>130.9444</v>
+        <v>130.9442</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -3239,22 +3268,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D35">
-        <v>33.314399999999999</v>
+        <v>33.313400000000001</v>
       </c>
       <c r="E35">
-        <v>130.9194</v>
+        <v>130.91679999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -3262,22 +3291,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D36">
-        <v>33.338900000000002</v>
+        <v>33.3401</v>
       </c>
       <c r="E36">
-        <v>130.95419999999999</v>
+        <v>130.91890000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -3285,10 +3314,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D37">
         <v>33.328899999999997</v>
@@ -3297,10 +3326,10 @@
         <v>130.95830000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -3308,22 +3337,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D38">
-        <v>33.314999999999998</v>
+        <v>33.318199999999997</v>
       </c>
       <c r="E38">
-        <v>130.9658</v>
+        <v>130.9691</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -3331,22 +3360,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D39">
-        <v>33.338299999999997</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="E39">
-        <v>130.92779999999999</v>
+        <v>130.91999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -3354,22 +3383,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D40">
-        <v>33.336399999999998</v>
+        <v>33.342100000000002</v>
       </c>
       <c r="E40">
-        <v>130.93610000000001</v>
+        <v>130.9385</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -3377,22 +3406,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D41">
-        <v>33.279699999999998</v>
+        <v>33.360100000000003</v>
       </c>
       <c r="E41">
-        <v>130.86529999999999</v>
+        <v>130.9152</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -3400,22 +3429,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D42">
-        <v>33.2714</v>
+        <v>33.302999999999997</v>
       </c>
       <c r="E42">
-        <v>130.84809999999999</v>
+        <v>130.85</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -3423,22 +3452,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D43">
-        <v>33.3078</v>
+        <v>33.283999999999999</v>
       </c>
       <c r="E43">
-        <v>130.89250000000001</v>
+        <v>130.864</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -3446,22 +3475,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D44">
-        <v>33.305799999999998</v>
+        <v>33.310299999999998</v>
       </c>
       <c r="E44">
-        <v>130.9556</v>
+        <v>130.91560000000001</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -3469,22 +3498,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D45">
-        <v>33.396700000000003</v>
+        <v>33.243499999999997</v>
       </c>
       <c r="E45">
-        <v>131.04859999999999</v>
+        <v>130.9348</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -3492,22 +3521,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D46">
-        <v>33.284399999999998</v>
+        <v>33.153399999999998</v>
       </c>
       <c r="E46">
-        <v>131.15610000000001</v>
+        <v>130.9161</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -3515,22 +3544,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D47">
-        <v>33.364699999999999</v>
+        <v>33.104199999999999</v>
       </c>
       <c r="E47">
-        <v>131.13579999999999</v>
+        <v>130.9255</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -3538,22 +3567,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D48">
-        <v>33.348300000000002</v>
+        <v>33.2682</v>
       </c>
       <c r="E48">
-        <v>130.84440000000001</v>
+        <v>130.90819999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -3561,10 +3590,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D49">
         <v>33.285600000000002</v>
@@ -3573,10 +3602,10 @@
         <v>130.9589</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -3584,22 +3613,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D50">
-        <v>33.396700000000003</v>
+        <v>33.243499999999997</v>
       </c>
       <c r="E50">
-        <v>131.04859999999999</v>
+        <v>130.9348</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -3607,22 +3636,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D51">
-        <v>33.284399999999998</v>
+        <v>33.153399999999998</v>
       </c>
       <c r="E51">
-        <v>131.15610000000001</v>
+        <v>130.9161</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -3630,22 +3659,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D52">
-        <v>33.364699999999999</v>
+        <v>33.104199999999999</v>
       </c>
       <c r="E52">
-        <v>131.13579999999999</v>
+        <v>130.9255</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -3653,22 +3682,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D53">
-        <v>33.348300000000002</v>
+        <v>33.2682</v>
       </c>
       <c r="E53">
-        <v>130.84440000000001</v>
+        <v>130.90819999999999</v>
       </c>
       <c r="F53" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -3676,22 +3705,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D54">
-        <v>33.326700000000002</v>
+        <v>33.321599999999997</v>
       </c>
       <c r="E54">
-        <v>130.93440000000001</v>
+        <v>130.93510000000001</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G54" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -3699,22 +3728,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D55">
-        <v>33.333100000000002</v>
+        <v>33.323599999999999</v>
       </c>
       <c r="E55">
-        <v>130.9247</v>
+        <v>130.94309999999999</v>
       </c>
       <c r="F55" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -3722,22 +3751,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="D56">
-        <v>33.327199999999998</v>
+        <v>33.321599999999997</v>
       </c>
       <c r="E56">
-        <v>130.9308</v>
+        <v>130.93</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -3745,22 +3774,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="D57">
-        <v>33.319400000000002</v>
+        <v>33.318800000000003</v>
       </c>
       <c r="E57">
-        <v>130.93690000000001</v>
+        <v>130.93719999999999</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -3768,22 +3797,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="D58">
-        <v>33.3264</v>
+        <v>33.326799999999999</v>
       </c>
       <c r="E58">
-        <v>130.93969999999999</v>
+        <v>130.93889999999999</v>
       </c>
       <c r="F58" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -3791,10 +3820,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="D59">
         <v>33.305300000000003</v>
@@ -3803,10 +3832,10 @@
         <v>130.92439999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -3814,22 +3843,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="D60">
-        <v>33.32</v>
+        <v>33.317999999999998</v>
       </c>
       <c r="E60">
-        <v>130.935</v>
+        <v>130.93799999999999</v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -3837,22 +3866,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D61">
-        <v>33.31</v>
+        <v>33.328000000000003</v>
       </c>
       <c r="E61">
-        <v>130.93299999999999</v>
+        <v>130.94300000000001</v>
       </c>
       <c r="F61" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -3860,10 +3889,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D62">
         <v>33.284999999999997</v>
@@ -3872,10 +3901,10 @@
         <v>130.96</v>
       </c>
       <c r="F62" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -3883,22 +3912,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="D63">
-        <v>33.32</v>
+        <v>33.25</v>
       </c>
       <c r="E63">
-        <v>130.94999999999999</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -3906,22 +3935,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="D64">
         <v>33.299999999999997</v>
       </c>
       <c r="E64">
-        <v>130.88999999999999</v>
+        <v>130.88</v>
       </c>
       <c r="F64" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -3929,10 +3958,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="D65">
         <v>33.3217</v>
@@ -3941,10 +3970,10 @@
         <v>130.93559999999999</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G65" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -3952,22 +3981,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="D66">
-        <v>33.322800000000001</v>
+        <v>33.321599999999997</v>
       </c>
       <c r="E66">
-        <v>130.93610000000001</v>
+        <v>130.93510000000001</v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G66" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -3975,22 +4004,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="D67">
-        <v>33.323900000000002</v>
+        <v>33.3215</v>
       </c>
       <c r="E67">
-        <v>130.93219999999999</v>
+        <v>130.93350000000001</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G67" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -3998,10 +4027,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="D68">
         <v>33.320599999999999</v>
@@ -4010,10 +4039,10 @@
         <v>130.93469999999999</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -4021,10 +4050,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="D69">
         <v>33.316400000000002</v>
@@ -4033,10 +4062,10 @@
         <v>130.92859999999999</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -4044,22 +4073,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="D70">
-        <v>33.3536</v>
+        <v>33.265000000000001</v>
       </c>
       <c r="E70">
-        <v>130.8314</v>
+        <v>130.916</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -4067,22 +4096,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="D71">
-        <v>33.284399999999998</v>
+        <v>33.151200000000003</v>
       </c>
       <c r="E71">
-        <v>131.15639999999999</v>
+        <v>130.8954</v>
       </c>
       <c r="F71" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G71" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -4090,22 +4119,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D72">
-        <v>33.3217</v>
+        <v>33.316800000000001</v>
       </c>
       <c r="E72">
-        <v>130.93690000000001</v>
+        <v>130.93520000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -4113,22 +4142,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D73">
-        <v>33.32</v>
+        <v>33.315300000000001</v>
       </c>
       <c r="E73">
-        <v>130.935</v>
+        <v>130.93690000000001</v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G73" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -4136,22 +4165,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D74">
-        <v>33.327199999999998</v>
+        <v>33.327599999999997</v>
       </c>
       <c r="E74">
-        <v>130.94470000000001</v>
+        <v>130.9442</v>
       </c>
       <c r="F74" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G74" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -4159,22 +4188,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D75">
-        <v>33.3078</v>
+        <v>33.307200000000002</v>
       </c>
       <c r="E75">
-        <v>130.89250000000001</v>
+        <v>130.88759999999999</v>
       </c>
       <c r="F75" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G75" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -4182,10 +4211,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D76">
         <v>33.299999999999997</v>
@@ -4194,10 +4223,10 @@
         <v>130.9</v>
       </c>
       <c r="F76" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G76" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -4205,22 +4234,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" t="s">
         <v>274</v>
       </c>
-      <c r="C77" t="s">
-        <v>242</v>
-      </c>
       <c r="D77">
-        <v>33.35</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E77">
-        <v>131.05000000000001</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G77" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -4228,22 +4257,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D78">
-        <v>33.323399999999999</v>
+        <v>33.324100000000001</v>
       </c>
       <c r="E78">
-        <v>130.94139999999999</v>
+        <v>130.94110000000001</v>
       </c>
       <c r="F78" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G78" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -4251,22 +4280,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D79">
-        <v>33.32</v>
+        <v>33.25</v>
       </c>
       <c r="E79">
         <v>130.94999999999999</v>
       </c>
       <c r="F79" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G79" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -4274,10 +4303,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D80">
         <v>33.322000000000003</v>
@@ -4286,10 +4315,10 @@
         <v>130.94</v>
       </c>
       <c r="F80" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G80" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -4297,10 +4326,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D81">
         <v>33.323</v>
@@ -4309,14 +4338,273 @@
         <v>130.941</v>
       </c>
       <c r="F81" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G81" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AADFA5ADD07F545A224A71C36D9C064" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="76fb819a08dfb6a5ef4f46d024e22853">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3345725-50c9-49b1-96aa-77e0eb33bd0c" xmlns:ns3="71f3be17-62e4-4def-adc8-eaac84d09117" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109387e4ed7de12a445139dfc5480be6" ns2:_="" ns3:_="">
+    <xsd:import namespace="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
+    <xsd:import namespace="71f3be17-62e4-4def-adc8-eaac84d09117"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3345725-50c9-49b1-96aa-77e0eb33bd0c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8a78fa4a-40b8-4e29-8771-2350bfedeed8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71f3be17-62e4-4def-adc8-eaac84d09117" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ea7928e6-442d-4575-9184-323c7ac8c1dd}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="71f3be17-62e4-4def-adc8-eaac84d09117">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="71f3be17-62e4-4def-adc8-eaac84d09117" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3345725-50c9-49b1-96aa-77e0eb33bd0c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A91FA3-4015-4558-AC49-E4D177C2CE34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C49DF5E-18B7-4CE4-AD7B-2149CE6C961A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
+    <ds:schemaRef ds:uri="71f3be17-62e4-4def-adc8-eaac84d09117"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628EA8B9-4658-4C00-8316-83E3E1A16AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="71f3be17-62e4-4def-adc8-eaac84d09117"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spots.xlsx
+++ b/spots.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36BD223-109B-402C-86B0-3C56C205F0E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D845C24-0666-44B7-A0F2-FB3354D06A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="防災" sheetId="2" r:id="rId1"/>
+    <sheet name="観光" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="291">
   <si>
     <t>No</t>
   </si>
@@ -43,12 +44,6 @@
     <t>説明</t>
   </si>
   <si>
-    <t>緯度_修正後</t>
-  </si>
-  <si>
-    <t>経度_修正後</t>
-  </si>
-  <si>
     <t>豆田町（重要伝統的建造物群保存地区）</t>
   </si>
   <si>
@@ -407,6 +402,498 @@
   </si>
   <si>
     <t>幕末に築かれた砲台跡。三隈川と花月川の合流点近くに位置し、日田の防衛拠点だった。現在は史跡として保存され、案内板設置。歴史ファンに興味深いスポット。住所：日田市大字石井</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】市内各所の古いブロック塀や石垣。特に豆田町など古い町並みに多い。【地震リスク】大地震時には倒壊の危険性が高い。下敷きになる可能性。【対策】地震発生時はブロック塀や石垣から離れる。通学路など日常的に通行する場所の危険箇所を事前に把握。住所：日田市内各所</t>
+  </si>
+  <si>
+    <t>0分</t>
+  </si>
+  <si>
+    <t>危険個所</t>
+  </si>
+  <si>
+    <t>ブロック塀・石垣（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】市内全域の電柱。【地震リスク】大地震時には電柱が倒壊し、電線が垂れ下がる危険性。【台風リスク】強風時にも倒壊の可能性。【感電リスク】倒壊後は電線に触れると感電する危険性。【対策】倒壊した電柱や垂れ下がった電線には絶対に近づかない。直ちに電力会社に通報。住所：日田市内全域</t>
+  </si>
+  <si>
+    <t>電柱・電線（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：崩落危険箇所】市内各所、特に山間部に点在するがけ・急傾斜地。【土砂災害】大雨時にはがけ崩れ、地滑りの危険性が非常に高い。【地震リスク】大地震時にも崩落の可能性。【対策】大雨警報発表時は近づかない。がけ下の住宅は早期避難が必須。住所：日田市内各所（特に山間部）</t>
+  </si>
+  <si>
+    <t>がけ・急傾斜地（倒壊・崩落危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】豆田町など古い町並みに点在する老朽化した建物や空き家。【地震リスク】大地震時には倒壊の危険性が高い。特に古い土蔵や木造建築は要注意。【火災リスク】倒壊後の火災発生リスクも高い。【対策】地震発生時は建物から離れ、広い場所へ避難。豆田町など古い町並みでは特に注意。住所：日田市豆田町など</t>
+  </si>
+  <si>
+    <t>老朽化した建物・空き家（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】前津江、中津江、上津江、大山、天瀬の各山間部にある橋梁。【地震リスク】大地震時には損傷・倒壊の可能性。【洪水リスク】山間部の急流河川の増水時には流失する危険性が高い。【土砂災害】土砂崩れにより橋へのアクセス道路が寸断される可能性。【孤立リスク】橋が使用不能になると集落が孤立する危険性。【対策】災害時は通行を避け、避難経路の複数確保が重要。住所：日田市山間部各所</t>
+  </si>
+  <si>
+    <t>山間部の橋梁（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】市内各所にある古い木造橋や吊り橋。特に山間部に点在。【地震リスク】大地震時には倒壊の危険性が高い。【洪水リスク】河川増水時には流失する危険性が非常に高い。【老朽化リスク】経年劣化により通常時でも倒壊リスク。【対策】災害時は絶対に通行しない。日常的にも注意が必要。住所：日田市内各所</t>
+  </si>
+  <si>
+    <t>古い木造橋・吊り橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】筑後川に架かる大型橋。日田市と福岡県を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】筑後川の大規模氾濫時には橋が冠水・流失する危険性が高い。【対策】災害時は橋の通行を避け、迂回路を利用。住所：日田市夜明</t>
+  </si>
+  <si>
+    <t>夜明大橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】花月川に架かる橋。永興寺近く。【地震リスク】大地震時には損傷の可能性。【洪水リスク】花月川氾濫時には冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。住所：日田市城町</t>
+  </si>
+  <si>
+    <t>城町橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】三隈川に架かる橋で国道を通る主要橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋が冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。避難時の経路として使用しない。住所：日田市</t>
+  </si>
+  <si>
+    <t>日田大橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】三隈川に架かる主要な橋。市街地中心部と南部を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋桁が流される危険性。【対策】地震・洪水時は橋の通行を避け、迂回路を利用。住所：日田市中心部</t>
+  </si>
+  <si>
+    <t>三隈大橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：支援拠点】中津江地区の道の駅。災害時には物資配給拠点や情報拠点として機能する可能性。【孤立リスク】山間部で道路寸断による孤立リスクあり。【利点】中津江地区の重要な情報・支援拠点。住所：日田市中津江村合瀬3750</t>
+  </si>
+  <si>
+    <t>5分</t>
+  </si>
+  <si>
+    <t>避難所</t>
+  </si>
+  <si>
+    <t>道の駅 鯛生金山（支援拠点）</t>
+  </si>
+  <si>
+    <t>【種別：支援拠点】大山地区の道の駅。災害時には物資配給拠点や情報拠点として機能する可能性。【土砂災害】山間部で土砂災害に注意。【利点】大山ダム近くで、地域住民の支援拠点。住所：日田市大山町西大山</t>
+  </si>
+  <si>
+    <t>道の駅 水辺の郷おおやま（支援拠点）</t>
+  </si>
+  <si>
+    <t>【種別：物資集積拠点】災害時の物資集積・配送拠点として利用可能な広い施設。【利点】広いスペースで大量の支援物資を受け入れ、仕分け、配送できる。駐車場も広い。住所：日田市三和</t>
+  </si>
+  <si>
+    <t>日田玖珠地域産業振興センター（物資集積拠点）</t>
+  </si>
+  <si>
+    <t>【種別：医療拠点】災害時の医療拠点。重症者の受け入れや医療支援の中心となる。【水害リスク】市街地で水害リスクは中程度。【利点】災害時医療の中核施設。住所：日田市田島2丁目</t>
+  </si>
+  <si>
+    <t>日田中央病院周辺（医療拠点）</t>
+  </si>
+  <si>
+    <t>【種別：医療関連施設】災害時の医療支援拠点として機能する可能性。看護人材の確保に重要。【利点】医療知識を持つ人材が集まる施設。住所：日田市三本松2丁目</t>
+  </si>
+  <si>
+    <t>日田市医師会立日田准看護学院（医療拠点）</t>
+  </si>
+  <si>
+    <t>【種別：物資拠点】市役所敷地内の防災倉庫。非常食、毛布、簡易トイレなどの備蓄物資を保管。【利点】災害時には避難所へ物資が配送される。市民への物資配給拠点ともなる。住所：日田市役所敷地内</t>
+  </si>
+  <si>
+    <t>日田市防災倉庫（物資拠点）</t>
+  </si>
+  <si>
+    <t>【種別：給水拠点】災害時の給水拠点。断水時には応急給水が実施される。【利点】市街地中心部で多くの市民が利用可能。給水車も配備。【対策】給水時はポリタンクやペットボトルを持参。住所：日田市田島本町</t>
+  </si>
+  <si>
+    <t>日田市上下水道局（給水拠点）</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】筑後川沿いの低地帯（夜明、大鶴地区など）。大雨時には河川氾濫により浸水リスクが非常に高い。【危険性】本流のため水量が多く、氾濫時の被害は甚大。【対策】早期避難が最優先。避難所は高台を選ぶ。住所：日田市西部筑後川沿岸</t>
+  </si>
+  <si>
+    <t>筑後川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>【種別：土砂災害危険区域】日田市の山間部全域に土砂災害警戒区域が多数指定。特に前津江、中津江、上津江、大山、天瀬の各地区は要注意。【危険性】大雨時には土石流、がけ崩れ、地滑りが発生する可能性。【対策】大雨警報発表時は早期避難。避難所への経路も土砂災害の危険がないか確認。住所：日田市山間部全域</t>
+  </si>
+  <si>
+    <t>土砂災害警戒区域（山間部全域）</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】玖珠川沿いの低地帯（天瀬町）。大雨時には河川氾濫により浸水リスクが高い。【危険性】山間部で急激な増水が起こりやすい。【対策】早期避難。天ヶ瀬温泉街も含まれるため、宿泊客も注意が必要。住所：日田市天瀬町</t>
+  </si>
+  <si>
+    <t>玖珠川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】花月川沿いの低地帯。大雨時には河川氾濫により浸水リスクが高い。三隈川との合流点付近は特に危険。【危険性】内水氾濫も発生しやすい。【対策】早期避難。浸水想定区域を事前に確認し、避難経路を把握。住所：日田市石井町周辺</t>
+  </si>
+  <si>
+    <t>花月川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】三隈川（筑後川）沿いの低地帯。大雨時には河川氾濫により浸水リスクが非常に高い。2017年九州北部豪雨では甚大な被害。【危険性】洪水時は急激に水位が上昇し、避難が困難になる可能性。【対策】早期避難が重要。避難勧告・指示が出たら直ちに高台の避難所へ。住所：日田市中心部三隈川沿岸</t>
+  </si>
+  <si>
+    <t>三隈川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>【種別：緊急避難場所】広い芝生広場を持つ公園。緊急時の一時避難に利用可能。【水害リスク】やや高台で水害リスクは中程度。【地震対応】安全。【利点】遊具もあり、避難時の子供のケアにも配慮。住所：日田市田島1丁目</t>
+  </si>
+  <si>
+    <t>ガランドヤ古墳公園（緊急避難場所）</t>
+  </si>
+  <si>
+    <t>【種別：指定緊急避難場所】市街地中心部の高台にある公園。【水害リスク】高台で水害リスクは低い。【地震対応】安全。【利点】周辺住民が素早く避難できる立地。見晴らしが良く、災害状況の確認もしやすい。住所：日田市丸山1丁目</t>
+  </si>
+  <si>
+    <t>月隈公園（緊急避難場所）</t>
+  </si>
+  <si>
+    <t>【種別：指定緊急避難場所】市街地中心部の大規模公園。広い敷地で多くの避難者を受け入れ可能。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】倒壊物少なく安全。【利点】避難後の一時滞在に適している。住所：日田市中ノ島町</t>
+  </si>
+  <si>
+    <t>亀山公園（緊急避難場所）</t>
+  </si>
+  <si>
+    <t>【種別：指定緊急避難場所】防災機能を備えた都市公園。広い芝生広場。【水害リスク】比較的高台で水害リスクは低め。【地震対応】倒壊物なく安全。【利点】ヘリポート機能、災害時の救援活動拠点。防災倉庫、非常用トイレ、かまどベンチなど防災設備設置。住所：日田市田島</t>
+  </si>
+  <si>
+    <t>日田市防災公園（緊急避難場所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大規模な体育施設で主要な避難所。メインアリーナやサブアリーナなど広大なスペース。【水害リスク】高台に位置し、水害リスクは低め。【地震対応】耐震構造で安全性高い。【利点】多数の避難者を長期間受け入れ可能。冷暖房完備。住所：日田市上城内町</t>
+  </si>
+  <si>
+    <t>日田市総合体育館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】広い体育館で収容人数が多い主要避難所。冷暖房完備。【水害リスク】市街地中心部で水害リスクは中程度。【地震対応】耐震構造。【利点】多くの避難者を受け入れられる。駐車場も広い。住所：日田市田島2丁目</t>
+  </si>
+  <si>
+    <t>日田市民体育館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大山地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要警戒。【利点】地域住民の避難および災害対応の中心施設。大山ダムの緊急時にも重要。住所：日田市大山町西大山</t>
+  </si>
+  <si>
+    <t>大山振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】上津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】道路寸断リスクあり。【利点】災害時の地域住民の避難先および情報発信拠点。標高が高く、比較的安全。住所：日田市上津江町</t>
+  </si>
+  <si>
+    <t>上津江振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】中津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要警戒。【孤立リスク】道路寸断による孤立リスク高い。【利点】地域住民の情報収集・避難・支援物資配給の中心。住所：日田市中津江村合瀬</t>
+  </si>
+  <si>
+    <t>中津江振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】前津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要警戒。【孤立リスク】道路寸断による孤立可能性あり。【利点】災害時の情報収集・発信、物資配給の中心。住所：日田市前津江町大野</t>
+  </si>
+  <si>
+    <t>前津江振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】天瀬地区の中心的な避難所。【水害リスク】玖珠川沿いで水害リスクあり（要注意）。【土砂災害】山間部で土砂災害にも注意。【利点】災害時の情報拠点。住所：日田市天瀬町桜竹</t>
+  </si>
+  <si>
+    <t>天瀬公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大山地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要警戒。【利点】大山地区の中心的避難施設。住所：日田市大山町西大山</t>
+  </si>
+  <si>
+    <t>大山公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】上津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】山間部で道路寸断リスクあり。【利点】標高が高く、比較的安全。上津江地区の避難拠点。住所：日田市上津江町</t>
+  </si>
+  <si>
+    <t>上津江公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】中津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】山間部で道路寸断による孤立リスクあり。【利点】中津江地区の中心的避難所。住所：日田市中津江村合瀬</t>
+  </si>
+  <si>
+    <t>中津江公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】前津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に近く要注意。【利点】山間部の情報共有拠点。住所：日田市前津江町大野2184-1</t>
+  </si>
+  <si>
+    <t>前津江公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】五和地区の地域避難所。【水害リスク】三隈川沿いで水害リスクあり。【利点】地域住民の避難拠点。住所：日田市石井町1-274-4</t>
+  </si>
+  <si>
+    <t>五和公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】夜明地区の地域避難所。【水害リスク】筑後川沿いで水害リスク高い（要警戒）。【利点】地域密着型避難所。住所：日田市夜明中町1547</t>
+  </si>
+  <si>
+    <t>夜明公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大鶴地区の地域避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【土砂災害】山間部で土砂災害にも注意。【利点】西部地域の避難拠点。住所：日田市大鶴本町870</t>
+  </si>
+  <si>
+    <t>大鶴公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】小野地区の地域避難所。【水害リスク】小野川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に要注意。【利点】西部山間部住民の避難先として不可欠。住所：日田市鈴連町900-3</t>
+  </si>
+  <si>
+    <t>小野公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】東有田地区の地域避難所。【水害リスク】北部で水害リスクは低め。【利点】地域住民の一時避難や情報収集の場。駐車場完備。住所：日田市諸留町52</t>
+  </si>
+  <si>
+    <t>東有田公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】西有田地区の地域避難所。【水害リスク】北西部で水害リスクは中程度。【利点】地域コミュニティの拠点。住所：日田市石松町2927-1</t>
+  </si>
+  <si>
+    <t>西有田公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三花地区の地域避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【利点】地域密着型避難施設。住所：日田市清水町948-1</t>
+  </si>
+  <si>
+    <t>三花公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】朝日地区の地域避難所。【水害リスク】東部で水害リスクは中程度。【利点】東部地域の情報拠点。住所：日田市朝日町945-1</t>
+  </si>
+  <si>
+    <t>朝日公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】光岡地区の地域避難所。【水害リスク】北部やや高台で水害リスクは低め。【土砂災害】山間部に近く、大雨時は土砂災害に注意。【利点】地域密着型避難所。住所：日田市北友田1-1221-1</t>
+  </si>
+  <si>
+    <t>光岡公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】高瀬地区の地域避難所。【水害リスク】西部で水害リスクは中程度。【利点】周辺住宅地の避難先として機能。住所：日田市誠和町796-3</t>
+  </si>
+  <si>
+    <t>高瀬公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三芳地区の地域避難所。【水害リスク】南部で標高やや低め、大雨時は周辺道路の冠水に注意。【利点】地域住民の一時避難や情報収集の場。住所：日田市下井手町989</t>
+  </si>
+  <si>
+    <t>三芳公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】若宮地区の地域避難所。【水害リスク】三隈川近くで水害リスクあり（要注意）。【利点】市街地中心部で避難しやすい。住所：日田市竹田新町1-37</t>
+  </si>
+  <si>
+    <t>若宮公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】日隈地区の地域避難所。【水害リスク】三隈川に比較的近く、大雨時は注意。【利点】地域密着型の避難所。住所：日田市日ノ隈町515-1</t>
+  </si>
+  <si>
+    <t>日隈公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】桂林地区の地域避難所。【水害リスク】東部高台で水害リスクは低め。【利点】地域コミュニティの中心施設。住所：日田市上城内町2-11</t>
+  </si>
+  <si>
+    <t>桂林公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】咸宜地区の地域避難所。【水害リスク】比較的高台で水害リスクは中程度。【利点】地域防災の中心施設。住所：日田市淡窓1-5-31</t>
+  </si>
+  <si>
+    <t>咸宜公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】市南部の指定避難所。【水害リスク】三隈川に近く、大規模水害時は注意が必要。【地震対応】耐震化済みで安全性高い。【利点】広い敷地で緊急車両の対応も可能。住所：日田市田島</t>
+  </si>
+  <si>
+    <t>三隈高等学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】広い敷地を持つ大規模避難所。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】耐震化済み。【利点】高台立地で安全性高い。住所：日田市高瀬</t>
+  </si>
+  <si>
+    <t>日田林工高等学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】市街地の大規模避難所。【水害リスク】比較的高台で水害リスクは中程度。【地震対応】耐震化済み。【利点】多数の避難者を収容可能。住所：日田市上城内町</t>
+  </si>
+  <si>
+    <t>日田高等学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】五馬地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に要注意。【地震対応】耐震化済み。【利点】山間部住民の避難先として機能。住所：日田市天瀬町五馬市</t>
+  </si>
+  <si>
+    <t>五馬中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】西部地域の指定避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】西部地域の重要な避難拠点。住所：日田市夜明関町</t>
+  </si>
+  <si>
+    <t>西部中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】北部地域の指定避難所。【水害リスク】北部高台で水害リスクは低い。【土砂災害】山間部に近く、大雨時は土砂災害に注意。【地震対応】耐震化済み。【利点】北部住民の主要避難所。住所：日田市有田町</t>
+  </si>
+  <si>
+    <t>北部中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】東部地域の指定避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【地震対応】耐震化済み。【利点】東部地域の主要避難拠点。住所：日田市清水町</t>
+  </si>
+  <si>
+    <t>東部中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】市南部の指定避難所。【水害リスク】三隈川に近く、大規模水害時は浸水リスクあり（要注意）。【地震対応】耐震化済み。【利点】広い敷地で緊急車両の対応も可能。住所：日田市三和町</t>
+  </si>
+  <si>
+    <t>三隈中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】市街地中心部の大規模避難所。【水害リスク】中心部で比較的高台、水害リスクは中程度。【地震対応】耐震化済み。【利点】広いグラウンドでヘリコプター離着陸可能。住所：日田市淡窓2-4-20</t>
+  </si>
+  <si>
+    <t>日田中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】天瀬町西部の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に要注意。【地震対応】耐震化済み。【利点】天瀬西部地域の避難拠点。住所：日田市天瀬町五馬市2040</t>
+  </si>
+  <si>
+    <t>いつま小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】天瀬町東部の指定避難所。【水害リスク】玖珠川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に注意。【地震対応】耐震化済み。【利点】天瀬東部住民の避難先。住所：日田市天瀬町馬原4011-1</t>
+  </si>
+  <si>
+    <t>東渓小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大山地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要注意。【地震対応】耐震化済み。【利点】大山地区の中心的避難所。住所：日田市大山町西大山3615-1</t>
+  </si>
+  <si>
+    <t>大山小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】中津江・上津江地区の統合小学校で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【地震対応】耐震化済み。【利点】津江地域の主要避難拠点。住所：日田市中津江村栃野4341</t>
+  </si>
+  <si>
+    <t>津江小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】前津江地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に近く要注意。【地震対応】耐震化済み。【利点】前津江地区唯一の小学校避難所。住所：日田市前津江町大野2562</t>
+  </si>
+  <si>
+    <t>前津江小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】石井地区の指定避難所。【水害リスク】三隈川沿いで水害リスクあり。【地震対応】耐震化済み。【利点】グラウンドは緊急車両の集結場所としても使用可能。住所：日田市石井町2-478</t>
+  </si>
+  <si>
+    <t>石井小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大明地区の指定避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】西部地域の重要な避難所。住所：日田市大肥本町1701</t>
+  </si>
+  <si>
+    <t>大明小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】小野地区の指定避難所。【水害リスク】小野川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に要注意。【地震対応】耐震化済み。【利点】西部住民の避難先として不可欠。住所：日田市鈴連町1658-1</t>
+  </si>
+  <si>
+    <t>小野小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】有田地区の指定避難所。【水害リスク】北部でやや高台、水害リスクは低め。【地震対応】耐震化済み。【利点】北部地域の主要避難所。住所：日田市諸留町2687-1</t>
+  </si>
+  <si>
+    <t>有田小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三和地区の指定避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【地震対応】耐震化済み。【利点】東部住民の避難先として重要。住所：日田市清水町1187</t>
+  </si>
+  <si>
+    <t>三和小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】朝日地区の指定避難所。【水害リスク】東部で水害リスクは中程度。【地震対応】耐震化済み。【利点】東部地域の重要な避難拠点。住所：日田市朝日町936-1</t>
+  </si>
+  <si>
+    <t>朝日小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】光岡地区の指定避難所。【水害リスク】北部やや高台で水害リスクは比較的低い。【土砂災害】北部山間部に近く、大雨時は土砂災害に注意。【地震対応】耐震化済み。【利点】給水拠点としても機能。住所：日田市北友田1-1133-2</t>
+  </si>
+  <si>
+    <t>光岡小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】高瀬地区の指定避難所。【水害リスク】西部で水害リスクは中程度。【地震対応】耐震化済み。【利点】周辺住宅地の避難先として重要。住所：日田市誠和町781-2</t>
+  </si>
+  <si>
+    <t>高瀬小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三芳地区の指定避難所。【水害リスク】南部で標高は比較的低め。大雨時は周辺道路の冠水に注意。【地震対応】耐震化済み。【利点】広いグラウンドでヘリポート利用可能。住所：日田市下井手町940</t>
+  </si>
+  <si>
+    <t>三芳小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】若宮地区の指定避難所。【水害リスク】三隈川近くで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】市街地中心部で避難しやすい。住所：日田市若宮町2-15</t>
+  </si>
+  <si>
+    <t>若宮小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】日隈地区の指定避難所。【水害リスク】三隈川に比較的近く、大規模水害時は注意が必要。【地震対応】耐震化済み。【利点】広い敷地でヘリポートとしても利用可能。住所：日田市日ノ隈町578-1</t>
+  </si>
+  <si>
+    <t>日隈小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】桂林地区の指定避難所。【水害リスク】標高がやや高く、水害リスクは比較的低い。【地震対応】耐震化済み。【利点】中心部でアクセス良好。住所：日田市上城内町2-35</t>
+  </si>
+  <si>
+    <t>桂林小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】咸宜地区の指定避難所。校舎と体育館が利用可能。【水害リスク】比較的高台で水害リスクは中程度。【地震対応】耐震化済み。【利点】市街地中心部で多くの住民が避難しやすい。住所：日田市淡窓1-5-13</t>
+  </si>
+  <si>
+    <t>咸宜小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】日田市の中心的な避難所。災害対策本部が設置される重要施設。耐震構造。【水害リスク】三隈川に近く、大規模水害時は浸水の可能性あり（要注意）。【利点】市街地中心でアクセス良好、行政機能が集中。住所：日田市田島2-6-1</t>
+  </si>
+  <si>
+    <t>日田市役所（避難所）</t>
   </si>
 </sst>
 </file>
@@ -777,22 +1264,1898 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0636DB-A8FD-47FF-8EEA-2B06C57F0FC9}">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2">
+        <v>33.322778</v>
+      </c>
+      <c r="E2">
+        <v>130.93611100000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3">
+        <v>33.328055999999997</v>
+      </c>
+      <c r="E3">
+        <v>130.94888900000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4">
+        <v>33.323611</v>
+      </c>
+      <c r="E4">
+        <v>130.942778</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>33.320833</v>
+      </c>
+      <c r="E5">
+        <v>130.950278</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6">
+        <v>33.319721999999999</v>
+      </c>
+      <c r="E6">
+        <v>130.93444400000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7">
+        <v>33.309167000000002</v>
+      </c>
+      <c r="E7">
+        <v>130.944444</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8">
+        <v>33.314444000000002</v>
+      </c>
+      <c r="E8">
+        <v>130.919444</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>33.338889000000002</v>
+      </c>
+      <c r="E9">
+        <v>130.95416700000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <v>33.328888999999997</v>
+      </c>
+      <c r="E10">
+        <v>130.95833300000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>33.318610999999997</v>
+      </c>
+      <c r="E11">
+        <v>130.96972199999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12">
+        <v>33.338332999999999</v>
+      </c>
+      <c r="E12">
+        <v>130.93611100000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13">
+        <v>33.279722</v>
+      </c>
+      <c r="E13">
+        <v>130.86527799999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>33.288055999999997</v>
+      </c>
+      <c r="E14">
+        <v>130.89250000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15">
+        <v>33.305833</v>
+      </c>
+      <c r="E15">
+        <v>130.955556</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <v>33.396667000000001</v>
+      </c>
+      <c r="E16">
+        <v>131.048889</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17">
+        <v>33.284722000000002</v>
+      </c>
+      <c r="E17">
+        <v>131.155833</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18">
+        <v>33.348056</v>
+      </c>
+      <c r="E18">
+        <v>130.84472199999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19">
+        <v>33.287778000000003</v>
+      </c>
+      <c r="E19">
+        <v>130.96111099999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20">
+        <v>33.315277999999999</v>
+      </c>
+      <c r="E20">
+        <v>130.89444399999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21">
+        <v>33.327500000000001</v>
+      </c>
+      <c r="E21">
+        <v>130.94499999999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22">
+        <v>33.308610999999999</v>
+      </c>
+      <c r="E22">
+        <v>130.931667</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>33.325555999999999</v>
+      </c>
+      <c r="E23">
+        <v>130.96888899999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>33.342778000000003</v>
+      </c>
+      <c r="E24">
+        <v>130.93777800000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25">
+        <v>33.304721999999998</v>
+      </c>
+      <c r="E25">
+        <v>130.88583299999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>33.384721999999996</v>
+      </c>
+      <c r="E26">
+        <v>130.89833300000001</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>33.324444</v>
+      </c>
+      <c r="E27">
+        <v>130.95055600000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28">
+        <v>33.317777999999997</v>
+      </c>
+      <c r="E28">
+        <v>130.923889</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29">
+        <v>33.308610999999999</v>
+      </c>
+      <c r="E29">
+        <v>130.931667</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30">
+        <v>33.329721999999997</v>
+      </c>
+      <c r="E30">
+        <v>130.94888900000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31">
+        <v>33.345832999999999</v>
+      </c>
+      <c r="E31">
+        <v>130.97111100000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32">
+        <v>33.320833</v>
+      </c>
+      <c r="E32">
+        <v>130.950278</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33">
+        <v>33.319721999999999</v>
+      </c>
+      <c r="E33">
+        <v>130.93444400000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34">
+        <v>33.309167000000002</v>
+      </c>
+      <c r="E34">
+        <v>130.944444</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35">
+        <v>33.314444000000002</v>
+      </c>
+      <c r="E35">
+        <v>130.919444</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36">
+        <v>33.338889000000002</v>
+      </c>
+      <c r="E36">
+        <v>130.95416700000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37">
+        <v>33.328888999999997</v>
+      </c>
+      <c r="E37">
+        <v>130.95833300000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38">
+        <v>33.314999999999998</v>
+      </c>
+      <c r="E38">
+        <v>130.965833</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39">
+        <v>33.338332999999999</v>
+      </c>
+      <c r="E39">
+        <v>130.92777799999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40">
+        <v>33.336388999999997</v>
+      </c>
+      <c r="E40">
+        <v>130.93611100000001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41">
+        <v>33.279722</v>
+      </c>
+      <c r="E41">
+        <v>130.86527799999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42">
+        <v>33.271388999999999</v>
+      </c>
+      <c r="E42">
+        <v>130.84805600000001</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43">
+        <v>33.307777999999999</v>
+      </c>
+      <c r="E43">
+        <v>130.89250000000001</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44">
+        <v>33.305833</v>
+      </c>
+      <c r="E44">
+        <v>130.955556</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45">
+        <v>33.396667000000001</v>
+      </c>
+      <c r="E45">
+        <v>131.04861099999999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46">
+        <v>33.284444000000001</v>
+      </c>
+      <c r="E46">
+        <v>131.15611100000001</v>
+      </c>
+      <c r="F46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47">
+        <v>33.364722</v>
+      </c>
+      <c r="E47">
+        <v>131.13583299999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>33.348332999999997</v>
+      </c>
+      <c r="E48">
+        <v>130.84444400000001</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49">
+        <v>33.285556</v>
+      </c>
+      <c r="E49">
+        <v>130.958889</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50">
+        <v>33.396667000000001</v>
+      </c>
+      <c r="E50">
+        <v>131.04861099999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51">
+        <v>33.284444000000001</v>
+      </c>
+      <c r="E51">
+        <v>131.15611100000001</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>33.364722</v>
+      </c>
+      <c r="E52">
+        <v>131.13583299999999</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53">
+        <v>33.348332999999997</v>
+      </c>
+      <c r="E53">
+        <v>130.84444400000001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54">
+        <v>33.326667</v>
+      </c>
+      <c r="E54">
+        <v>130.93444400000001</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55">
+        <v>33.333055999999999</v>
+      </c>
+      <c r="E55">
+        <v>130.924722</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56">
+        <v>33.327221999999999</v>
+      </c>
+      <c r="E56">
+        <v>130.93083300000001</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57">
+        <v>33.319420000000001</v>
+      </c>
+      <c r="E57">
+        <v>130.93686400000001</v>
+      </c>
+      <c r="F57" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58">
+        <v>33.326397999999998</v>
+      </c>
+      <c r="E58">
+        <v>130.93969200000001</v>
+      </c>
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59">
+        <v>33.305278000000001</v>
+      </c>
+      <c r="E59">
+        <v>130.924361</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60">
+        <v>33.32</v>
+      </c>
+      <c r="E60">
+        <v>130.935</v>
+      </c>
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61">
+        <v>33.31</v>
+      </c>
+      <c r="E61">
+        <v>130.93299999999999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62">
+        <v>33.284999999999997</v>
+      </c>
+      <c r="E62">
+        <v>130.96</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63">
+        <v>33.32</v>
+      </c>
+      <c r="E63">
+        <v>130.94999999999999</v>
+      </c>
+      <c r="F63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E64">
+        <v>130.88999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65">
+        <v>33.321666999999998</v>
+      </c>
+      <c r="E65">
+        <v>130.93555599999999</v>
+      </c>
+      <c r="F65" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66">
+        <v>33.322778</v>
+      </c>
+      <c r="E66">
+        <v>130.93611100000001</v>
+      </c>
+      <c r="F66" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67">
+        <v>33.323889000000001</v>
+      </c>
+      <c r="E67">
+        <v>130.932222</v>
+      </c>
+      <c r="F67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68">
+        <v>33.320556000000003</v>
+      </c>
+      <c r="E68">
+        <v>130.93472199999999</v>
+      </c>
+      <c r="F68" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69">
+        <v>33.316389000000001</v>
+      </c>
+      <c r="E69">
+        <v>130.92861099999999</v>
+      </c>
+      <c r="F69" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70">
+        <v>33.353611000000001</v>
+      </c>
+      <c r="E70">
+        <v>130.831389</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71">
+        <v>33.284377999999997</v>
+      </c>
+      <c r="E71">
+        <v>131.15638899999999</v>
+      </c>
+      <c r="F71" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72">
+        <v>33.321666999999998</v>
+      </c>
+      <c r="E72">
+        <v>130.93694400000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73">
+        <v>33.32</v>
+      </c>
+      <c r="E73">
+        <v>130.935</v>
+      </c>
+      <c r="F73" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74">
+        <v>33.327221999999999</v>
+      </c>
+      <c r="E74">
+        <v>130.94472200000001</v>
+      </c>
+      <c r="F74" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75">
+        <v>33.307777999999999</v>
+      </c>
+      <c r="E75">
+        <v>130.89250000000001</v>
+      </c>
+      <c r="F75" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E76">
+        <v>130.9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77">
+        <v>33.35</v>
+      </c>
+      <c r="E77">
+        <v>131.05000000000001</v>
+      </c>
+      <c r="F77" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78">
+        <v>33.327845000000003</v>
+      </c>
+      <c r="E78">
+        <v>130.93741199999999</v>
+      </c>
+      <c r="F78" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79">
+        <v>33.32</v>
+      </c>
+      <c r="E79">
+        <v>130.94999999999999</v>
+      </c>
+      <c r="F79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80">
+        <v>33.322000000000003</v>
+      </c>
+      <c r="E80">
+        <v>130.94</v>
+      </c>
+      <c r="F80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81">
+        <v>33.323</v>
+      </c>
+      <c r="E81">
+        <v>130.941</v>
+      </c>
+      <c r="F81" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,22 +3177,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>33.327157</v>
@@ -838,27 +3195,21 @@
         <v>130.936792</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>33.327157</v>
-      </c>
-      <c r="I2">
-        <v>130.936792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>33.322686580000003</v>
@@ -867,27 +3218,21 @@
         <v>130.93491965999999</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>33.322686580000003</v>
-      </c>
-      <c r="I3">
-        <v>130.93491965999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>33.323766999999997</v>
@@ -896,27 +3241,21 @@
         <v>130.94157799999999</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>33.323766999999997</v>
-      </c>
-      <c r="I4">
-        <v>130.94157799999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>33.325933999999997</v>
@@ -925,27 +3264,21 @@
         <v>130.941756</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>33.325933999999997</v>
-      </c>
-      <c r="I5">
-        <v>130.941756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>33.315559999999998</v>
@@ -954,27 +3287,21 @@
         <v>130.93142779999999</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>33.315559999999998</v>
-      </c>
-      <c r="I6">
-        <v>130.93142779999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>33.3155</v>
@@ -983,27 +3310,21 @@
         <v>130.93138999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>33.3155</v>
-      </c>
-      <c r="I7">
-        <v>130.93138999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>33.314481999999998</v>
@@ -1012,27 +3333,21 @@
         <v>130.928481</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8">
-        <v>33.314481999999998</v>
-      </c>
-      <c r="I8">
-        <v>130.928481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>33.312230769999999</v>
@@ -1041,27 +3356,21 @@
         <v>130.92942463</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>33.312230769999999</v>
-      </c>
-      <c r="I9">
-        <v>130.92942463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>33.316670000000002</v>
@@ -1070,27 +3379,21 @@
         <v>130.93333000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>33.316670000000002</v>
-      </c>
-      <c r="I10">
-        <v>130.93333000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>33.332121919999999</v>
@@ -1099,27 +3402,21 @@
         <v>130.93606019999999</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>33.332121919999999</v>
-      </c>
-      <c r="I11">
-        <v>130.93606019999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>33.265076999999998</v>
@@ -1128,27 +3425,21 @@
         <v>131.068108</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12">
-        <v>33.265076999999998</v>
-      </c>
-      <c r="I12">
-        <v>131.068108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>33.252194000000003</v>
@@ -1157,27 +3448,21 @@
         <v>131.02308300000001</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13">
-        <v>33.252194000000003</v>
-      </c>
-      <c r="I13">
-        <v>131.02308300000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>33.224724999999999</v>
@@ -1186,27 +3471,21 @@
         <v>130.96452300000001</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14">
-        <v>33.224724999999999</v>
-      </c>
-      <c r="I14">
-        <v>130.96452300000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>33.363269109999997</v>
@@ -1215,27 +3494,21 @@
         <v>130.94387775000001</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <v>33.363269109999997</v>
-      </c>
-      <c r="I15">
-        <v>130.94387775000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>33.224724999999999</v>
@@ -1244,27 +3517,21 @@
         <v>130.96452300000001</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16">
-        <v>33.224724999999999</v>
-      </c>
-      <c r="I16">
-        <v>130.96452300000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>33.233476000000003</v>
@@ -1273,27 +3540,21 @@
         <v>131.01163500000001</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17">
-        <v>33.233476000000003</v>
-      </c>
-      <c r="I17">
-        <v>131.01163500000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>33.314057699999999</v>
@@ -1302,27 +3563,21 @@
         <v>130.90534045000001</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18">
-        <v>33.314057699999999</v>
-      </c>
-      <c r="I18">
-        <v>130.90534045000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>33.325144999999999</v>
@@ -1331,27 +3586,21 @@
         <v>130.90529799999999</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19">
-        <v>33.325144999999999</v>
-      </c>
-      <c r="I19">
-        <v>130.90529799999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>33.308655000000002</v>
@@ -1360,27 +3609,21 @@
         <v>130.92318299999999</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20">
-        <v>33.308655000000002</v>
-      </c>
-      <c r="I20">
-        <v>130.92318299999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>33.255052999999997</v>
@@ -1389,27 +3632,21 @@
         <v>131.02457200000001</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21">
-        <v>33.255052999999997</v>
-      </c>
-      <c r="I21">
-        <v>131.02457200000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>33.297848000000002</v>
@@ -1418,27 +3655,21 @@
         <v>130.95760300000001</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22">
-        <v>33.297848000000002</v>
-      </c>
-      <c r="I22">
-        <v>130.95760300000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>33.312961999999999</v>
@@ -1447,27 +3678,21 @@
         <v>130.93077</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23">
-        <v>33.312961999999999</v>
-      </c>
-      <c r="I23">
-        <v>130.93077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>33.320653</v>
@@ -1476,27 +3701,21 @@
         <v>130.94578200000001</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24">
-        <v>33.320653</v>
-      </c>
-      <c r="I24">
-        <v>130.94578200000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>33.298377000000002</v>
@@ -1505,27 +3724,21 @@
         <v>131.0496</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25">
-        <v>33.298377000000002</v>
-      </c>
-      <c r="I25">
-        <v>131.0496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>33.297189000000003</v>
@@ -1534,27 +3747,21 @@
         <v>130.93535</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26">
-        <v>33.297189000000003</v>
-      </c>
-      <c r="I26">
-        <v>130.93535</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>33.331302999999998</v>
@@ -1563,27 +3770,21 @@
         <v>130.94235599999999</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27">
-        <v>33.331302999999998</v>
-      </c>
-      <c r="I27">
-        <v>130.94235599999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>33.133242000000003</v>
@@ -1592,27 +3793,21 @@
         <v>130.94404399999999</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28">
-        <v>33.133242000000003</v>
-      </c>
-      <c r="I28">
-        <v>130.94404399999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>33.302999999999997</v>
@@ -1621,27 +3816,21 @@
         <v>131.025972</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29">
-        <v>33.302999999999997</v>
-      </c>
-      <c r="I29">
-        <v>131.025972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>33.285964</v>
@@ -1650,27 +3839,21 @@
         <v>131.007079</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30">
-        <v>33.285964</v>
-      </c>
-      <c r="I30">
-        <v>131.007079</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>33.224724999999999</v>
@@ -1679,27 +3862,21 @@
         <v>130.96452300000001</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31">
-        <v>33.224724999999999</v>
-      </c>
-      <c r="I31">
-        <v>130.96452300000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>33.427695999999997</v>
@@ -1708,27 +3885,21 @@
         <v>130.91111599999999</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32">
-        <v>33.427695999999997</v>
-      </c>
-      <c r="I32">
-        <v>130.91111599999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>33.298074</v>
@@ -1737,27 +3908,21 @@
         <v>130.944198</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33">
-        <v>33.298074</v>
-      </c>
-      <c r="I33">
-        <v>130.944198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>33.128599999999999</v>
@@ -1766,27 +3931,21 @@
         <v>130.8844</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34">
-        <v>33.128599999999999</v>
-      </c>
-      <c r="I34">
-        <v>130.8844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>33.311607000000002</v>
@@ -1795,27 +3954,21 @@
         <v>130.92191299999999</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35">
-        <v>33.311607000000002</v>
-      </c>
-      <c r="I35">
-        <v>130.92191299999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>33.247469899999999</v>
@@ -1824,27 +3977,21 @@
         <v>130.97215120000001</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36">
-        <v>33.247469899999999</v>
-      </c>
-      <c r="I36">
-        <v>130.97215120000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>33.128599999999999</v>
@@ -1853,27 +4000,21 @@
         <v>130.8844</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37">
-        <v>33.128599999999999</v>
-      </c>
-      <c r="I37">
-        <v>130.8844</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>33.360100000000003</v>
@@ -1882,27 +4023,21 @@
         <v>130.9152</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38">
-        <v>33.360100000000003</v>
-      </c>
-      <c r="I38">
-        <v>130.9152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>33.072831489999999</v>
@@ -1911,27 +4046,21 @@
         <v>130.9044811</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>33.072831489999999</v>
-      </c>
-      <c r="I39">
-        <v>130.9044811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>33.184604</v>
@@ -1940,27 +4069,21 @@
         <v>130.903865</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40">
-        <v>33.184604</v>
-      </c>
-      <c r="I40">
-        <v>130.903865</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D41">
         <v>33.036943999999998</v>
@@ -1969,27 +4092,21 @@
         <v>130.973028</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41">
-        <v>33.036943999999998</v>
-      </c>
-      <c r="I41">
-        <v>130.973028</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>33.311607000000002</v>
@@ -1998,27 +4115,21 @@
         <v>130.92191299999999</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42">
-        <v>33.311607000000002</v>
-      </c>
-      <c r="I42">
-        <v>130.92191299999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>33.320441500000001</v>
@@ -2027,27 +4138,21 @@
         <v>130.93503630000001</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43">
-        <v>33.320441500000001</v>
-      </c>
-      <c r="I43">
-        <v>130.93503630000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>33.311929999999997</v>
@@ -2056,27 +4161,21 @@
         <v>130.924093</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44">
-        <v>33.311929999999997</v>
-      </c>
-      <c r="I44">
-        <v>130.924093</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>33.310606</v>
@@ -2085,27 +4184,21 @@
         <v>130.94194400000001</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45">
-        <v>33.310606</v>
-      </c>
-      <c r="I45">
-        <v>130.94194400000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>33.326455000000003</v>
@@ -2114,27 +4207,21 @@
         <v>130.936768</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46">
-        <v>33.326455000000003</v>
-      </c>
-      <c r="I46">
-        <v>130.936768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>33.332371000000002</v>
@@ -2143,27 +4230,21 @@
         <v>130.93728100000001</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47">
-        <v>33.332371000000002</v>
-      </c>
-      <c r="I47">
-        <v>130.93728100000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48">
         <v>33.319198999999998</v>
@@ -2172,27 +4253,21 @@
         <v>130.93424899999999</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48">
-        <v>33.319198999999998</v>
-      </c>
-      <c r="I48">
-        <v>130.93424899999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49">
         <v>33.326025000000001</v>
@@ -2201,27 +4276,21 @@
         <v>130.94184200000001</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49">
-        <v>33.326025000000001</v>
-      </c>
-      <c r="I49">
-        <v>130.94184200000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>33.317030000000003</v>
@@ -2230,27 +4299,21 @@
         <v>130.93863999999999</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
-      </c>
-      <c r="H50">
-        <v>33.317030000000003</v>
-      </c>
-      <c r="I50">
-        <v>130.93863999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <v>33.310299999999998</v>
@@ -2259,16 +4322,10 @@
         <v>130.93559999999999</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
-      </c>
-      <c r="H51">
-        <v>33.310299999999998</v>
-      </c>
-      <c r="I51">
-        <v>130.93559999999999</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2290,15 +4347,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AADFA5ADD07F545A224A71C36D9C064" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="76fb819a08dfb6a5ef4f46d024e22853">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3345725-50c9-49b1-96aa-77e0eb33bd0c" xmlns:ns3="71f3be17-62e4-4def-adc8-eaac84d09117" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109387e4ed7de12a445139dfc5480be6" ns2:_="" ns3:_="">
     <xsd:import namespace="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
@@ -2493,6 +4541,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185289FB-5466-40C6-9A04-BB6060E0DF3A}">
   <ds:schemaRefs>
@@ -2505,14 +4562,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B567690-7C98-44F2-9BF1-3C48B42B533B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55577ADC-0E99-40F3-BE8F-516F8CD99F29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2529,4 +4578,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B567690-7C98-44F2-9BF1-3C48B42B533B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spots.xlsx
+++ b/spots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D845C24-0666-44B7-A0F2-FB3354D06A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{6D845C24-0666-44B7-A0F2-FB3354D06A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C85FC965-18CA-4714-9582-CC27C73DDCCC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,28 @@
     <sheet name="防災" sheetId="2" r:id="rId1"/>
     <sheet name="観光" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="285">
   <si>
     <t>No</t>
   </si>
@@ -44,6 +60,474 @@
     <t>説明</t>
   </si>
   <si>
+    <t>日田市役所（避難所）</t>
+  </si>
+  <si>
+    <t>避難所</t>
+  </si>
+  <si>
+    <t>5分</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】日田市の中心的な避難所。災害対策本部が設置される重要施設。耐震構造。【水害リスク】三隈川に近く、大規模水害時は浸水の可能性あり（要注意）。【利点】市街地中心でアクセス良好、行政機能が集中。住所：日田市田島2-6-1</t>
+  </si>
+  <si>
+    <t>咸宜小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】咸宜地区の指定避難所。校舎と体育館が利用可能。【水害リスク】比較的高台で水害リスクは中程度。【地震対応】耐震化済み。【利点】市街地中心部で多くの住民が避難しやすい。住所：日田市淡窓1-5-13</t>
+  </si>
+  <si>
+    <t>桂林小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】桂林地区の指定避難所。【水害リスク】標高がやや高く、水害リスクは比較的低い。【地震対応】耐震化済み。【利点】中心部でアクセス良好。住所：日田市上城内町2-35</t>
+  </si>
+  <si>
+    <t>日隈小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】日隈地区の指定避難所。【水害リスク】三隈川に比較的近く、大規模水害時は注意が必要。【地震対応】耐震化済み。【利点】広い敷地でヘリポートとしても利用可能。住所：日田市日ノ隈町578-1</t>
+  </si>
+  <si>
+    <t>若宮小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】若宮地区の指定避難所。【水害リスク】三隈川近くで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】市街地中心部で避難しやすい。住所：日田市若宮町2-15</t>
+  </si>
+  <si>
+    <t>三芳小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三芳地区の指定避難所。【水害リスク】南部で標高は比較的低め。大雨時は周辺道路の冠水に注意。【地震対応】耐震化済み。【利点】広いグラウンドでヘリポート利用可能。住所：日田市下井手町940</t>
+  </si>
+  <si>
+    <t>高瀬小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】高瀬地区の指定避難所。【水害リスク】西部で水害リスクは中程度。【地震対応】耐震化済み。【利点】周辺住宅地の避難先として重要。住所：日田市誠和町781-2</t>
+  </si>
+  <si>
+    <t>光岡小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】光岡地区の指定避難所。【水害リスク】北部やや高台で水害リスクは比較的低い。【土砂災害】北部山間部に近く、大雨時は土砂災害に注意。【地震対応】耐震化済み。【利点】給水拠点としても機能。住所：日田市北友田1-1133-2</t>
+  </si>
+  <si>
+    <t>朝日小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】朝日地区の指定避難所。【水害リスク】東部で水害リスクは中程度。【地震対応】耐震化済み。【利点】東部地域の重要な避難拠点。住所：日田市朝日町936-1</t>
+  </si>
+  <si>
+    <t>三和小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三和地区の指定避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【地震対応】耐震化済み。【利点】東部住民の避難先として重要。住所：日田市清水町1187</t>
+  </si>
+  <si>
+    <t>有田小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】有田地区の指定避難所。【水害リスク】北部でやや高台、水害リスクは低め。【地震対応】耐震化済み。【利点】北部地域の主要避難所。住所：日田市諸留町2687-1</t>
+  </si>
+  <si>
+    <t>小野小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】小野地区の指定避難所。【水害リスク】小野川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に要注意。【地震対応】耐震化済み。【利点】西部住民の避難先として不可欠。住所：日田市鈴連町1658-1</t>
+  </si>
+  <si>
+    <t>大明小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大明地区の指定避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】西部地域の重要な避難所。住所：日田市大肥本町1701</t>
+  </si>
+  <si>
+    <t>石井小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】石井地区の指定避難所。【水害リスク】三隈川沿いで水害リスクあり。【地震対応】耐震化済み。【利点】グラウンドは緊急車両の集結場所としても使用可能。住所：日田市石井町2-478</t>
+  </si>
+  <si>
+    <t>前津江小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】前津江地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に近く要注意。【地震対応】耐震化済み。【利点】前津江地区唯一の小学校避難所。住所：日田市前津江町大野2562</t>
+  </si>
+  <si>
+    <t>津江小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】中津江・上津江地区の統合小学校で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【地震対応】耐震化済み。【利点】津江地域の主要避難拠点。住所：日田市中津江村栃野4341</t>
+  </si>
+  <si>
+    <t>大山小中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大山地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要注意。【地震対応】耐震化済み。【利点】大山地区の中心的避難所。住所：日田市大山町西大山3615-1</t>
+  </si>
+  <si>
+    <t>東渓小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】天瀬町東部の指定避難所。【水害リスク】玖珠川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に注意。【地震対応】耐震化済み。【利点】天瀬東部住民の避難先。住所：日田市天瀬町馬原4011-1</t>
+  </si>
+  <si>
+    <t>いつま小学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】天瀬町西部の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に要注意。【地震対応】耐震化済み。【利点】天瀬西部地域の避難拠点。住所：日田市天瀬町五馬市2040</t>
+  </si>
+  <si>
+    <t>三隈中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】市南部の指定避難所。【水害リスク】三隈川に近く、大規模水害時は浸水リスクあり（要注意）。【地震対応】耐震化済み。【利点】広い敷地で緊急車両の対応も可能。住所：日田市三和町</t>
+  </si>
+  <si>
+    <t>東部中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】東部地域の指定避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【地震対応】耐震化済み。【利点】東部地域の主要避難拠点。住所：日田市清水町</t>
+  </si>
+  <si>
+    <t>北部中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】北部地域の指定避難所。【水害リスク】北部高台で水害リスクは低い。【土砂災害】山間部に近く、大雨時は土砂災害に注意。【地震対応】耐震化済み。【利点】北部住民の主要避難所。住所：日田市有田町</t>
+  </si>
+  <si>
+    <t>五馬中学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】五馬地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に要注意。【地震対応】耐震化済み。【利点】山間部住民の避難先として機能。住所：日田市天瀬町五馬市</t>
+  </si>
+  <si>
+    <t>日田高等学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】市街地の大規模避難所。【水害リスク】比較的高台で水害リスクは中程度。【地震対応】耐震化済み。【利点】多数の避難者を収容可能。住所：日田市上城内町</t>
+  </si>
+  <si>
+    <t>日田林工高等学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】広い敷地を持つ大規模避難所。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】耐震化済み。【利点】高台立地で安全性高い。住所：日田市高瀬</t>
+  </si>
+  <si>
+    <t>三隈高等学校（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】市南部の指定避難所。【水害リスク】三隈川に近く、大規模水害時は注意が必要。【地震対応】耐震化済みで安全性高い。【利点】広い敷地で緊急車両の対応も可能。住所：日田市田島</t>
+  </si>
+  <si>
+    <t>咸宜公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】咸宜地区の地域避難所。【水害リスク】比較的高台で水害リスクは中程度。【利点】地域防災の中心施設。住所：日田市淡窓1-5-31</t>
+  </si>
+  <si>
+    <t>桂林公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】桂林地区の地域避難所。【水害リスク】東部高台で水害リスクは低め。【利点】地域コミュニティの中心施設。住所：日田市上城内町2-11</t>
+  </si>
+  <si>
+    <t>日隈公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】日隈地区の地域避難所。【水害リスク】三隈川に比較的近く、大雨時は注意。【利点】地域密着型の避難所。住所：日田市日ノ隈町515-1</t>
+  </si>
+  <si>
+    <t>若宮公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】若宮地区の地域避難所。【水害リスク】三隈川近くで水害リスクあり（要注意）。【利点】市街地中心部で避難しやすい。住所：日田市竹田新町1-37</t>
+  </si>
+  <si>
+    <t>三芳公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三芳地区の地域避難所。【水害リスク】南部で標高やや低め、大雨時は周辺道路の冠水に注意。【利点】地域住民の一時避難や情報収集の場。住所：日田市下井手町989</t>
+  </si>
+  <si>
+    <t>高瀬公民館（高瀬林業センター）（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】高瀬地区の地域避難所。【水害リスク】西部で水害リスクは中程度。【利点】周辺住宅地の避難先として機能。住所：日田市誠和町796-3</t>
+  </si>
+  <si>
+    <t>光岡公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】光岡地区の地域避難所。【水害リスク】北部やや高台で水害リスクは低め。【土砂災害】山間部に近く、大雨時は土砂災害に注意。【利点】地域密着型避難所。住所：日田市北友田1-1221-1</t>
+  </si>
+  <si>
+    <t>朝日公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】朝日地区の地域避難所。【水害リスク】東部で水害リスクは中程度。【利点】東部地域の情報拠点。住所：日田市朝日町945-1</t>
+  </si>
+  <si>
+    <t>三花公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】三花地区の地域避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【利点】地域密着型避難施設。住所：日田市清水町948-1</t>
+  </si>
+  <si>
+    <t>西有田公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】西有田地区の地域避難所。【水害リスク】北西部で水害リスクは中程度。【利点】地域コミュニティの拠点。住所：日田市石松町2927-1</t>
+  </si>
+  <si>
+    <t>東有田公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】東有田地区の地域避難所。【水害リスク】北部で水害リスクは低め。【利点】地域住民の一時避難や情報収集の場。駐車場完備。住所：日田市諸留町52</t>
+  </si>
+  <si>
+    <t>小野公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】小野地区の地域避難所。【水害リスク】小野川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に要注意。【利点】西部山間部住民の避難先として不可欠。住所：日田市鈴連町900-3</t>
+  </si>
+  <si>
+    <t>大鶴公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大鶴地区の地域避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【土砂災害】山間部で土砂災害にも注意。【利点】西部地域の避難拠点。住所：日田市大鶴本町870</t>
+  </si>
+  <si>
+    <t>夜明公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】夜明地区の地域避難所。【水害リスク】筑後川沿いで水害リスク高い（要警戒）。【利点】地域密着型避難所。住所：日田市夜明中町1547</t>
+  </si>
+  <si>
+    <t>五和公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】五和地区の地域避難所。【水害リスク】三隈川沿いで水害リスクあり。【利点】地域住民の避難拠点。住所：日田市石井町1-274-4</t>
+  </si>
+  <si>
+    <t>前津江公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】前津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に近く要注意。【利点】山間部の情報共有拠点。住所：日田市前津江町大野2184-1</t>
+  </si>
+  <si>
+    <t>中津江公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】中津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】山間部で道路寸断による孤立リスクあり。【利点】中津江地区の中心的避難所。住所：日田市中津江村合瀬</t>
+  </si>
+  <si>
+    <t>上津江公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】上津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】山間部で道路寸断リスクあり。【利点】標高が高く、比較的安全。上津江地区の避難拠点。住所：日田市上津江町</t>
+  </si>
+  <si>
+    <t>大山公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大山地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要警戒。【利点】大山地区の中心的避難施設。住所：日田市大山町西大山</t>
+  </si>
+  <si>
+    <t>天瀬公民館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】天瀬地区の中心的な避難所。【水害リスク】玖珠川沿いで水害リスクあり（要注意）。【土砂災害】山間部で土砂災害にも注意。【利点】災害時の情報拠点。住所：日田市天瀬町桜竹</t>
+  </si>
+  <si>
+    <t>前津江振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】前津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要警戒。【孤立リスク】道路寸断による孤立可能性あり。【利点】災害時の情報収集・発信、物資配給の中心。住所：日田市前津江町大野</t>
+  </si>
+  <si>
+    <t>中津江振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】中津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要警戒。【孤立リスク】道路寸断による孤立リスク高い。【利点】地域住民の情報収集・避難・支援物資配給の中心。住所：日田市中津江村合瀬</t>
+  </si>
+  <si>
+    <t>上津江振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】上津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】道路寸断リスクあり。【利点】災害時の地域住民の避難先および情報発信拠点。標高が高く、比較的安全。住所：日田市上津江町</t>
+  </si>
+  <si>
+    <t>大山振興局（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大山地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要警戒。【利点】地域住民の避難および災害対応の中心施設。大山ダムの緊急時にも重要。住所：日田市大山町西大山</t>
+  </si>
+  <si>
+    <t>日田市総合体育館（避難所）</t>
+  </si>
+  <si>
+    <t>【種別：指定避難所】大規模な体育施設で主要な避難所。メインアリーナやサブアリーナなど広大なスペース。【水害リスク】高台に位置し、水害リスクは低め。【地震対応】耐震構造で安全性高い。【利点】多数の避難者を長期間受け入れ可能。冷暖房完備。住所：日田市上城内町</t>
+  </si>
+  <si>
+    <t>亀山公園（緊急避難場所）</t>
+  </si>
+  <si>
+    <t>0分</t>
+  </si>
+  <si>
+    <t>【種別：指定緊急避難場所】市街地中心部の大規模公園。広い敷地で多くの避難者を受け入れ可能。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】倒壊物少なく安全。【利点】避難後の一時滞在に適している。住所：日田市中ノ島町</t>
+  </si>
+  <si>
+    <t>月隈公園（緊急避難場所）</t>
+  </si>
+  <si>
+    <t>【種別：指定緊急避難場所】市街地中心部の高台にある公園。【水害リスク】高台で水害リスクは低い。【地震対応】安全。【利点】周辺住民が素早く避難できる立地。見晴らしが良く、災害状況の確認もしやすい。住所：日田市丸山1丁目</t>
+  </si>
+  <si>
+    <t>ガランドヤ古墳公園（緊急避難場所）</t>
+  </si>
+  <si>
+    <t>【種別：緊急避難場所】広い芝生広場を持つ公園。緊急時の一時避難に利用可能。【水害リスク】やや高台で水害リスクは中程度。【地震対応】安全。【利点】遊具もあり、避難時の子供のケアにも配慮。住所：日田市田島1丁目</t>
+  </si>
+  <si>
+    <t>三隈川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>危険個所</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】三隈川（筑後川）沿いの低地帯。大雨時には河川氾濫により浸水リスクが非常に高い。2017年九州北部豪雨では甚大な被害。【危険性】洪水時は急激に水位が上昇し、避難が困難になる可能性。【対策】早期避難が重要。避難勧告・指示が出たら直ちに高台の避難所へ。住所：日田市中心部三隈川沿岸</t>
+  </si>
+  <si>
+    <t>花月川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】花月川沿いの低地帯。大雨時には河川氾濫により浸水リスクが高い。三隈川との合流点付近は特に危険。【危険性】内水氾濫も発生しやすい。【対策】早期避難。浸水想定区域を事前に確認し、避難経路を把握。住所：日田市石井町周辺</t>
+  </si>
+  <si>
+    <t>玖珠川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】玖珠川沿いの低地帯（天瀬町）。大雨時には河川氾濫により浸水リスクが高い。【危険性】山間部で急激な増水が起こりやすい。【対策】早期避難。天ヶ瀬温泉街も含まれるため、宿泊客も注意が必要。住所：日田市天瀬町</t>
+  </si>
+  <si>
+    <t>土砂災害警戒区域（山間部全域）</t>
+  </si>
+  <si>
+    <t>【種別：土砂災害危険区域】日田市の山間部全域に土砂災害警戒区域が多数指定。特に前津江、中津江、上津江、大山、天瀬の各地区は要注意。【危険性】大雨時には土石流、がけ崩れ、地滑りが発生する可能性。【対策】大雨警報発表時は早期避難。避難所への経路も土砂災害の危険がないか確認。住所：日田市山間部全域</t>
+  </si>
+  <si>
+    <t>筑後川沿い低地帯（危険区域）</t>
+  </si>
+  <si>
+    <t>【種別：水害危険区域】筑後川沿いの低地帯（夜明、大鶴地区など）。大雨時には河川氾濫により浸水リスクが非常に高い。【危険性】本流のため水量が多く、氾濫時の被害は甚大。【対策】早期避難が最優先。避難所は高台を選ぶ。住所：日田市西部筑後川沿岸</t>
+  </si>
+  <si>
+    <t>日田玖珠地域産業振興センター（給水拠点）</t>
+  </si>
+  <si>
+    <t>【種別：給水拠点】災害時の給水拠点。断水時には応急給水が実施される。【利点】市街地中心部で多くの市民が利用可能。給水車も配備。【対策】給水時はポリタンクやペットボトルを持参。住所：日田市田島本町</t>
+  </si>
+  <si>
+    <t>日田市防災倉庫（物資拠点）</t>
+  </si>
+  <si>
+    <t>【種別：物資拠点】市役所敷地内の防災倉庫。非常食、毛布、簡易トイレなどの備蓄物資を保管。【利点】災害時には避難所へ物資が配送される。市民への物資配給拠点ともなる。住所：日田市役所敷地内</t>
+  </si>
+  <si>
+    <t>日田市医師会立日田准看護学院（医療拠点）</t>
+  </si>
+  <si>
+    <t>【種別：医療関連施設】災害時の医療支援拠点として機能する可能性。看護人材の確保に重要。【利点】医療知識を持つ人材が集まる施設。住所：日田市三本松2丁目</t>
+  </si>
+  <si>
+    <t>日田中央病院周辺（医療拠点）</t>
+  </si>
+  <si>
+    <t>【種別：医療拠点】災害時の医療拠点。重症者の受け入れや医療支援の中心となる。【水害リスク】市街地で水害リスクは中程度。【利点】災害時医療の中核施設。住所：日田市田島2丁目</t>
+  </si>
+  <si>
+    <t>日田玖珠地域産業振興センター（物資集積拠点）いらない</t>
+  </si>
+  <si>
+    <t>【種別：物資集積拠点】災害時の物資集積・配送拠点として利用可能な広い施設。【利点】広いスペースで大量の支援物資を受け入れ、仕分け、配送できる。駐車場も広い。住所：日田市三和</t>
+  </si>
+  <si>
+    <t>道の駅 水辺の郷おおやま（支援拠点）</t>
+  </si>
+  <si>
+    <t>【種別：支援拠点】大山地区の道の駅。災害時には物資配給拠点や情報拠点として機能する可能性。【土砂災害】山間部で土砂災害に注意。【利点】大山ダム近くで、地域住民の支援拠点。住所：日田市大山町西大山</t>
+  </si>
+  <si>
+    <t>道の駅 鯛生金山（支援拠点）</t>
+  </si>
+  <si>
+    <t>【種別：支援拠点】中津江地区の道の駅。災害時には物資配給拠点や情報拠点として機能する可能性。【孤立リスク】山間部で道路寸断による孤立リスクあり。【利点】中津江地区の重要な情報・支援拠点。住所：日田市中津江村合瀬3750</t>
+  </si>
+  <si>
+    <t>三隈橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】三隈川に架かる主要な橋。市街地中心部と南部を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋桁が流される危険性。【対策】地震・洪水時は橋の通行を避け、迂回路を利用。住所：日田市中心部</t>
+  </si>
+  <si>
+    <t>日田大橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】三隈川に架かる橋で国道を通る主要橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋が冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。避難時の経路として使用しない。住所：日田市</t>
+  </si>
+  <si>
+    <t>城町橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】花月川に架かる橋。永興寺近く。【地震リスク】大地震時には損傷の可能性。【洪水リスク】花月川氾濫時には冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。住所：日田市城町</t>
+  </si>
+  <si>
+    <t>夜明大橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】筑後川に架かる大型橋。日田市と福岡県を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】筑後川の大規模氾濫時には橋が冠水・流失する危険性が高い。【対策】災害時は橋の通行を避け、迂回路を利用。住所：日田市夜明</t>
+  </si>
+  <si>
+    <t>古い木造橋・吊り橋（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】市内各所にある古い木造橋や吊り橋。特に山間部に点在。【地震リスク】大地震時には倒壊の危険性が高い。【洪水リスク】河川増水時には流失する危険性が非常に高い。【老朽化リスク】経年劣化により通常時でも倒壊リスク。【対策】災害時は絶対に通行しない。日常的にも注意が必要。住所：日田市内各所</t>
+  </si>
+  <si>
+    <t>山間部の橋梁（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】前津江、中津江、上津江、大山、天瀬の各山間部にある橋梁。【地震リスク】大地震時には損傷・倒壊の可能性。【洪水リスク】山間部の急流河川の増水時には流失する危険性が高い。【土砂災害】土砂崩れにより橋へのアクセス道路が寸断される可能性。【孤立リスク】橋が使用不能になると集落が孤立する危険性。【対策】災害時は通行を避け、避難経路の複数確保が重要。住所：日田市山間部各所</t>
+  </si>
+  <si>
+    <t>老朽化した建物・空き家（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】豆田町など古い町並みに点在する老朽化した建物や空き家。【地震リスク】大地震時には倒壊の危険性が高い。特に古い土蔵や木造建築は要注意。【火災リスク】倒壊後の火災発生リスクも高い。【対策】地震発生時は建物から離れ、広い場所へ避難。豆田町など古い町並みでは特に注意。住所：日田市豆田町など</t>
+  </si>
+  <si>
+    <t>がけ・急傾斜地（倒壊・崩落危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：崩落危険箇所】市内各所、特に山間部に点在するがけ・急傾斜地。【土砂災害】大雨時にはがけ崩れ、地滑りの危険性が非常に高い。【地震リスク】大地震時にも崩落の可能性。【対策】大雨警報発表時は近づかない。がけ下の住宅は早期避難が必須。住所：日田市内各所（特に山間部）</t>
+  </si>
+  <si>
+    <t>電柱・電線（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】市内全域の電柱。【地震リスク】大地震時には電柱が倒壊し、電線が垂れ下がる危険性。【台風リスク】強風時にも倒壊の可能性。【感電リスク】倒壊後は電線に触れると感電する危険性。【対策】倒壊した電柱や垂れ下がった電線には絶対に近づかない。直ちに電力会社に通報。住所：日田市内全域</t>
+  </si>
+  <si>
+    <t>ブロック塀・石垣（倒壊危険箇所）</t>
+  </si>
+  <si>
+    <t>【種別：倒壊危険箇所】市内各所の古いブロック塀や石垣。特に豆田町など古い町並みに多い。【地震リスク】大地震時には倒壊の危険性が高い。下敷きになる可能性。【対策】地震発生時はブロック塀や石垣から離れる。通学路など日常的に通行する場所の危険箇所を事前に把握。住所：日田市内各所</t>
+  </si>
+  <si>
     <t>豆田町（重要伝統的建造物群保存地区）</t>
   </si>
   <si>
@@ -155,7 +639,7 @@
     <t>【アンケート人気：2件】標高約760mの山。登山コース整備。山頂から日田市街地や九重連山を一望。春は山桜、秋は紅葉。トレッキング愛好者に人気。住所：日田市大山町</t>
   </si>
   <si>
-    <t>おおくぼ台梅園</t>
+    <t>おおやま大久保台梅林公園</t>
   </si>
   <si>
     <t>大山町の梅園。日田市内を一望できる絶景スポット。360度パノラマビュー。夕日や夜景が特に美しい。春には梅が咲き誇る。住所：日田市大山町西大山</t>
@@ -239,16 +723,19 @@
     <t>伝来寺</t>
   </si>
   <si>
+    <t>33.133277672805335,</t>
+  </si>
+  <si>
     <t>1338年創建の古刹。九州最古の庭園（約500㎡）を持つ。参道沿いの庭園が見どころ。静かで落ち着いた雰囲気。住所：日田市豆田町</t>
   </si>
   <si>
-    <t>薮の不動さま</t>
+    <t>薮の不動尊</t>
   </si>
   <si>
     <t>1702年創建。毎年10月28日に大祭が行われる。自然の山間に静かに佇む霊場。地元の信仰を集める。住所：日田市</t>
   </si>
   <si>
-    <t>鞍形尾八幡宮</t>
+    <t>鞍形尾神社</t>
   </si>
   <si>
     <t>起源は680年（天武天皇9年）にさかのぼる古社。天瀬町鞍形尾の岩松ヶ峰に八幡宮を祀ったのが始まり。歴史的価値の高い神社。住所：日田市天瀬町鞍形尾</t>
@@ -278,13 +765,16 @@
     <t>鯛生金山（たいおきんざん）</t>
   </si>
   <si>
+    <t>33.128633.12762424556457</t>
+  </si>
+  <si>
     <t>40分</t>
   </si>
   <si>
     <t>江戸時代から昭和まで稼働していた金山跡。坑道内部を見学でき、採掘の歴史を学べる。砂金採り体験も可能。中津江村の観光スポット。住所：日田市中津江村合瀬3750</t>
   </si>
   <si>
-    <t>イオンタウン日田（旧元氣の駅跡地）</t>
+    <t>日田天領水の里　元氣の駅</t>
   </si>
   <si>
     <t>ショッピング</t>
@@ -308,7 +798,7 @@
     <t>中津江地区の道の駅。鯛生金山と併設。地元特産品の販売、レストラン。山間部の休憩スポット。住所：日田市中津江村合瀬3750</t>
   </si>
   <si>
-    <t>小野川自然プール</t>
+    <t>小野河川プール</t>
   </si>
   <si>
     <t>川の水を利用した屋外プール（夏季限定）。透明度が高く冷たい水。家族向けの遊具もあり、子供連れに人気。更衣室、休憩所完備。住所：日田市小野4830-3</t>
@@ -350,10 +840,10 @@
     <t>【アンケート人気：2件】「日田市内で唯一学生が楽しめる場所」と評価。ショッピング、飲食、娯楽が揃う複合商業施設。駐車場も広く、家族連れに人気。住所：日田市十二町字藤山</t>
   </si>
   <si>
-    <t>カフェ日和</t>
-  </si>
-  <si>
-    <t>【アンケート人気：5件】「パフェ美味しい」「店がかわいい」と若者に人気のカフェ。おしゃれな内装とインスタ映えするスイーツ。地元食材を使った料理も評判。住所：日田市三本松1-8-11</t>
+    <t>cafebiyori (カフェビヨリ）</t>
+  </si>
+  <si>
+    <t>【アンケート人気：5件】「パフェ美味しい」「店がかわいい」と若者に人気のカフェ。おしゃれな内装とインスタ映えするスイーツ。地元食材を使った料理も評判。住所：日田市三本松1-1-27</t>
   </si>
   <si>
     <t>スターバックスコーヒー日田店</t>
@@ -402,505 +892,13 @@
   </si>
   <si>
     <t>幕末に築かれた砲台跡。三隈川と花月川の合流点近くに位置し、日田の防衛拠点だった。現在は史跡として保存され、案内板設置。歴史ファンに興味深いスポット。住所：日田市大字石井</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】市内各所の古いブロック塀や石垣。特に豆田町など古い町並みに多い。【地震リスク】大地震時には倒壊の危険性が高い。下敷きになる可能性。【対策】地震発生時はブロック塀や石垣から離れる。通学路など日常的に通行する場所の危険箇所を事前に把握。住所：日田市内各所</t>
-  </si>
-  <si>
-    <t>0分</t>
-  </si>
-  <si>
-    <t>危険個所</t>
-  </si>
-  <si>
-    <t>ブロック塀・石垣（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】市内全域の電柱。【地震リスク】大地震時には電柱が倒壊し、電線が垂れ下がる危険性。【台風リスク】強風時にも倒壊の可能性。【感電リスク】倒壊後は電線に触れると感電する危険性。【対策】倒壊した電柱や垂れ下がった電線には絶対に近づかない。直ちに電力会社に通報。住所：日田市内全域</t>
-  </si>
-  <si>
-    <t>電柱・電線（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：崩落危険箇所】市内各所、特に山間部に点在するがけ・急傾斜地。【土砂災害】大雨時にはがけ崩れ、地滑りの危険性が非常に高い。【地震リスク】大地震時にも崩落の可能性。【対策】大雨警報発表時は近づかない。がけ下の住宅は早期避難が必須。住所：日田市内各所（特に山間部）</t>
-  </si>
-  <si>
-    <t>がけ・急傾斜地（倒壊・崩落危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】豆田町など古い町並みに点在する老朽化した建物や空き家。【地震リスク】大地震時には倒壊の危険性が高い。特に古い土蔵や木造建築は要注意。【火災リスク】倒壊後の火災発生リスクも高い。【対策】地震発生時は建物から離れ、広い場所へ避難。豆田町など古い町並みでは特に注意。住所：日田市豆田町など</t>
-  </si>
-  <si>
-    <t>老朽化した建物・空き家（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】前津江、中津江、上津江、大山、天瀬の各山間部にある橋梁。【地震リスク】大地震時には損傷・倒壊の可能性。【洪水リスク】山間部の急流河川の増水時には流失する危険性が高い。【土砂災害】土砂崩れにより橋へのアクセス道路が寸断される可能性。【孤立リスク】橋が使用不能になると集落が孤立する危険性。【対策】災害時は通行を避け、避難経路の複数確保が重要。住所：日田市山間部各所</t>
-  </si>
-  <si>
-    <t>山間部の橋梁（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】市内各所にある古い木造橋や吊り橋。特に山間部に点在。【地震リスク】大地震時には倒壊の危険性が高い。【洪水リスク】河川増水時には流失する危険性が非常に高い。【老朽化リスク】経年劣化により通常時でも倒壊リスク。【対策】災害時は絶対に通行しない。日常的にも注意が必要。住所：日田市内各所</t>
-  </si>
-  <si>
-    <t>古い木造橋・吊り橋（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】筑後川に架かる大型橋。日田市と福岡県を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】筑後川の大規模氾濫時には橋が冠水・流失する危険性が高い。【対策】災害時は橋の通行を避け、迂回路を利用。住所：日田市夜明</t>
-  </si>
-  <si>
-    <t>夜明大橋（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】花月川に架かる橋。永興寺近く。【地震リスク】大地震時には損傷の可能性。【洪水リスク】花月川氾濫時には冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。住所：日田市城町</t>
-  </si>
-  <si>
-    <t>城町橋（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】三隈川に架かる橋で国道を通る主要橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋が冠水し通行不能になる危険性。【対策】災害時は橋の通行を避ける。避難時の経路として使用しない。住所：日田市</t>
-  </si>
-  <si>
-    <t>日田大橋（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：倒壊危険箇所】三隈川に架かる主要な橋。市街地中心部と南部を結ぶ重要な橋。【地震リスク】大地震時には橋脚の損傷や落橋の可能性。【洪水リスク】大規模洪水時には橋桁が流される危険性。【対策】地震・洪水時は橋の通行を避け、迂回路を利用。住所：日田市中心部</t>
-  </si>
-  <si>
-    <t>三隈大橋（倒壊危険箇所）</t>
-  </si>
-  <si>
-    <t>【種別：支援拠点】中津江地区の道の駅。災害時には物資配給拠点や情報拠点として機能する可能性。【孤立リスク】山間部で道路寸断による孤立リスクあり。【利点】中津江地区の重要な情報・支援拠点。住所：日田市中津江村合瀬3750</t>
-  </si>
-  <si>
-    <t>5分</t>
-  </si>
-  <si>
-    <t>避難所</t>
-  </si>
-  <si>
-    <t>道の駅 鯛生金山（支援拠点）</t>
-  </si>
-  <si>
-    <t>【種別：支援拠点】大山地区の道の駅。災害時には物資配給拠点や情報拠点として機能する可能性。【土砂災害】山間部で土砂災害に注意。【利点】大山ダム近くで、地域住民の支援拠点。住所：日田市大山町西大山</t>
-  </si>
-  <si>
-    <t>道の駅 水辺の郷おおやま（支援拠点）</t>
-  </si>
-  <si>
-    <t>【種別：物資集積拠点】災害時の物資集積・配送拠点として利用可能な広い施設。【利点】広いスペースで大量の支援物資を受け入れ、仕分け、配送できる。駐車場も広い。住所：日田市三和</t>
-  </si>
-  <si>
-    <t>日田玖珠地域産業振興センター（物資集積拠点）</t>
-  </si>
-  <si>
-    <t>【種別：医療拠点】災害時の医療拠点。重症者の受け入れや医療支援の中心となる。【水害リスク】市街地で水害リスクは中程度。【利点】災害時医療の中核施設。住所：日田市田島2丁目</t>
-  </si>
-  <si>
-    <t>日田中央病院周辺（医療拠点）</t>
-  </si>
-  <si>
-    <t>【種別：医療関連施設】災害時の医療支援拠点として機能する可能性。看護人材の確保に重要。【利点】医療知識を持つ人材が集まる施設。住所：日田市三本松2丁目</t>
-  </si>
-  <si>
-    <t>日田市医師会立日田准看護学院（医療拠点）</t>
-  </si>
-  <si>
-    <t>【種別：物資拠点】市役所敷地内の防災倉庫。非常食、毛布、簡易トイレなどの備蓄物資を保管。【利点】災害時には避難所へ物資が配送される。市民への物資配給拠点ともなる。住所：日田市役所敷地内</t>
-  </si>
-  <si>
-    <t>日田市防災倉庫（物資拠点）</t>
-  </si>
-  <si>
-    <t>【種別：給水拠点】災害時の給水拠点。断水時には応急給水が実施される。【利点】市街地中心部で多くの市民が利用可能。給水車も配備。【対策】給水時はポリタンクやペットボトルを持参。住所：日田市田島本町</t>
-  </si>
-  <si>
-    <t>日田市上下水道局（給水拠点）</t>
-  </si>
-  <si>
-    <t>【種別：水害危険区域】筑後川沿いの低地帯（夜明、大鶴地区など）。大雨時には河川氾濫により浸水リスクが非常に高い。【危険性】本流のため水量が多く、氾濫時の被害は甚大。【対策】早期避難が最優先。避難所は高台を選ぶ。住所：日田市西部筑後川沿岸</t>
-  </si>
-  <si>
-    <t>筑後川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
-    <t>【種別：土砂災害危険区域】日田市の山間部全域に土砂災害警戒区域が多数指定。特に前津江、中津江、上津江、大山、天瀬の各地区は要注意。【危険性】大雨時には土石流、がけ崩れ、地滑りが発生する可能性。【対策】大雨警報発表時は早期避難。避難所への経路も土砂災害の危険がないか確認。住所：日田市山間部全域</t>
-  </si>
-  <si>
-    <t>土砂災害警戒区域（山間部全域）</t>
-  </si>
-  <si>
-    <t>【種別：水害危険区域】玖珠川沿いの低地帯（天瀬町）。大雨時には河川氾濫により浸水リスクが高い。【危険性】山間部で急激な増水が起こりやすい。【対策】早期避難。天ヶ瀬温泉街も含まれるため、宿泊客も注意が必要。住所：日田市天瀬町</t>
-  </si>
-  <si>
-    <t>玖珠川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
-    <t>【種別：水害危険区域】花月川沿いの低地帯。大雨時には河川氾濫により浸水リスクが高い。三隈川との合流点付近は特に危険。【危険性】内水氾濫も発生しやすい。【対策】早期避難。浸水想定区域を事前に確認し、避難経路を把握。住所：日田市石井町周辺</t>
-  </si>
-  <si>
-    <t>花月川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
-    <t>【種別：水害危険区域】三隈川（筑後川）沿いの低地帯。大雨時には河川氾濫により浸水リスクが非常に高い。2017年九州北部豪雨では甚大な被害。【危険性】洪水時は急激に水位が上昇し、避難が困難になる可能性。【対策】早期避難が重要。避難勧告・指示が出たら直ちに高台の避難所へ。住所：日田市中心部三隈川沿岸</t>
-  </si>
-  <si>
-    <t>三隈川沿い低地帯（危険区域）</t>
-  </si>
-  <si>
-    <t>【種別：緊急避難場所】広い芝生広場を持つ公園。緊急時の一時避難に利用可能。【水害リスク】やや高台で水害リスクは中程度。【地震対応】安全。【利点】遊具もあり、避難時の子供のケアにも配慮。住所：日田市田島1丁目</t>
-  </si>
-  <si>
-    <t>ガランドヤ古墳公園（緊急避難場所）</t>
-  </si>
-  <si>
-    <t>【種別：指定緊急避難場所】市街地中心部の高台にある公園。【水害リスク】高台で水害リスクは低い。【地震対応】安全。【利点】周辺住民が素早く避難できる立地。見晴らしが良く、災害状況の確認もしやすい。住所：日田市丸山1丁目</t>
-  </si>
-  <si>
-    <t>月隈公園（緊急避難場所）</t>
-  </si>
-  <si>
-    <t>【種別：指定緊急避難場所】市街地中心部の大規模公園。広い敷地で多くの避難者を受け入れ可能。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】倒壊物少なく安全。【利点】避難後の一時滞在に適している。住所：日田市中ノ島町</t>
-  </si>
-  <si>
-    <t>亀山公園（緊急避難場所）</t>
-  </si>
-  <si>
-    <t>【種別：指定緊急避難場所】防災機能を備えた都市公園。広い芝生広場。【水害リスク】比較的高台で水害リスクは低め。【地震対応】倒壊物なく安全。【利点】ヘリポート機能、災害時の救援活動拠点。防災倉庫、非常用トイレ、かまどベンチなど防災設備設置。住所：日田市田島</t>
-  </si>
-  <si>
-    <t>日田市防災公園（緊急避難場所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】大規模な体育施設で主要な避難所。メインアリーナやサブアリーナなど広大なスペース。【水害リスク】高台に位置し、水害リスクは低め。【地震対応】耐震構造で安全性高い。【利点】多数の避難者を長期間受け入れ可能。冷暖房完備。住所：日田市上城内町</t>
-  </si>
-  <si>
-    <t>日田市総合体育館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】広い体育館で収容人数が多い主要避難所。冷暖房完備。【水害リスク】市街地中心部で水害リスクは中程度。【地震対応】耐震構造。【利点】多くの避難者を受け入れられる。駐車場も広い。住所：日田市田島2丁目</t>
-  </si>
-  <si>
-    <t>日田市民体育館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】大山地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要警戒。【利点】地域住民の避難および災害対応の中心施設。大山ダムの緊急時にも重要。住所：日田市大山町西大山</t>
-  </si>
-  <si>
-    <t>大山振興局（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】上津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】道路寸断リスクあり。【利点】災害時の地域住民の避難先および情報発信拠点。標高が高く、比較的安全。住所：日田市上津江町</t>
-  </si>
-  <si>
-    <t>上津江振興局（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】中津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要警戒。【孤立リスク】道路寸断による孤立リスク高い。【利点】地域住民の情報収集・避難・支援物資配給の中心。住所：日田市中津江村合瀬</t>
-  </si>
-  <si>
-    <t>中津江振興局（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】前津江地区の行政施設で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要警戒。【孤立リスク】道路寸断による孤立可能性あり。【利点】災害時の情報収集・発信、物資配給の中心。住所：日田市前津江町大野</t>
-  </si>
-  <si>
-    <t>前津江振興局（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】天瀬地区の中心的な避難所。【水害リスク】玖珠川沿いで水害リスクあり（要注意）。【土砂災害】山間部で土砂災害にも注意。【利点】災害時の情報拠点。住所：日田市天瀬町桜竹</t>
-  </si>
-  <si>
-    <t>天瀬公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】大山地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要警戒。【利点】大山地区の中心的避難施設。住所：日田市大山町西大山</t>
-  </si>
-  <si>
-    <t>大山公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】上津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】山間部で道路寸断リスクあり。【利点】標高が高く、比較的安全。上津江地区の避難拠点。住所：日田市上津江町</t>
-  </si>
-  <si>
-    <t>上津江公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】中津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【孤立リスク】山間部で道路寸断による孤立リスクあり。【利点】中津江地区の中心的避難所。住所：日田市中津江村合瀬</t>
-  </si>
-  <si>
-    <t>中津江公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】前津江地区の地域避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に近く要注意。【利点】山間部の情報共有拠点。住所：日田市前津江町大野2184-1</t>
-  </si>
-  <si>
-    <t>前津江公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】五和地区の地域避難所。【水害リスク】三隈川沿いで水害リスクあり。【利点】地域住民の避難拠点。住所：日田市石井町1-274-4</t>
-  </si>
-  <si>
-    <t>五和公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】夜明地区の地域避難所。【水害リスク】筑後川沿いで水害リスク高い（要警戒）。【利点】地域密着型避難所。住所：日田市夜明中町1547</t>
-  </si>
-  <si>
-    <t>夜明公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】大鶴地区の地域避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【土砂災害】山間部で土砂災害にも注意。【利点】西部地域の避難拠点。住所：日田市大鶴本町870</t>
-  </si>
-  <si>
-    <t>大鶴公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】小野地区の地域避難所。【水害リスク】小野川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に要注意。【利点】西部山間部住民の避難先として不可欠。住所：日田市鈴連町900-3</t>
-  </si>
-  <si>
-    <t>小野公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】東有田地区の地域避難所。【水害リスク】北部で水害リスクは低め。【利点】地域住民の一時避難や情報収集の場。駐車場完備。住所：日田市諸留町52</t>
-  </si>
-  <si>
-    <t>東有田公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】西有田地区の地域避難所。【水害リスク】北西部で水害リスクは中程度。【利点】地域コミュニティの拠点。住所：日田市石松町2927-1</t>
-  </si>
-  <si>
-    <t>西有田公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】三花地区の地域避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【利点】地域密着型避難施設。住所：日田市清水町948-1</t>
-  </si>
-  <si>
-    <t>三花公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】朝日地区の地域避難所。【水害リスク】東部で水害リスクは中程度。【利点】東部地域の情報拠点。住所：日田市朝日町945-1</t>
-  </si>
-  <si>
-    <t>朝日公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】光岡地区の地域避難所。【水害リスク】北部やや高台で水害リスクは低め。【土砂災害】山間部に近く、大雨時は土砂災害に注意。【利点】地域密着型避難所。住所：日田市北友田1-1221-1</t>
-  </si>
-  <si>
-    <t>光岡公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】高瀬地区の地域避難所。【水害リスク】西部で水害リスクは中程度。【利点】周辺住宅地の避難先として機能。住所：日田市誠和町796-3</t>
-  </si>
-  <si>
-    <t>高瀬公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】三芳地区の地域避難所。【水害リスク】南部で標高やや低め、大雨時は周辺道路の冠水に注意。【利点】地域住民の一時避難や情報収集の場。住所：日田市下井手町989</t>
-  </si>
-  <si>
-    <t>三芳公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】若宮地区の地域避難所。【水害リスク】三隈川近くで水害リスクあり（要注意）。【利点】市街地中心部で避難しやすい。住所：日田市竹田新町1-37</t>
-  </si>
-  <si>
-    <t>若宮公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】日隈地区の地域避難所。【水害リスク】三隈川に比較的近く、大雨時は注意。【利点】地域密着型の避難所。住所：日田市日ノ隈町515-1</t>
-  </si>
-  <si>
-    <t>日隈公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】桂林地区の地域避難所。【水害リスク】東部高台で水害リスクは低め。【利点】地域コミュニティの中心施設。住所：日田市上城内町2-11</t>
-  </si>
-  <si>
-    <t>桂林公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】咸宜地区の地域避難所。【水害リスク】比較的高台で水害リスクは中程度。【利点】地域防災の中心施設。住所：日田市淡窓1-5-31</t>
-  </si>
-  <si>
-    <t>咸宜公民館（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】市南部の指定避難所。【水害リスク】三隈川に近く、大規模水害時は注意が必要。【地震対応】耐震化済みで安全性高い。【利点】広い敷地で緊急車両の対応も可能。住所：日田市田島</t>
-  </si>
-  <si>
-    <t>三隈高等学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】広い敷地を持つ大規模避難所。【水害リスク】高台に位置し、水害時も比較的安全。【地震対応】耐震化済み。【利点】高台立地で安全性高い。住所：日田市高瀬</t>
-  </si>
-  <si>
-    <t>日田林工高等学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】市街地の大規模避難所。【水害リスク】比較的高台で水害リスクは中程度。【地震対応】耐震化済み。【利点】多数の避難者を収容可能。住所：日田市上城内町</t>
-  </si>
-  <si>
-    <t>日田高等学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】五馬地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に要注意。【地震対応】耐震化済み。【利点】山間部住民の避難先として機能。住所：日田市天瀬町五馬市</t>
-  </si>
-  <si>
-    <t>五馬中学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】西部地域の指定避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】西部地域の重要な避難拠点。住所：日田市夜明関町</t>
-  </si>
-  <si>
-    <t>西部中学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】北部地域の指定避難所。【水害リスク】北部高台で水害リスクは低い。【土砂災害】山間部に近く、大雨時は土砂災害に注意。【地震対応】耐震化済み。【利点】北部住民の主要避難所。住所：日田市有田町</t>
-  </si>
-  <si>
-    <t>北部中学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】東部地域の指定避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【地震対応】耐震化済み。【利点】東部地域の主要避難拠点。住所：日田市清水町</t>
-  </si>
-  <si>
-    <t>東部中学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】市南部の指定避難所。【水害リスク】三隈川に近く、大規模水害時は浸水リスクあり（要注意）。【地震対応】耐震化済み。【利点】広い敷地で緊急車両の対応も可能。住所：日田市三和町</t>
-  </si>
-  <si>
-    <t>三隈中学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】市街地中心部の大規模避難所。【水害リスク】中心部で比較的高台、水害リスクは中程度。【地震対応】耐震化済み。【利点】広いグラウンドでヘリコプター離着陸可能。住所：日田市淡窓2-4-20</t>
-  </si>
-  <si>
-    <t>日田中学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】天瀬町西部の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に要注意。【地震対応】耐震化済み。【利点】天瀬西部地域の避難拠点。住所：日田市天瀬町五馬市2040</t>
-  </si>
-  <si>
-    <t>いつま小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】天瀬町東部の指定避難所。【水害リスク】玖珠川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に注意。【地震対応】耐震化済み。【利点】天瀬東部住民の避難先。住所：日田市天瀬町馬原4011-1</t>
-  </si>
-  <si>
-    <t>東渓小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】大山地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域多数、要注意。【地震対応】耐震化済み。【利点】大山地区の中心的避難所。住所：日田市大山町西大山3615-1</t>
-  </si>
-  <si>
-    <t>大山小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】中津江・上津江地区の統合小学校で避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害に要注意。【地震対応】耐震化済み。【利点】津江地域の主要避難拠点。住所：日田市中津江村栃野4341</t>
-  </si>
-  <si>
-    <t>津江小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】前津江地区の指定避難所。【水害リスク】山間部で河川氾濫リスクあり。【土砂災害】土砂災害警戒区域に近く要注意。【地震対応】耐震化済み。【利点】前津江地区唯一の小学校避難所。住所：日田市前津江町大野2562</t>
-  </si>
-  <si>
-    <t>前津江小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】石井地区の指定避難所。【水害リスク】三隈川沿いで水害リスクあり。【地震対応】耐震化済み。【利点】グラウンドは緊急車両の集結場所としても使用可能。住所：日田市石井町2-478</t>
-  </si>
-  <si>
-    <t>石井小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】大明地区の指定避難所。【水害リスク】筑後川沿いで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】西部地域の重要な避難所。住所：日田市大肥本町1701</t>
-  </si>
-  <si>
-    <t>大明小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】小野地区の指定避難所。【水害リスク】小野川沿いで水害リスクあり。【土砂災害】山間部で土砂災害に要注意。【地震対応】耐震化済み。【利点】西部住民の避難先として不可欠。住所：日田市鈴連町1658-1</t>
-  </si>
-  <si>
-    <t>小野小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】有田地区の指定避難所。【水害リスク】北部でやや高台、水害リスクは低め。【地震対応】耐震化済み。【利点】北部地域の主要避難所。住所：日田市諸留町2687-1</t>
-  </si>
-  <si>
-    <t>有田小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】三和地区の指定避難所。【水害リスク】東部で河川から離れており、水害リスクは低め。【地震対応】耐震化済み。【利点】東部住民の避難先として重要。住所：日田市清水町1187</t>
-  </si>
-  <si>
-    <t>三和小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】朝日地区の指定避難所。【水害リスク】東部で水害リスクは中程度。【地震対応】耐震化済み。【利点】東部地域の重要な避難拠点。住所：日田市朝日町936-1</t>
-  </si>
-  <si>
-    <t>朝日小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】光岡地区の指定避難所。【水害リスク】北部やや高台で水害リスクは比較的低い。【土砂災害】北部山間部に近く、大雨時は土砂災害に注意。【地震対応】耐震化済み。【利点】給水拠点としても機能。住所：日田市北友田1-1133-2</t>
-  </si>
-  <si>
-    <t>光岡小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】高瀬地区の指定避難所。【水害リスク】西部で水害リスクは中程度。【地震対応】耐震化済み。【利点】周辺住宅地の避難先として重要。住所：日田市誠和町781-2</t>
-  </si>
-  <si>
-    <t>高瀬小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】三芳地区の指定避難所。【水害リスク】南部で標高は比較的低め。大雨時は周辺道路の冠水に注意。【地震対応】耐震化済み。【利点】広いグラウンドでヘリポート利用可能。住所：日田市下井手町940</t>
-  </si>
-  <si>
-    <t>三芳小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】若宮地区の指定避難所。【水害リスク】三隈川近くで水害リスクあり（要注意）。【地震対応】耐震化済み。【利点】市街地中心部で避難しやすい。住所：日田市若宮町2-15</t>
-  </si>
-  <si>
-    <t>若宮小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】日隈地区の指定避難所。【水害リスク】三隈川に比較的近く、大規模水害時は注意が必要。【地震対応】耐震化済み。【利点】広い敷地でヘリポートとしても利用可能。住所：日田市日ノ隈町578-1</t>
-  </si>
-  <si>
-    <t>日隈小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】桂林地区の指定避難所。【水害リスク】標高がやや高く、水害リスクは比較的低い。【地震対応】耐震化済み。【利点】中心部でアクセス良好。住所：日田市上城内町2-35</t>
-  </si>
-  <si>
-    <t>桂林小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】咸宜地区の指定避難所。校舎と体育館が利用可能。【水害リスク】比較的高台で水害リスクは中程度。【地震対応】耐震化済み。【利点】市街地中心部で多くの住民が避難しやすい。住所：日田市淡窓1-5-13</t>
-  </si>
-  <si>
-    <t>咸宜小学校（避難所）</t>
-  </si>
-  <si>
-    <t>【種別：指定避難所】日田市の中心的な避難所。災害対策本部が設置される重要施設。耐震構造。【水害リスク】三隈川に近く、大規模水害時は浸水の可能性あり（要注意）。【利点】市街地中心でアクセス良好、行政機能が集中。住所：日田市田島2-6-1</t>
-  </si>
-  <si>
-    <t>日田市役所（避難所）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +919,17 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Yu Gothic"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
     </font>
   </fonts>
   <fills count="2">
@@ -958,11 +967,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1265,13 +1276,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0636DB-A8FD-47FF-8EEA-2B06C57F0FC9}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,1844 +1313,1752 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>33.322778</v>
+        <v>33.321661555332298</v>
       </c>
       <c r="E2">
-        <v>130.93611100000001</v>
+        <v>130.941489114457</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3">
-        <v>33.328055999999997</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>33.321674134905003</v>
       </c>
       <c r="E3">
-        <v>130.94888900000001</v>
+        <v>130.93654968043401</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>33.323611</v>
+        <v>33.327454977459396</v>
       </c>
       <c r="E4">
-        <v>130.942778</v>
+        <v>130.94286091074801</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>33.320833</v>
+        <v>33.315402883778603</v>
       </c>
       <c r="E5">
-        <v>130.950278</v>
+        <v>130.925387707038</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>33.319721999999999</v>
+        <v>33.311154521141901</v>
       </c>
       <c r="E6">
-        <v>130.93444400000001</v>
+        <v>130.93894576656501</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>33.309167000000002</v>
+        <v>33.308040036241302</v>
       </c>
       <c r="E7">
-        <v>130.944444</v>
+        <v>130.94665772147201</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>33.314444000000002</v>
+        <v>33.302008555525802</v>
       </c>
       <c r="E8">
-        <v>130.919444</v>
+        <v>130.93693778005499</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>33.338889000000002</v>
+        <v>33.3285597812948</v>
       </c>
       <c r="E9">
-        <v>130.95416700000001</v>
+        <v>130.92280108005701</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>33.328888999999997</v>
+        <v>33.341894235850901</v>
       </c>
       <c r="E10">
-        <v>130.95833300000001</v>
+        <v>130.91878616842101</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>33.318610999999997</v>
+        <v>33.350549276466502</v>
       </c>
       <c r="E11">
-        <v>130.96972199999999</v>
+        <v>130.94282259725799</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>33.338332999999999</v>
+        <v>33.331263469871203</v>
       </c>
       <c r="E12">
-        <v>130.93611100000001</v>
+        <v>130.96826133958501</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>33.279722</v>
+        <v>33.394480638955798</v>
       </c>
       <c r="E13">
-        <v>130.86527799999999</v>
+        <v>130.94190092373401</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>33.288055999999997</v>
+        <v>33.365206926420797</v>
       </c>
       <c r="E14">
-        <v>130.89250000000001</v>
+        <v>130.88260466049601</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>33.305833</v>
+        <v>33.310814440639199</v>
       </c>
       <c r="E15">
-        <v>130.955556</v>
+        <v>130.90830584070201</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>33.396667000000001</v>
+        <v>33.210742360335999</v>
       </c>
       <c r="E16">
-        <v>131.048889</v>
+        <v>130.92053663957799</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>33.284722000000002</v>
+        <v>33.139844612350799</v>
       </c>
       <c r="E17">
-        <v>131.155833</v>
+        <v>130.972976208375</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>33.348056</v>
+        <v>33.257624233919501</v>
       </c>
       <c r="E18">
-        <v>130.84472199999999</v>
+        <v>130.96971613772601</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>33.287778000000003</v>
+        <v>33.257624233919501</v>
       </c>
       <c r="E19">
-        <v>130.96111099999999</v>
+        <v>130.96971613772601</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>33.315277999999999</v>
+        <v>33.233105054202099</v>
       </c>
       <c r="E20">
-        <v>130.89444399999999</v>
+        <v>131.01978041352999</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>33.327500000000001</v>
+        <v>33.316379768456301</v>
       </c>
       <c r="E21">
-        <v>130.94499999999999</v>
+        <v>130.91560048005601</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>33.308610999999999</v>
+        <v>33.3177075165719</v>
       </c>
       <c r="E22">
-        <v>130.931667</v>
+        <v>130.94446745071201</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>33.325555999999999</v>
+        <v>33.336369538969102</v>
       </c>
       <c r="E23">
-        <v>130.96888899999999</v>
+        <v>130.94634707511099</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>33.342778000000003</v>
+        <v>33.2195570836898</v>
       </c>
       <c r="E24">
-        <v>130.93777800000001</v>
+        <v>131.027319962343</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>33.304721999999998</v>
+        <v>33.322686136690798</v>
       </c>
       <c r="E25">
-        <v>130.88583299999999</v>
+        <v>130.94506925998499</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>33.384721999999996</v>
+        <v>33.331820602167298</v>
       </c>
       <c r="E26">
-        <v>130.89833300000001</v>
+        <v>130.93460676110999</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>33.324444</v>
+        <v>33.3307201475318</v>
       </c>
       <c r="E27">
-        <v>130.95055600000001</v>
+        <v>130.91508540282101</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>33.317777999999997</v>
+        <v>33.324129572519901</v>
       </c>
       <c r="E28">
-        <v>130.923889</v>
+        <v>130.936328204641</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>33.308610999999999</v>
+        <v>33.326567092249697</v>
       </c>
       <c r="E29">
-        <v>130.931667</v>
+        <v>130.942551457907</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>33.329721999999997</v>
+        <v>33.315657080134898</v>
       </c>
       <c r="E30">
-        <v>130.94888900000001</v>
+        <v>130.92415336842001</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>33.345832999999999</v>
+        <v>33.312932700755198</v>
       </c>
       <c r="E31">
-        <v>130.97111100000001</v>
+        <v>130.93924913300299</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>33.320833</v>
+        <v>33.307221836613898</v>
       </c>
       <c r="E32">
-        <v>130.950278</v>
+        <v>130.94725186842001</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>33.319721999999999</v>
+        <v>33.302205345778702</v>
       </c>
       <c r="E33">
-        <v>130.93444400000001</v>
+        <v>130.936717153074</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>33.309167000000002</v>
+        <v>33.328487766843999</v>
       </c>
       <c r="E34">
-        <v>130.944444</v>
+        <v>130.92236542002101</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>33.314444000000002</v>
+        <v>33.3423665417452</v>
       </c>
       <c r="E35">
-        <v>130.919444</v>
+        <v>130.924197764056</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>33.338889000000002</v>
+        <v>33.349753370432197</v>
       </c>
       <c r="E36">
-        <v>130.95416700000001</v>
+        <v>130.94303789489501</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>33.328888999999997</v>
+        <v>33.336761069753003</v>
       </c>
       <c r="E37">
-        <v>130.95833300000001</v>
+        <v>130.96263082187599</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>33.314999999999998</v>
+        <v>33.358995759922301</v>
       </c>
       <c r="E38">
-        <v>130.965833</v>
+        <v>131.02721090669101</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>33.338332999999999</v>
+        <v>33.381325433229698</v>
       </c>
       <c r="E39">
-        <v>130.92777799999999</v>
+        <v>130.940879296752</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>33.336388999999997</v>
+        <v>33.371178771299199</v>
       </c>
       <c r="E40">
-        <v>130.93611100000001</v>
+        <v>130.89051518696999</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>33.279722</v>
+        <v>33.325301737071399</v>
       </c>
       <c r="E41">
-        <v>130.86527799999999</v>
+        <v>130.87091577398499</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>33.271388999999999</v>
+        <v>33.312629815983001</v>
       </c>
       <c r="E42">
-        <v>130.84805600000001</v>
+        <v>130.911395022383</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>33.307777999999999</v>
+        <v>33.209838321060502</v>
       </c>
       <c r="E43">
-        <v>130.89250000000001</v>
+        <v>130.91828714328699</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>33.305833</v>
+        <v>33.129147968997998</v>
       </c>
       <c r="E44">
-        <v>130.955556</v>
+        <v>130.95044304244499</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>33.396667000000001</v>
+        <v>33.216857515903001</v>
       </c>
       <c r="E45">
-        <v>131.04861099999999</v>
+        <v>130.612602774339</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>33.284444000000001</v>
+        <v>33.258124034877298</v>
       </c>
       <c r="E46">
-        <v>131.15611100000001</v>
+        <v>130.968267250709</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>33.364722</v>
+        <v>33.255207576385402</v>
       </c>
       <c r="E47">
-        <v>131.13583299999999</v>
+        <v>131.020382779545</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>33.348332999999997</v>
+        <v>33.209585684807102</v>
       </c>
       <c r="E48">
-        <v>130.84444400000001</v>
+        <v>130.918452294888</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>33.285556</v>
+        <v>33.1292064254311</v>
       </c>
       <c r="E49">
-        <v>130.958889</v>
+        <v>130.95214362557499</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>33.396667000000001</v>
+        <v>33.095103851927199</v>
       </c>
       <c r="E50">
-        <v>131.04861099999999</v>
+        <v>130.976622175827</v>
       </c>
       <c r="F50" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>33.284444000000001</v>
+        <v>33.257631648741402</v>
       </c>
       <c r="E51">
-        <v>131.15611100000001</v>
+        <v>130.965270251471</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>33.364722</v>
+        <v>33.319296149700897</v>
       </c>
       <c r="E52">
-        <v>131.13583299999999</v>
+        <v>130.951683318166</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>33.348332999999997</v>
+        <v>33.314763170921701</v>
       </c>
       <c r="E53">
-        <v>130.84444400000001</v>
+        <v>130.92893231093001</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>33.326667</v>
+        <v>33.3318626609394</v>
       </c>
       <c r="E54">
-        <v>130.93444400000001</v>
+        <v>130.93670169118499</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>33.333055999999999</v>
+        <v>33.314210720799501</v>
       </c>
       <c r="E55">
-        <v>130.924722</v>
+        <v>130.904537050127</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D56">
-        <v>33.327221999999999</v>
+        <v>33.32</v>
       </c>
       <c r="E56">
-        <v>130.93083300000001</v>
+        <v>130.935</v>
       </c>
       <c r="F56" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D57">
-        <v>33.319420000000001</v>
+        <v>33.31</v>
       </c>
       <c r="E57">
-        <v>130.93686400000001</v>
+        <v>130.93299999999999</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D58">
-        <v>33.326397999999998</v>
+        <v>33.284999999999997</v>
       </c>
       <c r="E58">
-        <v>130.93969200000001</v>
+        <v>130.96</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D59">
-        <v>33.305278000000001</v>
+        <v>33.32</v>
       </c>
       <c r="E59">
-        <v>130.924361</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D60">
-        <v>33.32</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E60">
-        <v>130.935</v>
+        <v>130.88999999999999</v>
       </c>
       <c r="F60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" t="s">
         <v>128</v>
       </c>
-      <c r="G60" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>33.31</v>
+        <v>33.321757129257797</v>
       </c>
       <c r="E61">
-        <v>130.93299999999999</v>
+        <v>130.930269756462</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>33.284999999999997</v>
+        <v>33.233812461668798</v>
       </c>
       <c r="E62">
-        <v>130.96</v>
+        <v>131.61670780907801</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>33.32</v>
+        <v>33.345913211072201</v>
       </c>
       <c r="E63">
-        <v>130.94999999999999</v>
+        <v>130.94213599725799</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>33.299999999999997</v>
+        <v>33.3224540619549</v>
       </c>
       <c r="E64">
-        <v>130.88999999999999</v>
+        <v>130.93376752423799</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>33.321666999999998</v>
+        <v>33.316389000000001</v>
       </c>
       <c r="E65">
-        <v>130.93555599999999</v>
+        <v>130.92861099999999</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D66">
-        <v>33.322778</v>
+        <v>33.353611000000001</v>
       </c>
       <c r="E66">
-        <v>130.93611100000001</v>
+        <v>130.831389</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>33.323889000000001</v>
+        <v>33.12865901</v>
       </c>
       <c r="E67">
-        <v>130.932222</v>
+        <v>130.88207402</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D68">
-        <v>33.320556000000003</v>
+        <v>33.321666999999998</v>
       </c>
       <c r="E68">
-        <v>130.93472199999999</v>
+        <v>130.93694400000001</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D69">
-        <v>33.316389000000001</v>
+        <v>33.32</v>
       </c>
       <c r="E69">
-        <v>130.92861099999999</v>
+        <v>130.935</v>
       </c>
       <c r="F69" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D70">
-        <v>33.353611000000001</v>
+        <v>33.327221999999999</v>
       </c>
       <c r="E70">
-        <v>130.831389</v>
+        <v>130.94472200000001</v>
       </c>
       <c r="F70" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D71">
-        <v>33.284377999999997</v>
+        <v>33.307777999999999</v>
       </c>
       <c r="E71">
-        <v>131.15638899999999</v>
+        <v>130.89250000000001</v>
       </c>
       <c r="F71" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" t="s">
         <v>150</v>
       </c>
-      <c r="G71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D72">
-        <v>33.321666999999998</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E72">
-        <v>130.93694400000001</v>
+        <v>130.9</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D73">
-        <v>33.32</v>
+        <v>33.35</v>
       </c>
       <c r="E73">
-        <v>130.935</v>
+        <v>131.05000000000001</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D74">
-        <v>33.327221999999999</v>
+        <v>33.327845000000003</v>
       </c>
       <c r="E74">
-        <v>130.94472200000001</v>
+        <v>130.93741199999999</v>
       </c>
       <c r="F74" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D75">
-        <v>33.307777999999999</v>
+        <v>33.32</v>
       </c>
       <c r="E75">
-        <v>130.89250000000001</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D76">
-        <v>33.299999999999997</v>
+        <v>33.322000000000003</v>
       </c>
       <c r="E76">
-        <v>130.9</v>
+        <v>130.94</v>
       </c>
       <c r="F76" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D77">
-        <v>33.35</v>
+        <v>33.323</v>
       </c>
       <c r="E77">
-        <v>131.05000000000001</v>
+        <v>130.941</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G77" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78">
-        <v>33.327845000000003</v>
-      </c>
-      <c r="E78">
-        <v>130.93741199999999</v>
-      </c>
-      <c r="F78" t="s">
-        <v>128</v>
-      </c>
-      <c r="G78" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79">
-        <v>33.32</v>
-      </c>
-      <c r="E79">
-        <v>130.94999999999999</v>
-      </c>
-      <c r="F79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80">
-        <v>33.322000000000003</v>
-      </c>
-      <c r="E80">
-        <v>130.94</v>
-      </c>
-      <c r="F80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D81">
-        <v>33.323</v>
-      </c>
-      <c r="E81">
-        <v>130.941</v>
-      </c>
-      <c r="F81" t="s">
-        <v>128</v>
-      </c>
-      <c r="G81" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3145,17 +3072,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3178,15 +3107,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D2">
         <v>33.327157</v>
@@ -3195,67 +3124,67 @@
         <v>130.936792</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D3">
-        <v>33.322686580000003</v>
+        <v>33.322590412295</v>
       </c>
       <c r="E3">
-        <v>130.93491965999999</v>
+        <v>130.934899905539</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>33.323766999999997</v>
+        <v>33.323838462669599</v>
       </c>
       <c r="E4">
-        <v>130.94157799999999</v>
+        <v>130.94147211365501</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>33.325933999999997</v>
@@ -3264,21 +3193,21 @@
         <v>130.941756</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D6">
         <v>33.315559999999998</v>
@@ -3287,44 +3216,44 @@
         <v>130.93142779999999</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D7">
-        <v>33.3155</v>
+        <v>33.326610039999998</v>
       </c>
       <c r="E7">
-        <v>130.93138999999999</v>
+        <v>130.93548559999999</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D8">
         <v>33.314481999999998</v>
@@ -3333,21 +3262,21 @@
         <v>130.928481</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>33.312230769999999</v>
@@ -3356,21 +3285,21 @@
         <v>130.92942463</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D10">
         <v>33.316670000000002</v>
@@ -3379,21 +3308,21 @@
         <v>130.93333000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D11">
         <v>33.332121919999999</v>
@@ -3402,21 +3331,21 @@
         <v>130.93606019999999</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D12">
         <v>33.265076999999998</v>
@@ -3425,21 +3354,21 @@
         <v>131.068108</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D13">
         <v>33.252194000000003</v>
@@ -3448,44 +3377,44 @@
         <v>131.02308300000001</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D14">
-        <v>33.224724999999999</v>
+        <v>33.24353</v>
       </c>
       <c r="E14">
-        <v>130.96452300000001</v>
+        <v>130.95740000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D15">
         <v>33.363269109999997</v>
@@ -3494,44 +3423,44 @@
         <v>130.94387775000001</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D16">
-        <v>33.224724999999999</v>
+        <v>33.239190000000001</v>
       </c>
       <c r="E16">
-        <v>130.96452300000001</v>
+        <v>130.97893999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D17">
         <v>33.233476000000003</v>
@@ -3540,21 +3469,21 @@
         <v>131.01163500000001</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D18">
         <v>33.314057699999999</v>
@@ -3563,21 +3492,21 @@
         <v>130.90534045000001</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D19">
         <v>33.325144999999999</v>
@@ -3586,44 +3515,44 @@
         <v>130.90529799999999</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D20">
-        <v>33.308655000000002</v>
+        <v>33.309289999999997</v>
       </c>
       <c r="E20">
-        <v>130.92318299999999</v>
+        <v>130.92361</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="D21">
         <v>33.255052999999997</v>
@@ -3632,44 +3561,44 @@
         <v>131.02457200000001</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="D22">
-        <v>33.297848000000002</v>
+        <v>33.297969999999999</v>
       </c>
       <c r="E22">
-        <v>130.95760300000001</v>
+        <v>130.95760999999999</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="D23">
         <v>33.312961999999999</v>
@@ -3678,21 +3607,21 @@
         <v>130.93077</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>33.320653</v>
@@ -3701,21 +3630,21 @@
         <v>130.94578200000001</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D25">
         <v>33.298377000000002</v>
@@ -3724,251 +3653,251 @@
         <v>131.0496</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D26">
-        <v>33.297189000000003</v>
+        <v>33.29562</v>
       </c>
       <c r="E26">
-        <v>130.93535</v>
+        <v>130.93478999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D27">
-        <v>33.331302999999998</v>
-      </c>
-      <c r="E27">
-        <v>130.94235599999999</v>
+        <v>33.331402255225697</v>
+      </c>
+      <c r="E27" s="2">
+        <v>130.94234705011399</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>33.133242000000003</v>
-      </c>
-      <c r="E28">
-        <v>130.94404399999999</v>
+        <v>164</v>
+      </c>
+      <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="2">
+        <v>130.94488156637601</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D29">
-        <v>33.302999999999997</v>
-      </c>
-      <c r="E29">
-        <v>131.025972</v>
+        <v>33.302944357516701</v>
+      </c>
+      <c r="E29" s="2">
+        <v>131.025932130087</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D30">
-        <v>33.285964</v>
-      </c>
-      <c r="E30">
-        <v>131.007079</v>
+        <v>33.3008768522065</v>
+      </c>
+      <c r="E30" s="2">
+        <v>130.98068537915501</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D31">
-        <v>33.224724999999999</v>
-      </c>
-      <c r="E31">
-        <v>130.96452300000001</v>
+        <v>33.240103479017002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>130.963553366535</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="D32">
-        <v>33.427695999999997</v>
-      </c>
-      <c r="E32">
-        <v>130.91111599999999</v>
+        <v>33.427758975806903</v>
+      </c>
+      <c r="E32" s="2">
+        <v>130.911043009232</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D33">
-        <v>33.298074</v>
-      </c>
-      <c r="E33">
-        <v>130.944198</v>
+        <v>33.297961419358103</v>
+      </c>
+      <c r="E33" s="2">
+        <v>130.94403763033901</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>33.128599999999999</v>
-      </c>
-      <c r="E34">
-        <v>130.8844</v>
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="2">
+        <v>130.88095562087</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="D35">
-        <v>33.311607000000002</v>
-      </c>
-      <c r="E35">
-        <v>130.92191299999999</v>
+        <v>33.313048875418701</v>
+      </c>
+      <c r="E35" s="2">
+        <v>130.923417430673</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D36">
         <v>33.247469899999999</v>
@@ -3977,228 +3906,228 @@
         <v>130.97215120000001</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D37">
-        <v>33.128599999999999</v>
-      </c>
-      <c r="E37">
-        <v>130.8844</v>
+        <v>33.128426303178898</v>
+      </c>
+      <c r="E37" s="2">
+        <v>130.882177641346</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D38">
-        <v>33.360100000000003</v>
-      </c>
-      <c r="E38">
-        <v>130.9152</v>
+        <v>33.413673425262097</v>
+      </c>
+      <c r="E38" s="2">
+        <v>130.93198917222901</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D39">
-        <v>33.072831489999999</v>
-      </c>
-      <c r="E39">
-        <v>130.9044811</v>
+        <v>33.072269195176503</v>
+      </c>
+      <c r="E39" s="2">
+        <v>130.90480668169101</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D40">
-        <v>33.184604</v>
-      </c>
-      <c r="E40">
-        <v>130.903865</v>
+        <v>33.1849417059302</v>
+      </c>
+      <c r="E40" s="2">
+        <v>130.90384073772199</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="D41">
-        <v>33.036943999999998</v>
-      </c>
-      <c r="E41">
-        <v>130.973028</v>
+        <v>33.039092507431697</v>
+      </c>
+      <c r="E41" s="2">
+        <v>130.973520736545</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="G41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="D42">
-        <v>33.311607000000002</v>
-      </c>
-      <c r="E42">
-        <v>130.92191299999999</v>
+        <v>33.311973535248697</v>
+      </c>
+      <c r="E42" s="2">
+        <v>130.922731506795</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D43">
-        <v>33.320441500000001</v>
-      </c>
-      <c r="E43">
-        <v>130.93503630000001</v>
+        <v>33.320479527848597</v>
+      </c>
+      <c r="E43" s="2">
+        <v>130.93510875272199</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D44">
-        <v>33.311929999999997</v>
-      </c>
-      <c r="E44">
-        <v>130.924093</v>
+        <v>33.311948052039902</v>
+      </c>
+      <c r="E44" s="2">
+        <v>130.92415830121701</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D45">
-        <v>33.310606</v>
-      </c>
-      <c r="E45">
-        <v>130.94194400000001</v>
+        <v>33.310568236949102</v>
+      </c>
+      <c r="E45" s="2">
+        <v>130.94189856465999</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D46">
         <v>33.326455000000003</v>
@@ -4207,21 +4136,21 @@
         <v>130.936768</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D47">
         <v>33.332371000000002</v>
@@ -4230,21 +4159,21 @@
         <v>130.93728100000001</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="D48">
         <v>33.319198999999998</v>
@@ -4253,21 +4182,21 @@
         <v>130.93424899999999</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="D49">
         <v>33.326025000000001</v>
@@ -4276,21 +4205,21 @@
         <v>130.94184200000001</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D50">
         <v>33.317030000000003</v>
@@ -4299,21 +4228,21 @@
         <v>130.93863999999999</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D51">
         <v>33.310299999999998</v>
@@ -4322,10 +4251,10 @@
         <v>130.93559999999999</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4347,8 +4276,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AADFA5ADD07F545A224A71C36D9C064" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="76fb819a08dfb6a5ef4f46d024e22853">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3345725-50c9-49b1-96aa-77e0eb33bd0c" xmlns:ns3="71f3be17-62e4-4def-adc8-eaac84d09117" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109387e4ed7de12a445139dfc5480be6" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AADFA5ADD07F545A224A71C36D9C064" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="69b14e0c1587698044a79ca6a1c91739">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3345725-50c9-49b1-96aa-77e0eb33bd0c" xmlns:ns3="71f3be17-62e4-4def-adc8-eaac84d09117" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b8ee077ef5f4fd81661c926fed60c8a" ns2:_="" ns3:_="">
     <xsd:import namespace="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
     <xsd:import namespace="71f3be17-62e4-4def-adc8-eaac84d09117"/>
     <xsd:element name="properties">
@@ -4541,49 +4479,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185289FB-5466-40C6-9A04-BB6060E0DF3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71f3be17-62e4-4def-adc8-eaac84d09117"/>
-    <ds:schemaRef ds:uri="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185289FB-5466-40C6-9A04-BB6060E0DF3A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55577ADC-0E99-40F3-BE8F-516F8CD99F29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
-    <ds:schemaRef ds:uri="71f3be17-62e4-4def-adc8-eaac84d09117"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B567690-7C98-44F2-9BF1-3C48B42B533B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B567690-7C98-44F2-9BF1-3C48B42B533B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EABFA7-46A7-4352-98FA-19847D6847F5}"/>
 </file>
--- a/spots.xlsx
+++ b/spots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{6D845C24-0666-44B7-A0F2-FB3354D06A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C85FC965-18CA-4714-9582-CC27C73DDCCC}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{6D845C24-0666-44B7-A0F2-FB3354D06A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6CB2F7-936E-4C42-968B-80F0D2386888}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防災" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="283">
   <si>
     <t>No</t>
   </si>
@@ -546,13 +546,13 @@
     <t>30分</t>
   </si>
   <si>
-    <t>江戸時代後期に廣瀬淡窓が開いた日本最大規模の私塾跡。世界遺産構成資産。咸宜園教育研究センターで歴史を学べる。身分や出身地を問わない画期的な教育施設。住所：日田市淡窓2-2-13</t>
-  </si>
-  <si>
-    <t>日田市立淡窓図書館（AOSE内）</t>
-  </si>
-  <si>
-    <t>【アンケート人気：14件】「静かで勉強しやすい」「涼しい」と学生に人気。Wi-Fi完備で学習スペースも充実。咸宜園の歴史展示も併設。住所：日田市淡窓2-2-18</t>
+    <t>江戸時代後期に廣瀬淡窓が開いた日本最大規模の私塾跡。世界遺産構成資産。咸宜園教育研究センターで歴史を学べる。身分や出身地を問わない画期的な教育施設。住所：日田市淡窓2丁目2-13</t>
+  </si>
+  <si>
+    <t>日田市立淡窓図書館</t>
+  </si>
+  <si>
+    <t>【アンケート人気：14件】「静かで勉強しやすい」「涼しい」と学生に人気。Wi-Fi完備で学習スペースも充実。咸宜園の歴史展示も併設。住所：日田市上城内町1-72</t>
   </si>
   <si>
     <t>日田市立博物館（AOSE内）</t>
@@ -567,7 +567,7 @@
     <t>観光地</t>
   </si>
   <si>
-    <t>日田祇園祭（国指定重要無形民俗文化財）の山鉾を常設展示。豪華絢爛な山鉾の細部まで見学でき、祭りの歴史や文化を学べる。映像展示も充実。住所：日田市隈2-3-3</t>
+    <t>日田祇園祭（国指定重要無形民俗文化財）の山鉾を常設展示。豪華絢爛な山鉾の細部まで見学でき、祭りの歴史や文化を学べる。映像展示も充実。住所：日田市隈2丁目７-10</t>
   </si>
   <si>
     <t>ひなの里（天領日田資料館）</t>
@@ -576,13 +576,13 @@
     <t>20分</t>
   </si>
   <si>
-    <t>【アンケート人気：2件】豆田町にある資料館。天領時代の日田の歴史や文化を展示。毎年2〜3月には「天領日田おひなまつり」開催。江戸〜昭和のひな人形コレクション。住所：日田市隈2-10-17</t>
+    <t>【アンケート人気：2件】豆田町にある資料館。天領時代の日田の歴史や文化を展示。毎年2〜3月には「天領日田おひなまつり」開催。江戸〜昭和のひな人形コレクション。住所：日田市豆田町11-7</t>
   </si>
   <si>
     <t>亀山公園</t>
   </si>
   <si>
-    <t>【アンケート人気：14件】三隈川沿いの桜の名所。「遊具がいっぱい」「自然豊か」と人気。約1,000本の桜。展望台から日田市街地を一望。遊具、ウォーキングコース完備。住所：日田市中ノ島町</t>
+    <t>【アンケート人気：14件】三隈川沿いの桜の名所。「遊具がいっぱい」「自然豊か」と人気。約1,000本の桜。展望台から日田市街地を一望。遊具、ウォーキングコース完備。住所：日田市中ノ島町559番地</t>
   </si>
   <si>
     <t>三隈川（屋形船・鵜飼い）</t>
@@ -591,13 +591,13 @@
     <t>体験</t>
   </si>
   <si>
-    <t>【アンケート人気：7件】「水が綺麗」「夜の景色が綺麗」と評価。日田市中心部を流れる筑後川の呼称。5月中旬〜10月に鵜飼い。夏には鮎料理を楽しむ屋形船も運航。住所：日田市中心部</t>
-  </si>
-  <si>
-    <t>三隈川遊歩道</t>
-  </si>
-  <si>
-    <t>三隈川沿いの遊歩道。川のほとりを歩きながら自然の美しさを感じられる。対岸の景色が水面に映り込み、夕暮れ時や夜間は特に美しい。ジョギングや散歩に最適。住所：日田市中ノ島町周辺</t>
+    <t>【アンケート人気：7件】「水が綺麗」「夜の景色が綺麗」と評価。日田市中心部を流れる筑後川の呼称。5月中旬〜10月に鵜飼い。夏には鮎料理を楽しむ屋形船も運航。</t>
+  </si>
+  <si>
+    <t>庄手川散歩道</t>
+  </si>
+  <si>
+    <t>三隈川沿いの遊歩道。川のほとりを歩きながら自然の美しさを感じられる。対岸の景色が水面に映り込み、夕暮れ時や夜間は特に美しい。ジョギングや散歩に最適。住所：日田市隈２丁目３-8</t>
   </si>
   <si>
     <t>月隈公園</t>
@@ -606,13 +606,13 @@
     <t>15分</t>
   </si>
   <si>
-    <t>【アンケート人気：4件】市街地中心部の高台にある公園。見晴らし良好。「落ち着く」と地元住民に愛される憩いの場。緊急避難場所にも指定。住所：日田市丸山1丁目</t>
+    <t>【アンケート人気：4件】市街地中心部の高台にある公園。見晴らし良好。「落ち着く」と地元住民に愛される憩いの場。緊急避難場所にも指定。住所：日田市丸山2丁目2-1</t>
   </si>
   <si>
     <t>慈恩の滝</t>
   </si>
   <si>
-    <t>上段20m、下段10mの二段滝。滝の裏側から眺められる「裏見の滝」として有名。夜間はライトアップ。道の駅「慈恩の滝くす」隣接。住所：日田市天瀬町赤岩</t>
+    <t>上段20m、下段10mの二段滝。滝の裏側から眺められる「裏見の滝」として有名。夜間はライトアップ。道の駅「慈恩の滝くす」隣接。住所：玖珠郡玖珠町山浦618</t>
   </si>
   <si>
     <t>桜滝</t>
@@ -636,16 +636,16 @@
     <t>自然</t>
   </si>
   <si>
-    <t>【アンケート人気：2件】標高約760mの山。登山コース整備。山頂から日田市街地や九重連山を一望。春は山桜、秋は紅葉。トレッキング愛好者に人気。住所：日田市大山町</t>
+    <t>【アンケート人気：2件】標高約760mの山。登山コース整備。山頂から日田市街地や九重連山を一望。春は山桜、秋は紅葉。トレッキング愛好者に人気。住所：日田市小野</t>
   </si>
   <si>
     <t>おおやま大久保台梅林公園</t>
   </si>
   <si>
-    <t>大山町の梅園。日田市内を一望できる絶景スポット。360度パノラマビュー。夕日や夜景が特に美しい。春には梅が咲き誇る。住所：日田市大山町西大山</t>
-  </si>
-  <si>
-    <t>五馬高原（ごめこうげん）</t>
+    <t>大山町の梅園。日田市内を一望できる絶景スポット。360度パノラマビュー。夕日や夜景が特に美しい。春には梅が咲き誇る。住所：日田市大山町西大山４７３８</t>
+  </si>
+  <si>
+    <t>五馬高原（いつまこうげん）</t>
   </si>
   <si>
     <t>標高700mの高原。360度パノラマビューで展望抜群。夏はひまわり、秋はコスモスが咲く。ドライブスポットとして人気。住所：日田市天瀬町</t>
@@ -654,19 +654,19 @@
     <t>ガランドヤ古墳公園</t>
   </si>
   <si>
-    <t>古墳群が保存されている公園。歴史を感じながら散策できる。遊具もあり、子供の遊び場としても人気。広い芝生広場でピクニック可能。住所：日田市田島1丁目</t>
+    <t>古墳群が保存されている公園。歴史を感じながら散策できる。遊具もあり、子供の遊び場としても人気。広い芝生広場でピクニック可能。住所：日田市石井３丁目1184-1</t>
   </si>
   <si>
     <t>星隈公園</t>
   </si>
   <si>
-    <t>三隈川と花月川の合流点にある星隈の丘の公園。古墳群が点在し、歴史的価値が高い。眺望良好で静かな散策が楽しめる穴場スポット。住所：日田市大字石井</t>
+    <t>三隈川と花月川の合流点にある星隈の丘の公園。古墳群が点在し、歴史的価値が高い。眺望良好で静かな散策が楽しめる穴場スポット。住所：日田市友田２丁目</t>
   </si>
   <si>
     <t>鏡坂公園</t>
   </si>
   <si>
-    <t>市南部の丘陵地にある公園。多くの桜が植えられ、春には桜の絨毯ができる。散策路沿いに美しい桜並木。地元住民の花見スポット。住所：日田市南部</t>
+    <t>市南部の丘陵地にある公園。多くの桜が植えられ、春には桜の絨毯ができる。散策路沿いに美しい桜並木。地元住民の花見スポット。住所：日田市上野147-1</t>
   </si>
   <si>
     <t>天ヶ瀬温泉</t>
@@ -684,7 +684,7 @@
     <t>45分</t>
   </si>
   <si>
-    <t>【アンケート人気：4件】天ヶ瀬温泉街の日帰り温泉施設。地元住民にも愛される。露天風呂からの景色が良くリラックスできる。料金も手頃で気軽に温泉を楽しめる。住所：日田市天瀬町</t>
+    <t>【アンケート人気：4件】天ヶ瀬温泉街の日帰り温泉施設。地元住民にも愛される。露天風呂からの景色が良くリラックスできる。料金も手頃で気軽に温泉を楽しめる。住所：〒877-0032 大分県日田市小ケ瀬町２７５０</t>
   </si>
   <si>
     <t>お宿カフェぐーぐー</t>
@@ -693,58 +693,55 @@
     <t>90分</t>
   </si>
   <si>
-    <t>【アンケート人気：4件】「3時間1000円パックで温泉・サウナ・足湯、漫画やネトフリも楽しめる」と人気。天ヶ瀬温泉街のリラックススペース。コスパ抜群の施設。住所：日田市天瀬町桜竹601</t>
+    <t>【アンケート人気：4件】「3時間1000円パックで温泉・サウナ・足湯、漫画やネトフリも楽しめる」と人気。天ヶ瀬温泉街のリラックススペース。コスパ抜群の施設。住所：〒877-0044 大分県日田市隈１丁目３−８</t>
   </si>
   <si>
     <t>大原八幡宮</t>
   </si>
   <si>
-    <t>【アンケート人気：5件】日田市最大の八幡宮。「景色が綺麗」「落ち着く」「雰囲気が好き」と評価。立派な本殿と境内。日田祇園祭で重要な役割。市街地から徒歩圏内。住所：日田市田島2-184</t>
+    <t>【アンケート人気：5件】日田市最大の八幡宮。「景色が綺麗」「落ち着く」「雰囲気が好き」と評価。立派な本殿と境内。日田祇園祭で重要な役割。市街地から徒歩圏内。住所：〒877-0023 大分県日田市田島２丁目１８４</t>
   </si>
   <si>
     <t>高塚愛宕地蔵尊</t>
   </si>
   <si>
-    <t>天瀬町の地蔵尊。あらゆる願い事を叶えるパワースポットとして全国から参拝者が訪れる。境内に数多くの地蔵が並ぶ。神仏習合の珍しい形態。住所：日田市天瀬町馬原3740</t>
+    <t>天瀬町の地蔵尊。あらゆる願い事を叶えるパワースポットとして全国から参拝者が訪れる。境内に数多くの地蔵が並ぶ。神仏習合の珍しい形態。住所：〒879-4121 大分県日田市天瀬町馬原３７４０</t>
   </si>
   <si>
     <t>琴平神社</t>
   </si>
   <si>
-    <t>市内中心部の高台にあり、石段を登った先に社殿。眺望良く、日田市街地を見渡せる。金刀比羅宮を勧請。海上安全や商売繁盛の神として信仰。住所：日田市丸山1丁目</t>
+    <t>市内中心部の高台にあり、石段を登った先に社殿。眺望良く、日田市街地を見渡せる。金刀比羅宮を勧請。海上安全や商売繁盛の神として信仰。住所：〒838-1701 福岡県朝倉郡東峰村宝珠山</t>
   </si>
   <si>
     <t>永興寺（えいこうじ）</t>
   </si>
   <si>
-    <t>1014年に日田領主・大蔵永弘が創建した浄土宗の寺院。自現山公園入口に位置。日田駅から北へ約1.5km、花月川に架かる城町橋近く。歴史ある寺院。住所：日田市城町</t>
+    <t>1014年に日田領主・大蔵永弘が創建した浄土宗の寺院。自現山公園入口に位置。日田駅から北へ約1.5km、花月川に架かる城町橋近く。歴史ある寺院。住所：〒877-0004 大分県日田市城町２丁目５−３</t>
   </si>
   <si>
     <t>伝来寺</t>
   </si>
   <si>
-    <t>33.133277672805335,</t>
-  </si>
-  <si>
-    <t>1338年創建の古刹。九州最古の庭園（約500㎡）を持つ。参道沿いの庭園が見どころ。静かで落ち着いた雰囲気。住所：日田市豆田町</t>
+    <t>1338年創建の古刹。九州最古の庭園（約500㎡）を持つ。参道沿いの庭園が見どころ。静かで落ち着いた雰囲気。住所：〒877-0301 大分県日田市中津江村栃野４７２</t>
   </si>
   <si>
     <t>薮の不動尊</t>
   </si>
   <si>
-    <t>1702年創建。毎年10月28日に大祭が行われる。自然の山間に静かに佇む霊場。地元の信仰を集める。住所：日田市</t>
+    <t>1702年創建。毎年10月28日に大祭が行われる。自然の山間に静かに佇む霊場。地元の信仰を集める。住所：日田市天瀬町馬原</t>
   </si>
   <si>
     <t>鞍形尾神社</t>
   </si>
   <si>
-    <t>起源は680年（天武天皇9年）にさかのぼる古社。天瀬町鞍形尾の岩松ヶ峰に八幡宮を祀ったのが始まり。歴史的価値の高い神社。住所：日田市天瀬町鞍形尾</t>
+    <t>起源は680年（天武天皇9年）にさかのぼる古社。天瀬町鞍形尾の岩松ヶ峰に八幡宮を祀ったのが始まり。歴史的価値の高い神社。住所：日田市天瀬町馬原５００</t>
   </si>
   <si>
     <t>烏宿神社（からすじゅくじんじゃ）</t>
   </si>
   <si>
-    <t>烏宿山（標高550m）の山頂に建つ神社。1,000年以上の歴史。かつて女人禁制の修験の霊山だった。登山を兼ねた参拝が可能。眺望抜群。住所：日田市</t>
+    <t>烏宿山（標高550m）の山頂に建つ神社。1,000年以上の歴史。かつて女人禁制の修験の霊山だった。登山を兼ねた参拝が可能。眺望抜群。住所：日田市大山町西大山</t>
   </si>
   <si>
     <t>小鹿田焼の里</t>
@@ -753,21 +750,18 @@
     <t>文化</t>
   </si>
   <si>
-    <t>約300年の伝統を持つ民陶の里。10軒の窯元が伝統技法を守り継承。一子相伝の完全世襲制。作陶見学や器の購入が可能。国の重要無形文化財。住所：日田市源栄町皿山</t>
+    <t>約300年の伝統を持つ民陶の里。10軒の窯元が伝統技法を守り継承。一子相伝の完全世襲制。作陶見学や器の購入が可能。国の重要無形文化財。住所：日田市小野２３４</t>
   </si>
   <si>
     <t>サッポロビール九州日田工場</t>
   </si>
   <si>
-    <t>ビール製造工程を見学できる工場（要予約）。試飲コーナーで出来たてのビールを楽しめる。日田の良質な水を使用。併設のレストランあり。無料で見学可能。住所：日田市高瀬6979</t>
+    <t>ビール製造工程を見学できる工場（要予約）。試飲コーナーで出来たてのビールを楽しめる。日田の良質な水を使用。併設のレストランあり。無料で見学可能。住所：日田市高瀬６９７９</t>
   </si>
   <si>
     <t>鯛生金山（たいおきんざん）</t>
   </si>
   <si>
-    <t>33.128633.12762424556457</t>
-  </si>
-  <si>
     <t>40分</t>
   </si>
   <si>
@@ -780,7 +774,7 @@
     <t>ショッピング</t>
   </si>
   <si>
-    <t>日田の名水「天領水」の湧水を利用。直販市、レストラン、土産物店、足湯を備える。無料で水を汲める。地元の新鮮な農産物や特産品が並ぶ。住所：日田市中ノ島町635-1</t>
+    <t>日田の名水「天領水」の湧水を利用。直販市、レストラン、土産物店、足湯を備える。無料で水を汲める。地元の新鮮な農産物や特産品が並ぶ。住所：日田市庄手６３５−１</t>
   </si>
   <si>
     <t>道の駅 水辺の郷おおやま</t>
@@ -789,25 +783,25 @@
     <t>グルメ</t>
   </si>
   <si>
-    <t>大山地区の道の駅。地元農産物の直売所、レストラン、休憩所。大山ダムへのアクセス拠点。進撃の巨人関連グッズも販売。住所：日田市大山町西大山</t>
+    <t>大山地区の道の駅。地元農産物の直売所、レストラン、休憩所。大山ダムへのアクセス拠点。進撃の巨人関連グッズも販売。住所：日田市大山町西大山４１０６</t>
   </si>
   <si>
     <t>道の駅 鯛生金山</t>
   </si>
   <si>
-    <t>中津江地区の道の駅。鯛生金山と併設。地元特産品の販売、レストラン。山間部の休憩スポット。住所：日田市中津江村合瀬3750</t>
+    <t>中津江地区の道の駅。鯛生金山と併設。地元特産品の販売、レストラン。山間部の休憩スポット。住所：日田市中津江村合瀬３７５０</t>
   </si>
   <si>
     <t>小野河川プール</t>
   </si>
   <si>
-    <t>川の水を利用した屋外プール（夏季限定）。透明度が高く冷たい水。家族向けの遊具もあり、子供連れに人気。更衣室、休憩所完備。住所：日田市小野4830-3</t>
+    <t>川の水を利用した屋外プール（夏季限定）。透明度が高く冷たい水。家族向けの遊具もあり、子供連れに人気。更衣室、休憩所完備。住所：日田市小野４８３０−３</t>
   </si>
   <si>
     <t>上津江フィッシングパーク</t>
   </si>
   <si>
-    <t>奥日田の美しい自然の渓谷を利用した本格的な渓流釣り。ニジマスなど。ログハウスでのキャンプも可能。夏は90mウォータースライダーも。営業：9:00-17:00、水曜休。住所：日田市上津江町</t>
+    <t>奥日田の美しい自然の渓谷を利用した本格的な渓流釣り。ニジマスなど。ログハウスでのキャンプも可能。夏は90mウォータースライダーも。営業：9:00-17:00、水曜休。住所：日田市上津江町川原１６５６−９２</t>
   </si>
   <si>
     <t>スノーピーク奥日田</t>
@@ -819,7 +813,7 @@
     <t>180分</t>
   </si>
   <si>
-    <t>標高950mのキャンプ場。晴天時は阿蘇五岳が見え、朝は雲海が広がる。スノーピーク直営ストア併設。本格的なキャンプを楽しめる。住所：日田市前津江町椿ヶ鼻</t>
+    <t>標高950mのキャンプ場。晴天時は阿蘇五岳が見え、朝は雲海が広がる。スノーピーク直営ストア併設。本格的なキャンプを楽しめる。住所：日田市前津江町大野６４−１ 旧 椿ヶ鼻ハイランドパーク</t>
   </si>
   <si>
     <t>オートポリス</t>
@@ -831,64 +825,64 @@
     <t>120分</t>
   </si>
   <si>
-    <t>【アンケート人気：1件】「車やバイクが好きな人におすすめ」と評価される国際レーシングコース。スーパーGT等のビッグレース開催。サーキット走行体験も可能。住所：日田市上津江町上野田1112-8</t>
+    <t>【アンケート人気：1件】「車やバイクが好きな人におすすめ」と評価される国際レーシングコース。スーパーGT等のビッグレース開催。サーキット走行体験も可能。住所：日田市上津江町上野田１１１２−８</t>
   </si>
   <si>
     <t>イオンタウン日田ショッピングセンター</t>
   </si>
   <si>
-    <t>【アンケート人気：2件】「日田市内で唯一学生が楽しめる場所」と評価。ショッピング、飲食、娯楽が揃う複合商業施設。駐車場も広く、家族連れに人気。住所：日田市十二町字藤山</t>
+    <t>【アンケート人気：2件】「日田市内で唯一学生が楽しめる場所」と評価。ショッピング、飲食、娯楽が揃う複合商業施設。駐車場も広く、家族連れに人気。住所：日田市庄手６６１−１</t>
   </si>
   <si>
     <t>cafebiyori (カフェビヨリ）</t>
   </si>
   <si>
-    <t>【アンケート人気：5件】「パフェ美味しい」「店がかわいい」と若者に人気のカフェ。おしゃれな内装とインスタ映えするスイーツ。地元食材を使った料理も評判。住所：日田市三本松1-1-27</t>
+    <t>【アンケート人気：5件】「パフェ美味しい」「店がかわいい」と若者に人気のカフェ。おしゃれな内装とインスタ映えするスイーツ。地元食材を使った料理も評判。住所：日田市三本松１丁目１−２７</t>
   </si>
   <si>
     <t>スターバックスコーヒー日田店</t>
   </si>
   <si>
-    <t>【アンケート人気：5件】「夏には花火が見れる」「勉強できる」と人気。三隈川沿いに位置。Wi-Fi完備で学習スペースとしても利用される。住所：日田市三本松2-8-1</t>
+    <t>【アンケート人気：5件】「夏には花火が見れる」「勉強できる」と人気。三隈川沿いに位置。Wi-Fi完備で学習スペースとしても利用される。住所：日田市庄手６４８−６</t>
   </si>
   <si>
     <t>想夫恋（そうふれん）総本店</t>
   </si>
   <si>
-    <t>【アンケート人気：3件】日田やきそばの元祖。鉄板で豪快に焼かれる焼きそばはもやしたっぷりでボリューム満点。創業以来変わらぬ味。豆田町散策の際の食事スポット。住所：日田市隈1-6-17</t>
-  </si>
-  <si>
-    <t>麦屋（むぎや）</t>
-  </si>
-  <si>
-    <t>【アンケート人気：2件】豆田町の人気飲食店。地元の食材を使った料理が評判。古民家を改装した雰囲気のある店内。観光客にも地元民にも人気。住所：日田市豆田町</t>
+    <t>【アンケート人気：3件】日田やきそばの元祖。鉄板で豪快に焼かれる焼きそばはもやしたっぷりでボリューム満点。創業以来変わらぬ味。豆田町散策の際の食事スポット。住所：日田市若宮町４１６−１</t>
+  </si>
+  <si>
+    <t>麦屋カフェ</t>
+  </si>
+  <si>
+    <t>【アンケート人気：2件】豆田町の人気飲食店。地元の食材を使った料理が評判。古民家を改装した雰囲気のある店内。観光客にも地元民にも人気。住所：日田市豆田町９−２</t>
   </si>
   <si>
     <t>SLOW cafe（スローカフェ）</t>
   </si>
   <si>
-    <t>日田インター近くのイタリアンレストラン。ふわふわのオムライスが人気。トマト、デミグラス、ハーフ&amp;ハーフから選べ、デザートとコーヒー付き。進撃の巨人コラボメニューも。住所：日田市</t>
+    <t>日田インター近くのイタリアンレストラン。ふわふわのオムライスが人気。トマト、デミグラス、ハーフ&amp;ハーフから選べ、デザートとコーヒー付き。進撃の巨人コラボメニューも。住所：日田市丸山２丁目１−２６</t>
   </si>
   <si>
     <t>パトリア日田</t>
   </si>
   <si>
-    <t>【アンケート人気：4件】市街地中心部の複合文化施設。「静かで周りにコンビニもあり、ミュージカルや演劇も多い」と評価。大ホール、会議室など多様なスペース。住所：日田市上城内町2-6</t>
+    <t>【アンケート人気：4件】市街地中心部の複合文化施設。「静かで周りにコンビニもあり、ミュージカルや演劇も多い」と評価。大ホール、会議室など多様なスペース。住所：日田市三本松１丁目８−１１</t>
   </si>
   <si>
     <t>アオーゼ（日田市複合文化施設）</t>
   </si>
   <si>
-    <t>【アンケート人気：4件】「勉強できる、Wi-Fiもある」「たくさんの展示があっておもしろい」と学生に人気。図書館、ギャラリー、会議室などを備えた複合施設。住所：日田市上城内町2-6</t>
+    <t>【アンケート人気：4件】「勉強できる、Wi-Fiもある」「たくさんの展示があっておもしろい」と学生に人気。図書館、ギャラリー、会議室などを備えた複合施設。住所：日田市上城内町２−６</t>
   </si>
   <si>
     <t>日田駅周辺</t>
   </si>
   <si>
-    <t>【アンケート人気：11件】「日田のシンボル」「たまに路上ライブがある」と評価される日田の玄関口。観光案内所、レンタサイクルあり。豆田町へも徒歩圏内。住所：日田市元町</t>
-  </si>
-  <si>
-    <t>日田台場跡</t>
+    <t>【アンケート人気：11件】「日田のシンボル」「たまに路上ライブがある」と評価される日田の玄関口。観光案内所、レンタサイクルあり。豆田町へも徒歩圏内。住所：日田市元町１１－１</t>
+  </si>
+  <si>
+    <t>日田台場跡（いらない）</t>
   </si>
   <si>
     <t>幕末に築かれた砲台跡。三隈川と花月川の合流点近くに位置し、日田の防衛拠点だった。現在は史跡として保存され、案内板設置。歴史ファンに興味深いスポット。住所：日田市大字石井</t>
@@ -1284,10 +1278,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3072,16 +3066,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3118,10 +3113,10 @@
         <v>164</v>
       </c>
       <c r="D2">
-        <v>33.327157</v>
+        <v>33.326824284102798</v>
       </c>
       <c r="E2">
-        <v>130.936792</v>
+        <v>130.936431563111</v>
       </c>
       <c r="F2" t="s">
         <v>165</v>
@@ -3291,7 +3286,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3302,10 +3297,10 @@
         <v>175</v>
       </c>
       <c r="D10">
-        <v>33.316670000000002</v>
-      </c>
-      <c r="E10">
-        <v>130.93333000000001</v>
+        <v>33.314296950656903</v>
+      </c>
+      <c r="E10" s="2">
+        <v>130.92980590482301</v>
       </c>
       <c r="F10" t="s">
         <v>178</v>
@@ -3715,8 +3710,8 @@
       <c r="C28" t="s">
         <v>164</v>
       </c>
-      <c r="D28" t="s">
-        <v>228</v>
+      <c r="D28">
+        <v>33.133277672805299</v>
       </c>
       <c r="E28" s="2">
         <v>130.94488156637601</v>
@@ -3725,7 +3720,7 @@
         <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75">
@@ -3733,7 +3728,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
         <v>164</v>
@@ -3748,7 +3743,7 @@
         <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75">
@@ -3756,7 +3751,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
         <v>164</v>
@@ -3771,7 +3766,7 @@
         <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
@@ -3779,7 +3774,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
         <v>164</v>
@@ -3794,7 +3789,7 @@
         <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75">
@@ -3802,10 +3797,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
         <v>236</v>
-      </c>
-      <c r="C32" t="s">
-        <v>237</v>
       </c>
       <c r="D32">
         <v>33.427758975806903</v>
@@ -3817,7 +3812,7 @@
         <v>214</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75">
@@ -3825,7 +3820,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C33" t="s">
         <v>175</v>
@@ -3840,7 +3835,7 @@
         <v>214</v>
       </c>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75">
@@ -3848,22 +3843,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s">
         <v>164</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>33.129940438596797</v>
+      </c>
+      <c r="E34" s="2">
+        <v>130.878366413251</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
         <v>242</v>
-      </c>
-      <c r="E34" s="2">
-        <v>130.88095562087</v>
-      </c>
-      <c r="F34" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75">
@@ -3871,10 +3866,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D35">
         <v>33.313048875418701</v>
@@ -3886,7 +3881,7 @@
         <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3894,10 +3889,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D36">
         <v>33.247469899999999</v>
@@ -3909,7 +3904,7 @@
         <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75">
@@ -3917,10 +3912,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D37">
         <v>33.128426303178898</v>
@@ -3932,7 +3927,7 @@
         <v>178</v>
       </c>
       <c r="G37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75">
@@ -3940,7 +3935,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
         <v>183</v>
@@ -3955,7 +3950,7 @@
         <v>217</v>
       </c>
       <c r="G38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75">
@@ -3963,7 +3958,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
         <v>183</v>
@@ -3978,7 +3973,7 @@
         <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75">
@@ -3986,10 +3981,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D40">
         <v>33.1849417059302</v>
@@ -3998,10 +3993,10 @@
         <v>130.90384073772199</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
@@ -4009,10 +4004,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D41">
         <v>33.039092507431697</v>
@@ -4021,10 +4016,10 @@
         <v>130.973520736545</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75">
@@ -4032,10 +4027,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D42">
         <v>33.311973535248697</v>
@@ -4047,7 +4042,7 @@
         <v>165</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75">
@@ -4055,10 +4050,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D43">
         <v>33.320479527848597</v>
@@ -4070,7 +4065,7 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75">
@@ -4078,10 +4073,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D44">
         <v>33.311948052039902</v>
@@ -4093,7 +4088,7 @@
         <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75">
@@ -4101,10 +4096,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D45">
         <v>33.310568236949102</v>
@@ -4116,30 +4111,30 @@
         <v>168</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D46">
-        <v>33.326455000000003</v>
-      </c>
-      <c r="E46">
-        <v>130.936768</v>
+        <v>33.326478503972297</v>
+      </c>
+      <c r="E46" s="2">
+        <v>130.93682875796</v>
       </c>
       <c r="F46" t="s">
         <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4147,45 +4142,45 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D47">
-        <v>33.332371000000002</v>
+        <v>33.332665531744603</v>
       </c>
       <c r="E47">
-        <v>130.93728100000001</v>
+        <v>130.93725811260299</v>
       </c>
       <c r="F47" t="s">
         <v>168</v>
       </c>
       <c r="G47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D48">
-        <v>33.319198999999998</v>
-      </c>
-      <c r="E48">
-        <v>130.93424899999999</v>
+        <v>33.319277838209402</v>
+      </c>
+      <c r="E48" s="2">
+        <v>130.934230860903</v>
       </c>
       <c r="F48" t="s">
         <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4193,10 +4188,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D49">
         <v>33.326025000000001</v>
@@ -4208,7 +4203,7 @@
         <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4216,22 +4211,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C50" t="s">
         <v>175</v>
       </c>
       <c r="D50">
-        <v>33.317030000000003</v>
+        <v>33.317236186236002</v>
       </c>
       <c r="E50">
-        <v>130.93863999999999</v>
+        <v>130.93873247325001</v>
       </c>
       <c r="F50" t="s">
         <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4239,7 +4234,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
         <v>164</v>
@@ -4254,7 +4249,7 @@
         <v>193</v>
       </c>
       <c r="G51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4276,15 +4271,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AADFA5ADD07F545A224A71C36D9C064" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="69b14e0c1587698044a79ca6a1c91739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3345725-50c9-49b1-96aa-77e0eb33bd0c" xmlns:ns3="71f3be17-62e4-4def-adc8-eaac84d09117" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b8ee077ef5f4fd81661c926fed60c8a" ns2:_="" ns3:_="">
     <xsd:import namespace="f3345725-50c9-49b1-96aa-77e0eb33bd0c"/>
@@ -4479,14 +4465,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185289FB-5466-40C6-9A04-BB6060E0DF3A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B567690-7C98-44F2-9BF1-3C48B42B533B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EABFA7-46A7-4352-98FA-19847D6847F5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EABFA7-46A7-4352-98FA-19847D6847F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B567690-7C98-44F2-9BF1-3C48B42B533B}"/>
 </file>
--- a/spots.xlsx
+++ b/spots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{6D845C24-0666-44B7-A0F2-FB3354D06A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6CB2F7-936E-4C42-968B-80F0D2386888}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{6D845C24-0666-44B7-A0F2-FB3354D06A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B8F752-6682-442B-B221-2DE893F58861}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防災" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="281">
   <si>
     <t>No</t>
   </si>
@@ -880,12 +880,6 @@
   </si>
   <si>
     <t>【アンケート人気：11件】「日田のシンボル」「たまに路上ライブがある」と評価される日田の玄関口。観光案内所、レンタサイクルあり。豆田町へも徒歩圏内。住所：日田市元町１１－１</t>
-  </si>
-  <si>
-    <t>日田台場跡（いらない）</t>
-  </si>
-  <si>
-    <t>幕末に築かれた砲台跡。三隈川と花月川の合流点近くに位置し、日田の防衛拠点だった。現在は史跡として保存され、案内板設置。歴史ファンに興味深いスポット。住所：日田市大字石井</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0636DB-A8FD-47FF-8EEA-2B06C57F0FC9}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3064,16 +3058,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -4227,29 +4222,6 @@
       </c>
       <c r="G50" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>281</v>
-      </c>
-      <c r="C51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51">
-        <v>33.310299999999998</v>
-      </c>
-      <c r="E51">
-        <v>130.93559999999999</v>
-      </c>
-      <c r="F51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G51" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
